--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Export En" sheetId="3" r:id="rId3"/>
     <sheet name="Export Fr" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="240">
   <si>
     <t>pref_app</t>
   </si>
@@ -570,6 +570,174 @@
   <si>
     <t>preference_panel</t>
   </si>
+  <si>
+    <t>Acquiring log</t>
+  </si>
+  <si>
+    <t>log_panel_acquiring</t>
+  </si>
+  <si>
+    <t>log_panel_collect</t>
+  </si>
+  <si>
+    <t>This will collect the GTalkSMS log and create a message for you to send. You will be presented with an editable message - you should send the message to yourself, then attach it to a GTalkSMS issue describing your problem.</t>
+  </si>
+  <si>
+    <t>Acquisition des logs</t>
+  </si>
+  <si>
+    <t>Récupère les logs de GTalkSMS et compose un nouveau message. Vous pouvez vous envoyer ce message et le joindre à un bug décrivant votre problème.</t>
+  </si>
+  <si>
+    <t>main_service_connected</t>
+  </si>
+  <si>
+    <t>main_service_connecting</t>
+  </si>
+  <si>
+    <t>main_service_disconnected</t>
+  </si>
+  <si>
+    <t>main_service_disconnecting</t>
+  </si>
+  <si>
+    <t>main_service_waiting</t>
+  </si>
+  <si>
+    <t>main_service_waiting_to_connect</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>Connecting...</t>
+  </si>
+  <si>
+    <t>Disconnected</t>
+  </si>
+  <si>
+    <t>Disconnecting...</t>
+  </si>
+  <si>
+    <t>Waiting...</t>
+  </si>
+  <si>
+    <t>Waiting to connect...</t>
+  </si>
+  <si>
+    <t>Connecté</t>
+  </si>
+  <si>
+    <t>Connexion…</t>
+  </si>
+  <si>
+    <t>Déconnecté</t>
+  </si>
+  <si>
+    <t>Déconnexion…</t>
+  </si>
+  <si>
+    <t>En attente…</t>
+  </si>
+  <si>
+    <t>En attente de connexion…</t>
+  </si>
+  <si>
+    <t>main_service_stop</t>
+  </si>
+  <si>
+    <t>GTalkSMS stopped</t>
+  </si>
+  <si>
+    <t>Arrêt de GTalkSMS</t>
+  </si>
+  <si>
+    <t>xmpp_manager_reconnecting</t>
+  </si>
+  <si>
+    <t>Failed to connect.</t>
+  </si>
+  <si>
+    <t>Waiting for network to become available.</t>
+  </si>
+  <si>
+    <t>Connection failed.</t>
+  </si>
+  <si>
+    <t>Reconnecting…</t>
+  </si>
+  <si>
+    <t>Login failed.</t>
+  </si>
+  <si>
+    <t>Invalid username or password.</t>
+  </si>
+  <si>
+    <t>xmpp_manager_failed_max_attempts</t>
+  </si>
+  <si>
+    <t>xmpp_manager_waiting</t>
+  </si>
+  <si>
+    <t>xmpp_manager_connection_failed</t>
+  </si>
+  <si>
+    <t>xmpp_manager_login_failed</t>
+  </si>
+  <si>
+    <t>xmpp_manager_invalid_credentials</t>
+  </si>
+  <si>
+    <t>Reconnexion…</t>
+  </si>
+  <si>
+    <t>Echec de la connexion.</t>
+  </si>
+  <si>
+    <t>En attente d\'un réseau disponible…</t>
+  </si>
+  <si>
+    <t>Echec lors de l\'identification.</t>
+  </si>
+  <si>
+    <t>Nom d\'utilisateur ou mot de passe incorrect.</t>
+  </si>
+  <si>
+    <t>about_website</t>
+  </si>
+  <si>
+    <t>about_authors</t>
+  </si>
+  <si>
+    <t>about_donors</t>
+  </si>
+  <si>
+    <t>about_change_log</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Donors</t>
+  </si>
+  <si>
+    <t>Change Log</t>
+  </si>
+  <si>
+    <t>Site Web</t>
+  </si>
+  <si>
+    <t>Auteurs</t>
+  </si>
+  <si>
+    <t>Doneurs</t>
+  </si>
+  <si>
+    <t>Liste des changements</t>
+  </si>
 </sst>
 </file>
 
@@ -900,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:B64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1425,6 +1593,158 @@
         <v>107</v>
       </c>
     </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1433,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1447,698 +1767,5752 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" t="str">
+        <f>IF(En!A1&lt;&gt;0,En!A1,"")</f>
+        <v>pref_app</v>
       </c>
       <c r="B1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
-        <v>56</v>
+      <c r="C1" t="str">
+        <f>IF(En!B1&lt;&gt;0,En!B1,"")</f>
+        <v>Application settings</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" t="str">
+        <f>IF(En!A2&lt;&gt;0,En!A2,"")</f>
+        <v>pref_app_auto_start_options</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
+      <c r="C2" t="str">
+        <f>IF(En!B2&lt;&gt;0,En!B2,"")</f>
+        <v>Auto-start options</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" t="str">
+        <f>IF(En!A3&lt;&gt;0,En!A3,"")</f>
+        <v>pref_app_auto_stop_options</v>
       </c>
       <c r="B3" t="s">
         <v>116</v>
       </c>
-      <c r="C3" t="s">
-        <v>58</v>
+      <c r="C3" t="str">
+        <f>IF(En!B3&lt;&gt;0,En!B3,"")</f>
+        <v>Auto-stop options</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" t="str">
+        <f>IF(En!A4&lt;&gt;0,En!A4,"")</f>
+        <v>pref_app_start_at_boot</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
+      <c r="C4" t="str">
+        <f>IF(En!B4&lt;&gt;0,En!B4,"")</f>
+        <v>At boot</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" t="str">
+        <f>IF(En!A5&lt;&gt;0,En!A5,"")</f>
+        <v>pref_app_start_at_boot_help</v>
       </c>
       <c r="B5" t="s">
         <v>124</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
+      <c r="C5" t="str">
+        <f>IF(En!B5&lt;&gt;0,En!B5,"")</f>
+        <v>Check if you want GTalkSMS to start at boot</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" t="str">
+        <f>IF(En!A6&lt;&gt;0,En!A6,"")</f>
+        <v>pref_app_start_on_power_connected</v>
       </c>
       <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="C6" t="s">
-        <v>60</v>
+      <c r="C6" t="str">
+        <f>IF(En!B6&lt;&gt;0,En!B6,"")</f>
+        <v>When charging</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" t="str">
+        <f>IF(En!A7&lt;&gt;0,En!A7,"")</f>
+        <v>pref_app_start_on_power_connected_help</v>
       </c>
       <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
-        <v>121</v>
+      <c r="C7" t="str">
+        <f>IF(En!B7&lt;&gt;0,En!B7,"")</f>
+        <v>Automatically starts GTalkSMS when a charger is connected</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" t="str">
+        <f>IF(En!A8&lt;&gt;0,En!A8,"")</f>
+        <v>pref_app_stop_on_power_disconnected</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
-      <c r="C8" t="s">
-        <v>61</v>
+      <c r="C8" t="str">
+        <f>IF(En!B8&lt;&gt;0,En!B8,"")</f>
+        <v>When charger disconnected</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" t="str">
+        <f>IF(En!A9&lt;&gt;0,En!A9,"")</f>
+        <v>pref_app_stop_on_power_disconnected_help</v>
       </c>
       <c r="B9" t="s">
         <v>128</v>
       </c>
-      <c r="C9" t="s">
-        <v>122</v>
+      <c r="C9" t="str">
+        <f>IF(En!B9&lt;&gt;0,En!B9,"")</f>
+        <v>Automatically stops GTalkSMS when a charger is disconnected</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" t="str">
+        <f>IF(En!A10&lt;&gt;0,En!A10,"")</f>
+        <v>pref_app_show_status_icon</v>
       </c>
       <c r="B10" t="s">
         <v>172</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
+      <c r="C10" t="str">
+        <f>IF(En!B10&lt;&gt;0,En!B10,"")</f>
+        <v>Status notification icon</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" t="str">
+        <f>IF(En!A11&lt;&gt;0,En!A11,"")</f>
+        <v>pref_app_show_status_icon_help</v>
       </c>
       <c r="B11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
-        <v>123</v>
+      <c r="C11" t="str">
+        <f>IF(En!B11&lt;&gt;0,En!B11,"")</f>
+        <v>Check if you want to see GTalkSMS status icon in notification bar</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" t="str">
+        <f>IF(En!A12&lt;&gt;0,En!A12,"")</f>
+        <v>pref_app_format_responses</v>
       </c>
       <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
+      <c r="C12" t="str">
+        <f>IF(En!B12&lt;&gt;0,En!B12,"")</f>
+        <v>Format chat responses</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" t="str">
+        <f>IF(En!A13&lt;&gt;0,En!A13,"")</f>
+        <v>pref_app_format_responses_help</v>
       </c>
       <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" t="s">
-        <v>173</v>
+      <c r="C13" t="str">
+        <f>IF(En!B13&lt;&gt;0,En!B13,"")</f>
+        <v>Check if you want to format responses with bold and italic, doesn\'t work with all XMPP clients</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" t="str">
+        <f>IF(En!A14&lt;&gt;0,En!A14,"")</f>
+        <v>pref_app_sms_number</v>
       </c>
       <c r="B14" t="s">
         <v>132</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
+      <c r="C14" t="str">
+        <f>IF(En!B14&lt;&gt;0,En!B14,"")</f>
+        <v>Number of SMS</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" t="str">
+        <f>IF(En!A15&lt;&gt;0,En!A15,"")</f>
+        <v>pref_app_sms_number_help</v>
       </c>
       <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
+      <c r="C15" t="str">
+        <f>IF(En!B15&lt;&gt;0,En!B15,"")</f>
+        <v>Number of SMS to show</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" t="str">
+        <f>IF(En!A16&lt;&gt;0,En!A16,"")</f>
+        <v>pref_app_show_sent_sms</v>
       </c>
       <c r="B16" t="s">
         <v>134</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
+      <c r="C16" t="str">
+        <f>IF(En!B16&lt;&gt;0,En!B16,"")</f>
+        <v>Show sent SMS</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" t="str">
+        <f>IF(En!A17&lt;&gt;0,En!A17,"")</f>
+        <v>pref_app_show_sent_sms_help</v>
       </c>
       <c r="B17" t="s">
         <v>135</v>
       </c>
-      <c r="C17" t="s">
-        <v>115</v>
+      <c r="C17" t="str">
+        <f>IF(En!B17&lt;&gt;0,En!B17,"")</f>
+        <v>Check if you want to see sent SMS</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" t="str">
+        <f>IF(En!A18&lt;&gt;0,En!A18,"")</f>
+        <v>pref_app_call_logs_number</v>
       </c>
       <c r="B18" t="s">
         <v>174</v>
       </c>
-      <c r="C18" t="s">
-        <v>67</v>
+      <c r="C18" t="str">
+        <f>IF(En!B18&lt;&gt;0,En!B18,"")</f>
+        <v>Number of Call Logs</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" t="str">
+        <f>IF(En!A19&lt;&gt;0,En!A19,"")</f>
+        <v>pref_app_call_logs_number_help</v>
       </c>
       <c r="B19" t="s">
         <v>175</v>
       </c>
-      <c r="C19" t="s">
-        <v>68</v>
+      <c r="C19" t="str">
+        <f>IF(En!B19&lt;&gt;0,En!B19,"")</f>
+        <v>Number of call logs to show</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" t="str">
+        <f>IF(En!A20&lt;&gt;0,En!A20,"")</f>
+        <v>pref_app_ringtone</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
-        <v>69</v>
+      <c r="C20" t="str">
+        <f>IF(En!B20&lt;&gt;0,En!B20,"")</f>
+        <v>Ring with</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" t="str">
+        <f>IF(En!A21&lt;&gt;0,En!A21,"")</f>
+        <v>pref_app_ringtone_help</v>
       </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
-      <c r="C21" t="s">
-        <v>70</v>
+      <c r="C21" t="str">
+        <f>IF(En!B21&lt;&gt;0,En!B21,"")</f>
+        <v>Ringtone to use with the ring command</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" t="str">
+        <f>IF(En!A22&lt;&gt;0,En!A22,"")</f>
+        <v>pref_con</v>
       </c>
       <c r="B22" t="s">
         <v>153</v>
       </c>
-      <c r="C22" t="s">
-        <v>71</v>
+      <c r="C22" t="str">
+        <f>IF(En!B22&lt;&gt;0,En!B22,"")</f>
+        <v>Connection settings</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" t="str">
+        <f>IF(En!A23&lt;&gt;0,En!A23,"")</f>
+        <v>pref_con_notified_address_cat</v>
       </c>
       <c r="B23" t="s">
         <v>139</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
+      <c r="C23" t="str">
+        <f>IF(En!B23&lt;&gt;0,En!B23,"")</f>
+        <v>Address to notify</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" t="str">
+        <f>IF(En!A24&lt;&gt;0,En!A24,"")</f>
+        <v>pref_con_notified_address</v>
       </c>
       <c r="B24" t="s">
         <v>139</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
+      <c r="C24" t="str">
+        <f>IF(En!B24&lt;&gt;0,En!B24,"")</f>
+        <v>Address to notify</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" t="str">
+        <f>IF(En!A25&lt;&gt;0,En!A25,"")</f>
+        <v>pref_con_notified_address_help</v>
       </c>
       <c r="B25" t="s">
         <v>140</v>
       </c>
-      <c r="C25" t="s">
-        <v>114</v>
+      <c r="C25" t="str">
+        <f>IF(En!B25&lt;&gt;0,En!B25,"")</f>
+        <v>Enter your GMail address</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" t="str">
+        <f>IF(En!A26&lt;&gt;0,En!A26,"")</f>
+        <v>pref_con_cat</v>
       </c>
       <c r="B26" t="s">
         <v>138</v>
       </c>
-      <c r="C26" t="s">
-        <v>71</v>
+      <c r="C26" t="str">
+        <f>IF(En!B26&lt;&gt;0,En!B26,"")</f>
+        <v>Connection settings</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" t="str">
+        <f>IF(En!A27&lt;&gt;0,En!A27,"")</f>
+        <v>pref_con_use_different_account</v>
       </c>
       <c r="B27" t="s">
         <v>141</v>
       </c>
-      <c r="C27" t="s">
-        <v>73</v>
+      <c r="C27" t="str">
+        <f>IF(En!B27&lt;&gt;0,En!B27,"")</f>
+        <v>Use a different account</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" t="str">
+        <f>IF(En!A28&lt;&gt;0,En!A28,"")</f>
+        <v>pref_con_use_different_account_help</v>
       </c>
       <c r="B28" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
-        <v>74</v>
+      <c r="C28" t="str">
+        <f>IF(En!B28&lt;&gt;0,En!B28,"")</f>
+        <v>Check if you want the phone to connect from a different account</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" t="str">
+        <f>IF(En!A29&lt;&gt;0,En!A29,"")</f>
+        <v>pref_con_login</v>
       </c>
       <c r="B29" t="s">
         <v>176</v>
       </c>
-      <c r="C29" t="s">
-        <v>75</v>
+      <c r="C29" t="str">
+        <f>IF(En!B29&lt;&gt;0,En!B29,"")</f>
+        <v>Login</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" t="str">
+        <f>IF(En!A30&lt;&gt;0,En!A30,"")</f>
+        <v>pref_con_login_help</v>
       </c>
       <c r="B30" t="s">
         <v>177</v>
       </c>
-      <c r="C30" t="s">
-        <v>76</v>
+      <c r="C30" t="str">
+        <f>IF(En!B30&lt;&gt;0,En!B30,"")</f>
+        <v>Login used by the phone</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" t="str">
+        <f>IF(En!A31&lt;&gt;0,En!A31,"")</f>
+        <v>pref_con_password</v>
       </c>
       <c r="B31" t="s">
         <v>143</v>
       </c>
-      <c r="C31" t="s">
-        <v>77</v>
+      <c r="C31" t="str">
+        <f>IF(En!B31&lt;&gt;0,En!B31,"")</f>
+        <v>Password</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" t="str">
+        <f>IF(En!A32&lt;&gt;0,En!A32,"")</f>
+        <v>pref_con_password_help</v>
       </c>
       <c r="B32" t="s">
         <v>144</v>
       </c>
-      <c r="C32" t="s">
-        <v>113</v>
+      <c r="C32" t="str">
+        <f>IF(En!B32&lt;&gt;0,En!B32,"")</f>
+        <v>Enter your GMail password or the password used by the phone to connect</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" t="str">
+        <f>IF(En!A33&lt;&gt;0,En!A33,"")</f>
+        <v>pref_con_server_settings</v>
       </c>
       <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="C33" t="s">
-        <v>78</v>
+      <c r="C33" t="str">
+        <f>IF(En!B33&lt;&gt;0,En!B33,"")</f>
+        <v>Server settings</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" t="str">
+        <f>IF(En!A34&lt;&gt;0,En!A34,"")</f>
+        <v>pref_con_server_host</v>
       </c>
       <c r="B34" t="s">
         <v>146</v>
       </c>
-      <c r="C34" t="s">
-        <v>79</v>
+      <c r="C34" t="str">
+        <f>IF(En!B34&lt;&gt;0,En!B34,"")</f>
+        <v>Server host</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" t="str">
+        <f>IF(En!A35&lt;&gt;0,En!A35,"")</f>
+        <v>pref_con_server_host_help</v>
       </c>
       <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="C35" t="s">
-        <v>80</v>
+      <c r="C35" t="str">
+        <f>IF(En!B35&lt;&gt;0,En!B35,"")</f>
+        <v>Server host used by the phone</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" t="str">
+        <f>IF(En!A36&lt;&gt;0,En!A36,"")</f>
+        <v>pref_con_server_port</v>
       </c>
       <c r="B36" t="s">
         <v>148</v>
       </c>
-      <c r="C36" t="s">
-        <v>81</v>
+      <c r="C36" t="str">
+        <f>IF(En!B36&lt;&gt;0,En!B36,"")</f>
+        <v>Server port</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" t="str">
+        <f>IF(En!A37&lt;&gt;0,En!A37,"")</f>
+        <v>pref_con_server_port_help</v>
       </c>
       <c r="B37" t="s">
         <v>149</v>
       </c>
-      <c r="C37" t="s">
-        <v>82</v>
+      <c r="C37" t="str">
+        <f>IF(En!B37&lt;&gt;0,En!B37,"")</f>
+        <v>Server port used by the phone</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" t="str">
+        <f>IF(En!A38&lt;&gt;0,En!A38,"")</f>
+        <v>pref_con_service_name</v>
       </c>
       <c r="B38" t="s">
         <v>150</v>
       </c>
-      <c r="C38" t="s">
-        <v>83</v>
+      <c r="C38" t="str">
+        <f>IF(En!B38&lt;&gt;0,En!B38,"")</f>
+        <v>Service name</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" t="str">
+        <f>IF(En!A39&lt;&gt;0,En!A39,"")</f>
+        <v>pref_con_service_name_help</v>
       </c>
       <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="C39" t="s">
-        <v>84</v>
+      <c r="C39" t="str">
+        <f>IF(En!B39&lt;&gt;0,En!B39,"")</f>
+        <v>Service name used by the phone</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" t="str">
+        <f>IF(En!A40&lt;&gt;0,En!A40,"")</f>
+        <v>pref_notif</v>
       </c>
       <c r="B40" t="s">
         <v>154</v>
       </c>
-      <c r="C40" t="s">
-        <v>85</v>
+      <c r="C40" t="str">
+        <f>IF(En!B40&lt;&gt;0,En!B40,"")</f>
+        <v>Notification settings</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" t="str">
+        <f>IF(En!A41&lt;&gt;0,En!A41,"")</f>
+        <v>pref_notif_application_connection</v>
       </c>
       <c r="B41" t="s">
         <v>178</v>
       </c>
-      <c r="C41" t="s">
-        <v>86</v>
+      <c r="C41" t="str">
+        <f>IF(En!B41&lt;&gt;0,En!B41,"")</f>
+        <v>Application connection</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" t="str">
+        <f>IF(En!A42&lt;&gt;0,En!A42,"")</f>
+        <v>pref_notif_application_connection_help</v>
       </c>
       <c r="B42" t="s">
         <v>155</v>
       </c>
-      <c r="C42" t="s">
-        <v>87</v>
+      <c r="C42" t="str">
+        <f>IF(En!B42&lt;&gt;0,En!B42,"")</f>
+        <v>Phone reconnect notification</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>42</v>
+      <c r="A43" t="str">
+        <f>IF(En!A43&lt;&gt;0,En!A43,"")</f>
+        <v>pref_notif_battery_state</v>
       </c>
       <c r="B43" t="s">
         <v>156</v>
       </c>
-      <c r="C43" t="s">
-        <v>88</v>
+      <c r="C43" t="str">
+        <f>IF(En!B43&lt;&gt;0,En!B43,"")</f>
+        <v>Battery state changes</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>43</v>
+      <c r="A44" t="str">
+        <f>IF(En!A44&lt;&gt;0,En!A44,"")</f>
+        <v>pref_notif_battery_state_help</v>
       </c>
       <c r="B44" t="s">
         <v>157</v>
       </c>
-      <c r="C44" t="s">
-        <v>89</v>
+      <c r="C44" t="str">
+        <f>IF(En!B44&lt;&gt;0,En!B44,"")</f>
+        <v>Battery state notification</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>44</v>
+      <c r="A45" t="str">
+        <f>IF(En!A45&lt;&gt;0,En!A45,"")</f>
+        <v>pref_notif_battery_notif_interval</v>
       </c>
       <c r="B45" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
-        <v>90</v>
+      <c r="C45" t="str">
+        <f>IF(En!B45&lt;&gt;0,En!B45,"")</f>
+        <v>Battery notification interval</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>45</v>
+      <c r="A46" t="str">
+        <f>IF(En!A46&lt;&gt;0,En!A46,"")</f>
+        <v>pref_notif_battery_notif_interval_help</v>
       </c>
       <c r="B46" t="s">
         <v>179</v>
       </c>
-      <c r="C46" t="s">
-        <v>91</v>
+      <c r="C46" t="str">
+        <f>IF(En!B46&lt;&gt;0,En!B46,"")</f>
+        <v>This preference allows to set the battery notification interval in percents</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>46</v>
+      <c r="A47" t="str">
+        <f>IF(En!A47&lt;&gt;0,En!A47,"")</f>
+        <v>pref_notif_battery_state_in_status</v>
       </c>
       <c r="B47" t="s">
         <v>180</v>
       </c>
-      <c r="C47" t="s">
-        <v>92</v>
+      <c r="C47" t="str">
+        <f>IF(En!B47&lt;&gt;0,En!B47,"")</f>
+        <v>Set battery state changes in GTalk status</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>47</v>
+      <c r="A48" t="str">
+        <f>IF(En!A48&lt;&gt;0,En!A48,"")</f>
+        <v>pref_notif_battery_state_in_status_help</v>
       </c>
       <c r="B48" t="s">
         <v>159</v>
       </c>
-      <c r="C48" t="s">
-        <v>93</v>
+      <c r="C48" t="str">
+        <f>IF(En!B48&lt;&gt;0,En!B48,"")</f>
+        <v>Battery state notification in presence status</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>48</v>
+      <c r="A49" t="str">
+        <f>IF(En!A49&lt;&gt;0,En!A49,"")</f>
+        <v>pref_notif_incoming_sms</v>
       </c>
       <c r="B49" t="s">
         <v>160</v>
       </c>
-      <c r="C49" t="s">
-        <v>94</v>
+      <c r="C49" t="str">
+        <f>IF(En!B49&lt;&gt;0,En!B49,"")</f>
+        <v>Incoming SMS</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>49</v>
+      <c r="A50" t="str">
+        <f>IF(En!A50&lt;&gt;0,En!A50,"")</f>
+        <v>pref_notif_incoming_sms_help</v>
       </c>
       <c r="B50" t="s">
         <v>161</v>
       </c>
-      <c r="C50" t="s">
-        <v>95</v>
+      <c r="C50" t="str">
+        <f>IF(En!B50&lt;&gt;0,En!B50,"")</f>
+        <v>Incoming SMS notification</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>50</v>
+      <c r="A51" t="str">
+        <f>IF(En!A51&lt;&gt;0,En!A51,"")</f>
+        <v>pref_notif_incoming_calls</v>
       </c>
       <c r="B51" t="s">
         <v>162</v>
       </c>
-      <c r="C51" t="s">
-        <v>96</v>
+      <c r="C51" t="str">
+        <f>IF(En!B51&lt;&gt;0,En!B51,"")</f>
+        <v>Incoming calls</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>51</v>
+      <c r="A52" t="str">
+        <f>IF(En!A52&lt;&gt;0,En!A52,"")</f>
+        <v>pref_notif_incoming_calls_help</v>
       </c>
       <c r="B52" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
-        <v>97</v>
+      <c r="C52" t="str">
+        <f>IF(En!B52&lt;&gt;0,En!B52,"")</f>
+        <v>Incoming call notification</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>52</v>
+      <c r="A53" t="str">
+        <f>IF(En!A53&lt;&gt;0,En!A53,"")</f>
+        <v>pref_notif_sms_sent</v>
       </c>
       <c r="B53" t="s">
         <v>164</v>
       </c>
-      <c r="C53" t="s">
-        <v>98</v>
+      <c r="C53" t="str">
+        <f>IF(En!B53&lt;&gt;0,En!B53,"")</f>
+        <v>SMS sent</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>53</v>
+      <c r="A54" t="str">
+        <f>IF(En!A54&lt;&gt;0,En!A54,"")</f>
+        <v>pref_notif_sms_sent_help</v>
       </c>
       <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="C54" t="s">
-        <v>99</v>
+      <c r="C54" t="str">
+        <f>IF(En!B54&lt;&gt;0,En!B54,"")</f>
+        <v>SMS sent notification</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>54</v>
+      <c r="A55" t="str">
+        <f>IF(En!A55&lt;&gt;0,En!A55,"")</f>
+        <v>pref_notif_sms_delivered</v>
       </c>
       <c r="B55" t="s">
         <v>166</v>
       </c>
-      <c r="C55" t="s">
-        <v>100</v>
+      <c r="C55" t="str">
+        <f>IF(En!B55&lt;&gt;0,En!B55,"")</f>
+        <v>SMS delivered</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>55</v>
+      <c r="A56" t="str">
+        <f>IF(En!A56&lt;&gt;0,En!A56,"")</f>
+        <v>pref_notif_sms_delivered_help</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
-      <c r="C56" t="s">
-        <v>101</v>
+      <c r="C56" t="str">
+        <f>IF(En!B56&lt;&gt;0,En!B56,"")</f>
+        <v>SMS delivery notification</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>105</v>
+      <c r="A57" t="str">
+        <f>IF(En!A57&lt;&gt;0,En!A57,"")</f>
+        <v>main_but_start_stop</v>
       </c>
       <c r="B57" t="s">
         <v>169</v>
       </c>
-      <c r="C57" t="s">
-        <v>106</v>
+      <c r="C57" t="str">
+        <f>IF(En!B57&lt;&gt;0,En!B57,"")</f>
+        <v>Start/Stop</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>112</v>
+      <c r="A58" t="str">
+        <f>IF(En!A58&lt;&gt;0,En!A58,"")</f>
+        <v>main_but_preferences</v>
       </c>
       <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="C58" t="s">
-        <v>107</v>
+      <c r="C58" t="str">
+        <f>IF(En!B58&lt;&gt;0,En!B58,"")</f>
+        <v>Preferences</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>111</v>
+      <c r="A59" t="str">
+        <f>IF(En!A59&lt;&gt;0,En!A59,"")</f>
+        <v>main_but_send_clipboard</v>
       </c>
       <c r="B59" t="s">
         <v>170</v>
       </c>
-      <c r="C59" t="s">
-        <v>108</v>
+      <c r="C59" t="str">
+        <f>IF(En!B59&lt;&gt;0,En!B59,"")</f>
+        <v>Send Clipboard</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>110</v>
+      <c r="A60" t="str">
+        <f>IF(En!A60&lt;&gt;0,En!A60,"")</f>
+        <v>main_but_about</v>
       </c>
       <c r="B60" t="s">
         <v>171</v>
       </c>
-      <c r="C60" t="s">
-        <v>109</v>
+      <c r="C60" t="str">
+        <f>IF(En!B60&lt;&gt;0,En!B60,"")</f>
+        <v>About</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>102</v>
+      <c r="A61" t="str">
+        <f>IF(En!A61&lt;&gt;0,En!A61,"")</f>
+        <v>app_name</v>
       </c>
       <c r="B61" t="s">
         <v>103</v>
       </c>
-      <c r="C61" t="s">
-        <v>103</v>
+      <c r="C61" t="str">
+        <f>IF(En!B61&lt;&gt;0,En!B61,"")</f>
+        <v>GTalkSMS</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>181</v>
+      <c r="A62" t="str">
+        <f>IF(En!A62&lt;&gt;0,En!A62,"")</f>
+        <v>about_panel</v>
       </c>
       <c r="B62" t="s">
         <v>168</v>
       </c>
+      <c r="C62" t="str">
+        <f>IF(En!B62&lt;&gt;0,En!B62,"")</f>
+        <v>About GTalkSMS</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>182</v>
+      <c r="A63" t="str">
+        <f>IF(En!A63&lt;&gt;0,En!A63,"")</f>
+        <v>main_panel</v>
       </c>
       <c r="B63" t="s">
         <v>103</v>
       </c>
+      <c r="C63" t="str">
+        <f>IF(En!B63&lt;&gt;0,En!B63,"")</f>
+        <v>GTalkSMS</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>183</v>
+      <c r="A64" t="str">
+        <f>IF(En!A64&lt;&gt;0,En!A64,"")</f>
+        <v>preference_panel</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
+      </c>
+      <c r="C64" t="str">
+        <f>IF(En!B64&lt;&gt;0,En!B64,"")</f>
+        <v>Preferences</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="str">
+        <f>IF(En!A65&lt;&gt;0,En!A65,"")</f>
+        <v>log_panel_acquiring</v>
+      </c>
+      <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" t="str">
+        <f>IF(En!B65&lt;&gt;0,En!B65,"")</f>
+        <v>Acquiring log</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="str">
+        <f>IF(En!A66&lt;&gt;0,En!A66,"")</f>
+        <v>log_panel_collect</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" t="str">
+        <f>IF(En!B66&lt;&gt;0,En!B66,"")</f>
+        <v>This will collect the GTalkSMS log and create a message for you to send. You will be presented with an editable message - you should send the message to yourself, then attach it to a GTalkSMS issue describing your problem.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="str">
+        <f>IF(En!A67&lt;&gt;0,En!A67,"")</f>
+        <v>main_service_connected</v>
+      </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="str">
+        <f>IF(En!B67&lt;&gt;0,En!B67,"")</f>
+        <v>Connected</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="str">
+        <f>IF(En!A68&lt;&gt;0,En!A68,"")</f>
+        <v>main_service_connecting</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="str">
+        <f>IF(En!B68&lt;&gt;0,En!B68,"")</f>
+        <v>Connecting...</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="str">
+        <f>IF(En!A69&lt;&gt;0,En!A69,"")</f>
+        <v>main_service_disconnected</v>
+      </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="str">
+        <f>IF(En!B69&lt;&gt;0,En!B69,"")</f>
+        <v>Disconnected</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="str">
+        <f>IF(En!A70&lt;&gt;0,En!A70,"")</f>
+        <v>main_service_disconnecting</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="str">
+        <f>IF(En!B70&lt;&gt;0,En!B70,"")</f>
+        <v>Disconnecting...</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="str">
+        <f>IF(En!A71&lt;&gt;0,En!A71,"")</f>
+        <v>main_service_waiting</v>
+      </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="str">
+        <f>IF(En!B71&lt;&gt;0,En!B71,"")</f>
+        <v>Waiting...</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="str">
+        <f>IF(En!A72&lt;&gt;0,En!A72,"")</f>
+        <v>main_service_waiting_to_connect</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="str">
+        <f>IF(En!B72&lt;&gt;0,En!B72,"")</f>
+        <v>Waiting to connect...</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="str">
+        <f>IF(En!A73&lt;&gt;0,En!A73,"")</f>
+        <v>main_service_stop</v>
+      </c>
+      <c r="B73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" t="str">
+        <f>IF(En!B73&lt;&gt;0,En!B73,"")</f>
+        <v>GTalkSMS stopped</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="str">
+        <f>IF(En!A74&lt;&gt;0,En!A74,"")</f>
+        <v>xmpp_manager_reconnecting</v>
+      </c>
+      <c r="B74" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" t="str">
+        <f>IF(En!B74&lt;&gt;0,En!B74,"")</f>
+        <v>Reconnecting…</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="str">
+        <f>IF(En!A75&lt;&gt;0,En!A75,"")</f>
+        <v>xmpp_manager_failed_max_attempts</v>
+      </c>
+      <c r="B75" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" t="str">
+        <f>IF(En!B75&lt;&gt;0,En!B75,"")</f>
+        <v>Failed to connect.</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="str">
+        <f>IF(En!A76&lt;&gt;0,En!A76,"")</f>
+        <v>xmpp_manager_waiting</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="str">
+        <f>IF(En!B76&lt;&gt;0,En!B76,"")</f>
+        <v>Waiting for network to become available.</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="str">
+        <f>IF(En!A77&lt;&gt;0,En!A77,"")</f>
+        <v>xmpp_manager_connection_failed</v>
+      </c>
+      <c r="B77" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IF(En!B77&lt;&gt;0,En!B77,"")</f>
+        <v>Connection failed.</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="str">
+        <f>IF(En!A78&lt;&gt;0,En!A78,"")</f>
+        <v>xmpp_manager_login_failed</v>
+      </c>
+      <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="str">
+        <f>IF(En!B78&lt;&gt;0,En!B78,"")</f>
+        <v>Login failed.</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="str">
+        <f>IF(En!A79&lt;&gt;0,En!A79,"")</f>
+        <v>xmpp_manager_invalid_credentials</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" t="str">
+        <f>IF(En!B79&lt;&gt;0,En!B79,"")</f>
+        <v>Invalid username or password.</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="str">
+        <f>IF(En!A80&lt;&gt;0,En!A80,"")</f>
+        <v>about_website</v>
+      </c>
+      <c r="B80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="str">
+        <f>IF(En!B80&lt;&gt;0,En!B80,"")</f>
+        <v>Website</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="str">
+        <f>IF(En!A81&lt;&gt;0,En!A81,"")</f>
+        <v>about_authors</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="str">
+        <f>IF(En!B81&lt;&gt;0,En!B81,"")</f>
+        <v>Authors</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="str">
+        <f>IF(En!A82&lt;&gt;0,En!A82,"")</f>
+        <v>about_donors</v>
+      </c>
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="str">
+        <f>IF(En!B82&lt;&gt;0,En!B82,"")</f>
+        <v>Donors</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="str">
+        <f>IF(En!A83&lt;&gt;0,En!A83,"")</f>
+        <v>about_change_log</v>
+      </c>
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" t="str">
+        <f>IF(En!B83&lt;&gt;0,En!B83,"")</f>
+        <v>Change Log</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="str">
+        <f>IF(En!A84&lt;&gt;0,En!A84,"")</f>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f>IF(En!B84&lt;&gt;0,En!B84,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="str">
+        <f>IF(En!A85&lt;&gt;0,En!A85,"")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f>IF(En!B85&lt;&gt;0,En!B85,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="str">
+        <f>IF(En!A86&lt;&gt;0,En!A86,"")</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f>IF(En!B86&lt;&gt;0,En!B86,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="str">
+        <f>IF(En!A87&lt;&gt;0,En!A87,"")</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="str">
+        <f>IF(En!A88&lt;&gt;0,En!A88,"")</f>
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="str">
+        <f>IF(En!A89&lt;&gt;0,En!A89,"")</f>
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="str">
+        <f>IF(En!A90&lt;&gt;0,En!A90,"")</f>
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="str">
+        <f>IF(En!A91&lt;&gt;0,En!A91,"")</f>
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="str">
+        <f>IF(En!A92&lt;&gt;0,En!A92,"")</f>
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="str">
+        <f>IF(En!A93&lt;&gt;0,En!A93,"")</f>
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="str">
+        <f>IF(En!A94&lt;&gt;0,En!A94,"")</f>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="str">
+        <f>IF(En!A95&lt;&gt;0,En!A95,"")</f>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="str">
+        <f>IF(En!A96&lt;&gt;0,En!A96,"")</f>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="str">
+        <f>IF(En!A97&lt;&gt;0,En!A97,"")</f>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="str">
+        <f>IF(En!A98&lt;&gt;0,En!A98,"")</f>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="str">
+        <f>IF(En!A99&lt;&gt;0,En!A99,"")</f>
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="str">
+        <f>IF(En!A100&lt;&gt;0,En!A100,"")</f>
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="str">
+        <f>IF(En!A101&lt;&gt;0,En!A101,"")</f>
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="str">
+        <f>IF(En!A102&lt;&gt;0,En!A102,"")</f>
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="str">
+        <f>IF(En!A103&lt;&gt;0,En!A103,"")</f>
+        <v/>
+      </c>
+      <c r="C103" t="str">
+        <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="str">
+        <f>IF(En!A104&lt;&gt;0,En!A104,"")</f>
+        <v/>
+      </c>
+      <c r="C104" t="str">
+        <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="str">
+        <f>IF(En!A105&lt;&gt;0,En!A105,"")</f>
+        <v/>
+      </c>
+      <c r="C105" t="str">
+        <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="str">
+        <f>IF(En!A106&lt;&gt;0,En!A106,"")</f>
+        <v/>
+      </c>
+      <c r="C106" t="str">
+        <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="str">
+        <f>IF(En!A107&lt;&gt;0,En!A107,"")</f>
+        <v/>
+      </c>
+      <c r="C107" t="str">
+        <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="str">
+        <f>IF(En!A108&lt;&gt;0,En!A108,"")</f>
+        <v/>
+      </c>
+      <c r="C108" t="str">
+        <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="str">
+        <f>IF(En!A109&lt;&gt;0,En!A109,"")</f>
+        <v/>
+      </c>
+      <c r="C109" t="str">
+        <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="str">
+        <f>IF(En!A110&lt;&gt;0,En!A110,"")</f>
+        <v/>
+      </c>
+      <c r="C110" t="str">
+        <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="str">
+        <f>IF(En!A111&lt;&gt;0,En!A111,"")</f>
+        <v/>
+      </c>
+      <c r="C111" t="str">
+        <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="str">
+        <f>IF(En!A112&lt;&gt;0,En!A112,"")</f>
+        <v/>
+      </c>
+      <c r="C112" t="str">
+        <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="str">
+        <f>IF(En!A113&lt;&gt;0,En!A113,"")</f>
+        <v/>
+      </c>
+      <c r="C113" t="str">
+        <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="str">
+        <f>IF(En!A114&lt;&gt;0,En!A114,"")</f>
+        <v/>
+      </c>
+      <c r="C114" t="str">
+        <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="str">
+        <f>IF(En!A115&lt;&gt;0,En!A115,"")</f>
+        <v/>
+      </c>
+      <c r="C115" t="str">
+        <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="str">
+        <f>IF(En!A116&lt;&gt;0,En!A116,"")</f>
+        <v/>
+      </c>
+      <c r="C116" t="str">
+        <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="str">
+        <f>IF(En!A117&lt;&gt;0,En!A117,"")</f>
+        <v/>
+      </c>
+      <c r="C117" t="str">
+        <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="str">
+        <f>IF(En!A118&lt;&gt;0,En!A118,"")</f>
+        <v/>
+      </c>
+      <c r="C118" t="str">
+        <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="str">
+        <f>IF(En!A119&lt;&gt;0,En!A119,"")</f>
+        <v/>
+      </c>
+      <c r="C119" t="str">
+        <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="str">
+        <f>IF(En!A120&lt;&gt;0,En!A120,"")</f>
+        <v/>
+      </c>
+      <c r="C120" t="str">
+        <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="str">
+        <f>IF(En!A121&lt;&gt;0,En!A121,"")</f>
+        <v/>
+      </c>
+      <c r="C121" t="str">
+        <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="str">
+        <f>IF(En!A122&lt;&gt;0,En!A122,"")</f>
+        <v/>
+      </c>
+      <c r="C122" t="str">
+        <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="str">
+        <f>IF(En!A123&lt;&gt;0,En!A123,"")</f>
+        <v/>
+      </c>
+      <c r="C123" t="str">
+        <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="str">
+        <f>IF(En!A124&lt;&gt;0,En!A124,"")</f>
+        <v/>
+      </c>
+      <c r="C124" t="str">
+        <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="str">
+        <f>IF(En!A125&lt;&gt;0,En!A125,"")</f>
+        <v/>
+      </c>
+      <c r="C125" t="str">
+        <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="str">
+        <f>IF(En!A126&lt;&gt;0,En!A126,"")</f>
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="str">
+        <f>IF(En!A127&lt;&gt;0,En!A127,"")</f>
+        <v/>
+      </c>
+      <c r="C127" t="str">
+        <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="str">
+        <f>IF(En!A128&lt;&gt;0,En!A128,"")</f>
+        <v/>
+      </c>
+      <c r="C128" t="str">
+        <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="str">
+        <f>IF(En!A129&lt;&gt;0,En!A129,"")</f>
+        <v/>
+      </c>
+      <c r="C129" t="str">
+        <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="str">
+        <f>IF(En!A130&lt;&gt;0,En!A130,"")</f>
+        <v/>
+      </c>
+      <c r="C130" t="str">
+        <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="str">
+        <f>IF(En!A131&lt;&gt;0,En!A131,"")</f>
+        <v/>
+      </c>
+      <c r="C131" t="str">
+        <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="str">
+        <f>IF(En!A132&lt;&gt;0,En!A132,"")</f>
+        <v/>
+      </c>
+      <c r="C132" t="str">
+        <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="str">
+        <f>IF(En!A133&lt;&gt;0,En!A133,"")</f>
+        <v/>
+      </c>
+      <c r="C133" t="str">
+        <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="str">
+        <f>IF(En!A134&lt;&gt;0,En!A134,"")</f>
+        <v/>
+      </c>
+      <c r="C134" t="str">
+        <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="str">
+        <f>IF(En!A135&lt;&gt;0,En!A135,"")</f>
+        <v/>
+      </c>
+      <c r="C135" t="str">
+        <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="str">
+        <f>IF(En!A136&lt;&gt;0,En!A136,"")</f>
+        <v/>
+      </c>
+      <c r="C136" t="str">
+        <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="str">
+        <f>IF(En!A137&lt;&gt;0,En!A137,"")</f>
+        <v/>
+      </c>
+      <c r="C137" t="str">
+        <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="str">
+        <f>IF(En!A138&lt;&gt;0,En!A138,"")</f>
+        <v/>
+      </c>
+      <c r="C138" t="str">
+        <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="str">
+        <f>IF(En!A139&lt;&gt;0,En!A139,"")</f>
+        <v/>
+      </c>
+      <c r="C139" t="str">
+        <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="str">
+        <f>IF(En!A140&lt;&gt;0,En!A140,"")</f>
+        <v/>
+      </c>
+      <c r="C140" t="str">
+        <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="str">
+        <f>IF(En!A141&lt;&gt;0,En!A141,"")</f>
+        <v/>
+      </c>
+      <c r="C141" t="str">
+        <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="str">
+        <f>IF(En!A142&lt;&gt;0,En!A142,"")</f>
+        <v/>
+      </c>
+      <c r="C142" t="str">
+        <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="str">
+        <f>IF(En!A143&lt;&gt;0,En!A143,"")</f>
+        <v/>
+      </c>
+      <c r="C143" t="str">
+        <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="str">
+        <f>IF(En!A144&lt;&gt;0,En!A144,"")</f>
+        <v/>
+      </c>
+      <c r="C144" t="str">
+        <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="str">
+        <f>IF(En!A145&lt;&gt;0,En!A145,"")</f>
+        <v/>
+      </c>
+      <c r="C145" t="str">
+        <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="str">
+        <f>IF(En!A146&lt;&gt;0,En!A146,"")</f>
+        <v/>
+      </c>
+      <c r="C146" t="str">
+        <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="str">
+        <f>IF(En!A147&lt;&gt;0,En!A147,"")</f>
+        <v/>
+      </c>
+      <c r="C147" t="str">
+        <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="str">
+        <f>IF(En!A148&lt;&gt;0,En!A148,"")</f>
+        <v/>
+      </c>
+      <c r="C148" t="str">
+        <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="str">
+        <f>IF(En!A149&lt;&gt;0,En!A149,"")</f>
+        <v/>
+      </c>
+      <c r="C149" t="str">
+        <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="str">
+        <f>IF(En!A150&lt;&gt;0,En!A150,"")</f>
+        <v/>
+      </c>
+      <c r="C150" t="str">
+        <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="str">
+        <f>IF(En!A151&lt;&gt;0,En!A151,"")</f>
+        <v/>
+      </c>
+      <c r="C151" t="str">
+        <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="str">
+        <f>IF(En!A152&lt;&gt;0,En!A152,"")</f>
+        <v/>
+      </c>
+      <c r="C152" t="str">
+        <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="str">
+        <f>IF(En!A153&lt;&gt;0,En!A153,"")</f>
+        <v/>
+      </c>
+      <c r="C153" t="str">
+        <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="str">
+        <f>IF(En!A154&lt;&gt;0,En!A154,"")</f>
+        <v/>
+      </c>
+      <c r="C154" t="str">
+        <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="str">
+        <f>IF(En!A155&lt;&gt;0,En!A155,"")</f>
+        <v/>
+      </c>
+      <c r="C155" t="str">
+        <f>IF(En!B155&lt;&gt;0,En!B155,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="str">
+        <f>IF(En!A156&lt;&gt;0,En!A156,"")</f>
+        <v/>
+      </c>
+      <c r="C156" t="str">
+        <f>IF(En!B156&lt;&gt;0,En!B156,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="str">
+        <f>IF(En!A157&lt;&gt;0,En!A157,"")</f>
+        <v/>
+      </c>
+      <c r="C157" t="str">
+        <f>IF(En!B157&lt;&gt;0,En!B157,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="str">
+        <f>IF(En!A158&lt;&gt;0,En!A158,"")</f>
+        <v/>
+      </c>
+      <c r="C158" t="str">
+        <f>IF(En!B158&lt;&gt;0,En!B158,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="str">
+        <f>IF(En!A159&lt;&gt;0,En!A159,"")</f>
+        <v/>
+      </c>
+      <c r="C159" t="str">
+        <f>IF(En!B159&lt;&gt;0,En!B159,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="str">
+        <f>IF(En!A160&lt;&gt;0,En!A160,"")</f>
+        <v/>
+      </c>
+      <c r="C160" t="str">
+        <f>IF(En!B160&lt;&gt;0,En!B160,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="str">
+        <f>IF(En!A161&lt;&gt;0,En!A161,"")</f>
+        <v/>
+      </c>
+      <c r="C161" t="str">
+        <f>IF(En!B161&lt;&gt;0,En!B161,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="str">
+        <f>IF(En!A162&lt;&gt;0,En!A162,"")</f>
+        <v/>
+      </c>
+      <c r="C162" t="str">
+        <f>IF(En!B162&lt;&gt;0,En!B162,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="str">
+        <f>IF(En!A163&lt;&gt;0,En!A163,"")</f>
+        <v/>
+      </c>
+      <c r="C163" t="str">
+        <f>IF(En!B163&lt;&gt;0,En!B163,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="str">
+        <f>IF(En!A164&lt;&gt;0,En!A164,"")</f>
+        <v/>
+      </c>
+      <c r="C164" t="str">
+        <f>IF(En!B164&lt;&gt;0,En!B164,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="str">
+        <f>IF(En!A165&lt;&gt;0,En!A165,"")</f>
+        <v/>
+      </c>
+      <c r="C165" t="str">
+        <f>IF(En!B165&lt;&gt;0,En!B165,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="str">
+        <f>IF(En!A166&lt;&gt;0,En!A166,"")</f>
+        <v/>
+      </c>
+      <c r="C166" t="str">
+        <f>IF(En!B166&lt;&gt;0,En!B166,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="str">
+        <f>IF(En!A167&lt;&gt;0,En!A167,"")</f>
+        <v/>
+      </c>
+      <c r="C167" t="str">
+        <f>IF(En!B167&lt;&gt;0,En!B167,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="str">
+        <f>IF(En!A168&lt;&gt;0,En!A168,"")</f>
+        <v/>
+      </c>
+      <c r="C168" t="str">
+        <f>IF(En!B168&lt;&gt;0,En!B168,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="str">
+        <f>IF(En!A169&lt;&gt;0,En!A169,"")</f>
+        <v/>
+      </c>
+      <c r="C169" t="str">
+        <f>IF(En!B169&lt;&gt;0,En!B169,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="str">
+        <f>IF(En!A170&lt;&gt;0,En!A170,"")</f>
+        <v/>
+      </c>
+      <c r="C170" t="str">
+        <f>IF(En!B170&lt;&gt;0,En!B170,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="str">
+        <f>IF(En!A171&lt;&gt;0,En!A171,"")</f>
+        <v/>
+      </c>
+      <c r="C171" t="str">
+        <f>IF(En!B171&lt;&gt;0,En!B171,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="str">
+        <f>IF(En!A172&lt;&gt;0,En!A172,"")</f>
+        <v/>
+      </c>
+      <c r="C172" t="str">
+        <f>IF(En!B172&lt;&gt;0,En!B172,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="str">
+        <f>IF(En!A173&lt;&gt;0,En!A173,"")</f>
+        <v/>
+      </c>
+      <c r="C173" t="str">
+        <f>IF(En!B173&lt;&gt;0,En!B173,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="str">
+        <f>IF(En!A174&lt;&gt;0,En!A174,"")</f>
+        <v/>
+      </c>
+      <c r="C174" t="str">
+        <f>IF(En!B174&lt;&gt;0,En!B174,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="str">
+        <f>IF(En!A175&lt;&gt;0,En!A175,"")</f>
+        <v/>
+      </c>
+      <c r="C175" t="str">
+        <f>IF(En!B175&lt;&gt;0,En!B175,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="str">
+        <f>IF(En!A176&lt;&gt;0,En!A176,"")</f>
+        <v/>
+      </c>
+      <c r="C176" t="str">
+        <f>IF(En!B176&lt;&gt;0,En!B176,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="str">
+        <f>IF(En!A177&lt;&gt;0,En!A177,"")</f>
+        <v/>
+      </c>
+      <c r="C177" t="str">
+        <f>IF(En!B177&lt;&gt;0,En!B177,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="str">
+        <f>IF(En!A178&lt;&gt;0,En!A178,"")</f>
+        <v/>
+      </c>
+      <c r="C178" t="str">
+        <f>IF(En!B178&lt;&gt;0,En!B178,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="str">
+        <f>IF(En!A179&lt;&gt;0,En!A179,"")</f>
+        <v/>
+      </c>
+      <c r="C179" t="str">
+        <f>IF(En!B179&lt;&gt;0,En!B179,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="str">
+        <f>IF(En!A180&lt;&gt;0,En!A180,"")</f>
+        <v/>
+      </c>
+      <c r="C180" t="str">
+        <f>IF(En!B180&lt;&gt;0,En!B180,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="str">
+        <f>IF(En!A181&lt;&gt;0,En!A181,"")</f>
+        <v/>
+      </c>
+      <c r="C181" t="str">
+        <f>IF(En!B181&lt;&gt;0,En!B181,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="str">
+        <f>IF(En!A182&lt;&gt;0,En!A182,"")</f>
+        <v/>
+      </c>
+      <c r="C182" t="str">
+        <f>IF(En!B182&lt;&gt;0,En!B182,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="str">
+        <f>IF(En!A183&lt;&gt;0,En!A183,"")</f>
+        <v/>
+      </c>
+      <c r="C183" t="str">
+        <f>IF(En!B183&lt;&gt;0,En!B183,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="str">
+        <f>IF(En!A184&lt;&gt;0,En!A184,"")</f>
+        <v/>
+      </c>
+      <c r="C184" t="str">
+        <f>IF(En!B184&lt;&gt;0,En!B184,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="str">
+        <f>IF(En!A185&lt;&gt;0,En!A185,"")</f>
+        <v/>
+      </c>
+      <c r="C185" t="str">
+        <f>IF(En!B185&lt;&gt;0,En!B185,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="str">
+        <f>IF(En!A186&lt;&gt;0,En!A186,"")</f>
+        <v/>
+      </c>
+      <c r="C186" t="str">
+        <f>IF(En!B186&lt;&gt;0,En!B186,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="str">
+        <f>IF(En!A187&lt;&gt;0,En!A187,"")</f>
+        <v/>
+      </c>
+      <c r="C187" t="str">
+        <f>IF(En!B187&lt;&gt;0,En!B187,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="str">
+        <f>IF(En!A188&lt;&gt;0,En!A188,"")</f>
+        <v/>
+      </c>
+      <c r="C188" t="str">
+        <f>IF(En!B188&lt;&gt;0,En!B188,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="str">
+        <f>IF(En!A189&lt;&gt;0,En!A189,"")</f>
+        <v/>
+      </c>
+      <c r="C189" t="str">
+        <f>IF(En!B189&lt;&gt;0,En!B189,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="str">
+        <f>IF(En!A190&lt;&gt;0,En!A190,"")</f>
+        <v/>
+      </c>
+      <c r="C190" t="str">
+        <f>IF(En!B190&lt;&gt;0,En!B190,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="str">
+        <f>IF(En!A191&lt;&gt;0,En!A191,"")</f>
+        <v/>
+      </c>
+      <c r="C191" t="str">
+        <f>IF(En!B191&lt;&gt;0,En!B191,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="str">
+        <f>IF(En!A192&lt;&gt;0,En!A192,"")</f>
+        <v/>
+      </c>
+      <c r="C192" t="str">
+        <f>IF(En!B192&lt;&gt;0,En!B192,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="str">
+        <f>IF(En!A193&lt;&gt;0,En!A193,"")</f>
+        <v/>
+      </c>
+      <c r="C193" t="str">
+        <f>IF(En!B193&lt;&gt;0,En!B193,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="str">
+        <f>IF(En!A194&lt;&gt;0,En!A194,"")</f>
+        <v/>
+      </c>
+      <c r="C194" t="str">
+        <f>IF(En!B194&lt;&gt;0,En!B194,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="str">
+        <f>IF(En!A195&lt;&gt;0,En!A195,"")</f>
+        <v/>
+      </c>
+      <c r="C195" t="str">
+        <f>IF(En!B195&lt;&gt;0,En!B195,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="str">
+        <f>IF(En!A196&lt;&gt;0,En!A196,"")</f>
+        <v/>
+      </c>
+      <c r="C196" t="str">
+        <f>IF(En!B196&lt;&gt;0,En!B196,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="str">
+        <f>IF(En!A197&lt;&gt;0,En!A197,"")</f>
+        <v/>
+      </c>
+      <c r="C197" t="str">
+        <f>IF(En!B197&lt;&gt;0,En!B197,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="str">
+        <f>IF(En!A198&lt;&gt;0,En!A198,"")</f>
+        <v/>
+      </c>
+      <c r="C198" t="str">
+        <f>IF(En!B198&lt;&gt;0,En!B198,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="str">
+        <f>IF(En!A199&lt;&gt;0,En!A199,"")</f>
+        <v/>
+      </c>
+      <c r="C199" t="str">
+        <f>IF(En!B199&lt;&gt;0,En!B199,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="str">
+        <f>IF(En!A200&lt;&gt;0,En!A200,"")</f>
+        <v/>
+      </c>
+      <c r="C200" t="str">
+        <f>IF(En!B200&lt;&gt;0,En!B200,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="str">
+        <f>IF(En!A201&lt;&gt;0,En!A201,"")</f>
+        <v/>
+      </c>
+      <c r="C201" t="str">
+        <f>IF(En!B201&lt;&gt;0,En!B201,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="str">
+        <f>IF(En!A202&lt;&gt;0,En!A202,"")</f>
+        <v/>
+      </c>
+      <c r="C202" t="str">
+        <f>IF(En!B202&lt;&gt;0,En!B202,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="str">
+        <f>IF(En!A203&lt;&gt;0,En!A203,"")</f>
+        <v/>
+      </c>
+      <c r="C203" t="str">
+        <f>IF(En!B203&lt;&gt;0,En!B203,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="str">
+        <f>IF(En!A204&lt;&gt;0,En!A204,"")</f>
+        <v/>
+      </c>
+      <c r="C204" t="str">
+        <f>IF(En!B204&lt;&gt;0,En!B204,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="str">
+        <f>IF(En!A205&lt;&gt;0,En!A205,"")</f>
+        <v/>
+      </c>
+      <c r="C205" t="str">
+        <f>IF(En!B205&lt;&gt;0,En!B205,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="str">
+        <f>IF(En!A206&lt;&gt;0,En!A206,"")</f>
+        <v/>
+      </c>
+      <c r="C206" t="str">
+        <f>IF(En!B206&lt;&gt;0,En!B206,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="str">
+        <f>IF(En!A207&lt;&gt;0,En!A207,"")</f>
+        <v/>
+      </c>
+      <c r="C207" t="str">
+        <f>IF(En!B207&lt;&gt;0,En!B207,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="str">
+        <f>IF(En!A208&lt;&gt;0,En!A208,"")</f>
+        <v/>
+      </c>
+      <c r="C208" t="str">
+        <f>IF(En!B208&lt;&gt;0,En!B208,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="str">
+        <f>IF(En!A209&lt;&gt;0,En!A209,"")</f>
+        <v/>
+      </c>
+      <c r="C209" t="str">
+        <f>IF(En!B209&lt;&gt;0,En!B209,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="str">
+        <f>IF(En!A210&lt;&gt;0,En!A210,"")</f>
+        <v/>
+      </c>
+      <c r="C210" t="str">
+        <f>IF(En!B210&lt;&gt;0,En!B210,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="str">
+        <f>IF(En!A211&lt;&gt;0,En!A211,"")</f>
+        <v/>
+      </c>
+      <c r="C211" t="str">
+        <f>IF(En!B211&lt;&gt;0,En!B211,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="str">
+        <f>IF(En!A212&lt;&gt;0,En!A212,"")</f>
+        <v/>
+      </c>
+      <c r="C212" t="str">
+        <f>IF(En!B212&lt;&gt;0,En!B212,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="str">
+        <f>IF(En!A213&lt;&gt;0,En!A213,"")</f>
+        <v/>
+      </c>
+      <c r="C213" t="str">
+        <f>IF(En!B213&lt;&gt;0,En!B213,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="str">
+        <f>IF(En!A214&lt;&gt;0,En!A214,"")</f>
+        <v/>
+      </c>
+      <c r="C214" t="str">
+        <f>IF(En!B214&lt;&gt;0,En!B214,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="str">
+        <f>IF(En!A215&lt;&gt;0,En!A215,"")</f>
+        <v/>
+      </c>
+      <c r="C215" t="str">
+        <f>IF(En!B215&lt;&gt;0,En!B215,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="str">
+        <f>IF(En!A216&lt;&gt;0,En!A216,"")</f>
+        <v/>
+      </c>
+      <c r="C216" t="str">
+        <f>IF(En!B216&lt;&gt;0,En!B216,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="str">
+        <f>IF(En!A217&lt;&gt;0,En!A217,"")</f>
+        <v/>
+      </c>
+      <c r="C217" t="str">
+        <f>IF(En!B217&lt;&gt;0,En!B217,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="str">
+        <f>IF(En!A218&lt;&gt;0,En!A218,"")</f>
+        <v/>
+      </c>
+      <c r="C218" t="str">
+        <f>IF(En!B218&lt;&gt;0,En!B218,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="str">
+        <f>IF(En!A219&lt;&gt;0,En!A219,"")</f>
+        <v/>
+      </c>
+      <c r="C219" t="str">
+        <f>IF(En!B219&lt;&gt;0,En!B219,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="str">
+        <f>IF(En!A220&lt;&gt;0,En!A220,"")</f>
+        <v/>
+      </c>
+      <c r="C220" t="str">
+        <f>IF(En!B220&lt;&gt;0,En!B220,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="str">
+        <f>IF(En!A221&lt;&gt;0,En!A221,"")</f>
+        <v/>
+      </c>
+      <c r="C221" t="str">
+        <f>IF(En!B221&lt;&gt;0,En!B221,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="str">
+        <f>IF(En!A222&lt;&gt;0,En!A222,"")</f>
+        <v/>
+      </c>
+      <c r="C222" t="str">
+        <f>IF(En!B222&lt;&gt;0,En!B222,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="str">
+        <f>IF(En!A223&lt;&gt;0,En!A223,"")</f>
+        <v/>
+      </c>
+      <c r="C223" t="str">
+        <f>IF(En!B223&lt;&gt;0,En!B223,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="str">
+        <f>IF(En!A224&lt;&gt;0,En!A224,"")</f>
+        <v/>
+      </c>
+      <c r="C224" t="str">
+        <f>IF(En!B224&lt;&gt;0,En!B224,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="str">
+        <f>IF(En!A225&lt;&gt;0,En!A225,"")</f>
+        <v/>
+      </c>
+      <c r="C225" t="str">
+        <f>IF(En!B225&lt;&gt;0,En!B225,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="str">
+        <f>IF(En!A226&lt;&gt;0,En!A226,"")</f>
+        <v/>
+      </c>
+      <c r="C226" t="str">
+        <f>IF(En!B226&lt;&gt;0,En!B226,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="str">
+        <f>IF(En!A227&lt;&gt;0,En!A227,"")</f>
+        <v/>
+      </c>
+      <c r="C227" t="str">
+        <f>IF(En!B227&lt;&gt;0,En!B227,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="str">
+        <f>IF(En!A228&lt;&gt;0,En!A228,"")</f>
+        <v/>
+      </c>
+      <c r="C228" t="str">
+        <f>IF(En!B228&lt;&gt;0,En!B228,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="str">
+        <f>IF(En!A229&lt;&gt;0,En!A229,"")</f>
+        <v/>
+      </c>
+      <c r="C229" t="str">
+        <f>IF(En!B229&lt;&gt;0,En!B229,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="str">
+        <f>IF(En!A230&lt;&gt;0,En!A230,"")</f>
+        <v/>
+      </c>
+      <c r="C230" t="str">
+        <f>IF(En!B230&lt;&gt;0,En!B230,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="str">
+        <f>IF(En!A231&lt;&gt;0,En!A231,"")</f>
+        <v/>
+      </c>
+      <c r="C231" t="str">
+        <f>IF(En!B231&lt;&gt;0,En!B231,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="str">
+        <f>IF(En!A232&lt;&gt;0,En!A232,"")</f>
+        <v/>
+      </c>
+      <c r="C232" t="str">
+        <f>IF(En!B232&lt;&gt;0,En!B232,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="str">
+        <f>IF(En!A233&lt;&gt;0,En!A233,"")</f>
+        <v/>
+      </c>
+      <c r="C233" t="str">
+        <f>IF(En!B233&lt;&gt;0,En!B233,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="str">
+        <f>IF(En!A234&lt;&gt;0,En!A234,"")</f>
+        <v/>
+      </c>
+      <c r="C234" t="str">
+        <f>IF(En!B234&lt;&gt;0,En!B234,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="str">
+        <f>IF(En!A235&lt;&gt;0,En!A235,"")</f>
+        <v/>
+      </c>
+      <c r="C235" t="str">
+        <f>IF(En!B235&lt;&gt;0,En!B235,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="str">
+        <f>IF(En!A236&lt;&gt;0,En!A236,"")</f>
+        <v/>
+      </c>
+      <c r="C236" t="str">
+        <f>IF(En!B236&lt;&gt;0,En!B236,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="str">
+        <f>IF(En!A237&lt;&gt;0,En!A237,"")</f>
+        <v/>
+      </c>
+      <c r="C237" t="str">
+        <f>IF(En!B237&lt;&gt;0,En!B237,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="str">
+        <f>IF(En!A238&lt;&gt;0,En!A238,"")</f>
+        <v/>
+      </c>
+      <c r="C238" t="str">
+        <f>IF(En!B238&lt;&gt;0,En!B238,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="str">
+        <f>IF(En!A239&lt;&gt;0,En!A239,"")</f>
+        <v/>
+      </c>
+      <c r="C239" t="str">
+        <f>IF(En!B239&lt;&gt;0,En!B239,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="str">
+        <f>IF(En!A240&lt;&gt;0,En!A240,"")</f>
+        <v/>
+      </c>
+      <c r="C240" t="str">
+        <f>IF(En!B240&lt;&gt;0,En!B240,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="str">
+        <f>IF(En!A241&lt;&gt;0,En!A241,"")</f>
+        <v/>
+      </c>
+      <c r="C241" t="str">
+        <f>IF(En!B241&lt;&gt;0,En!B241,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="str">
+        <f>IF(En!A242&lt;&gt;0,En!A242,"")</f>
+        <v/>
+      </c>
+      <c r="C242" t="str">
+        <f>IF(En!B242&lt;&gt;0,En!B242,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="str">
+        <f>IF(En!A243&lt;&gt;0,En!A243,"")</f>
+        <v/>
+      </c>
+      <c r="C243" t="str">
+        <f>IF(En!B243&lt;&gt;0,En!B243,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="str">
+        <f>IF(En!A244&lt;&gt;0,En!A244,"")</f>
+        <v/>
+      </c>
+      <c r="C244" t="str">
+        <f>IF(En!B244&lt;&gt;0,En!B244,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="str">
+        <f>IF(En!A245&lt;&gt;0,En!A245,"")</f>
+        <v/>
+      </c>
+      <c r="C245" t="str">
+        <f>IF(En!B245&lt;&gt;0,En!B245,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="str">
+        <f>IF(En!A246&lt;&gt;0,En!A246,"")</f>
+        <v/>
+      </c>
+      <c r="C246" t="str">
+        <f>IF(En!B246&lt;&gt;0,En!B246,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="str">
+        <f>IF(En!A247&lt;&gt;0,En!A247,"")</f>
+        <v/>
+      </c>
+      <c r="C247" t="str">
+        <f>IF(En!B247&lt;&gt;0,En!B247,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="str">
+        <f>IF(En!A248&lt;&gt;0,En!A248,"")</f>
+        <v/>
+      </c>
+      <c r="C248" t="str">
+        <f>IF(En!B248&lt;&gt;0,En!B248,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="str">
+        <f>IF(En!A249&lt;&gt;0,En!A249,"")</f>
+        <v/>
+      </c>
+      <c r="C249" t="str">
+        <f>IF(En!B249&lt;&gt;0,En!B249,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="str">
+        <f>IF(En!A250&lt;&gt;0,En!A250,"")</f>
+        <v/>
+      </c>
+      <c r="C250" t="str">
+        <f>IF(En!B250&lt;&gt;0,En!B250,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="str">
+        <f>IF(En!A251&lt;&gt;0,En!A251,"")</f>
+        <v/>
+      </c>
+      <c r="C251" t="str">
+        <f>IF(En!B251&lt;&gt;0,En!B251,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="str">
+        <f>IF(En!A252&lt;&gt;0,En!A252,"")</f>
+        <v/>
+      </c>
+      <c r="C252" t="str">
+        <f>IF(En!B252&lt;&gt;0,En!B252,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="str">
+        <f>IF(En!A253&lt;&gt;0,En!A253,"")</f>
+        <v/>
+      </c>
+      <c r="C253" t="str">
+        <f>IF(En!B253&lt;&gt;0,En!B253,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="str">
+        <f>IF(En!A254&lt;&gt;0,En!A254,"")</f>
+        <v/>
+      </c>
+      <c r="C254" t="str">
+        <f>IF(En!B254&lt;&gt;0,En!B254,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="str">
+        <f>IF(En!A255&lt;&gt;0,En!A255,"")</f>
+        <v/>
+      </c>
+      <c r="C255" t="str">
+        <f>IF(En!B255&lt;&gt;0,En!B255,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="str">
+        <f>IF(En!A256&lt;&gt;0,En!A256,"")</f>
+        <v/>
+      </c>
+      <c r="C256" t="str">
+        <f>IF(En!B256&lt;&gt;0,En!B256,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="str">
+        <f>IF(En!A257&lt;&gt;0,En!A257,"")</f>
+        <v/>
+      </c>
+      <c r="C257" t="str">
+        <f>IF(En!B257&lt;&gt;0,En!B257,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="str">
+        <f>IF(En!A258&lt;&gt;0,En!A258,"")</f>
+        <v/>
+      </c>
+      <c r="C258" t="str">
+        <f>IF(En!B258&lt;&gt;0,En!B258,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="str">
+        <f>IF(En!A259&lt;&gt;0,En!A259,"")</f>
+        <v/>
+      </c>
+      <c r="C259" t="str">
+        <f>IF(En!B259&lt;&gt;0,En!B259,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="str">
+        <f>IF(En!A260&lt;&gt;0,En!A260,"")</f>
+        <v/>
+      </c>
+      <c r="C260" t="str">
+        <f>IF(En!B260&lt;&gt;0,En!B260,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="str">
+        <f>IF(En!A261&lt;&gt;0,En!A261,"")</f>
+        <v/>
+      </c>
+      <c r="C261" t="str">
+        <f>IF(En!B261&lt;&gt;0,En!B261,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="str">
+        <f>IF(En!A262&lt;&gt;0,En!A262,"")</f>
+        <v/>
+      </c>
+      <c r="C262" t="str">
+        <f>IF(En!B262&lt;&gt;0,En!B262,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="str">
+        <f>IF(En!A263&lt;&gt;0,En!A263,"")</f>
+        <v/>
+      </c>
+      <c r="C263" t="str">
+        <f>IF(En!B263&lt;&gt;0,En!B263,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="str">
+        <f>IF(En!A264&lt;&gt;0,En!A264,"")</f>
+        <v/>
+      </c>
+      <c r="C264" t="str">
+        <f>IF(En!B264&lt;&gt;0,En!B264,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="str">
+        <f>IF(En!A265&lt;&gt;0,En!A265,"")</f>
+        <v/>
+      </c>
+      <c r="C265" t="str">
+        <f>IF(En!B265&lt;&gt;0,En!B265,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="str">
+        <f>IF(En!A266&lt;&gt;0,En!A266,"")</f>
+        <v/>
+      </c>
+      <c r="C266" t="str">
+        <f>IF(En!B266&lt;&gt;0,En!B266,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="str">
+        <f>IF(En!A267&lt;&gt;0,En!A267,"")</f>
+        <v/>
+      </c>
+      <c r="C267" t="str">
+        <f>IF(En!B267&lt;&gt;0,En!B267,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="str">
+        <f>IF(En!A268&lt;&gt;0,En!A268,"")</f>
+        <v/>
+      </c>
+      <c r="C268" t="str">
+        <f>IF(En!B268&lt;&gt;0,En!B268,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="str">
+        <f>IF(En!A269&lt;&gt;0,En!A269,"")</f>
+        <v/>
+      </c>
+      <c r="C269" t="str">
+        <f>IF(En!B269&lt;&gt;0,En!B269,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="str">
+        <f>IF(En!A270&lt;&gt;0,En!A270,"")</f>
+        <v/>
+      </c>
+      <c r="C270" t="str">
+        <f>IF(En!B270&lt;&gt;0,En!B270,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="str">
+        <f>IF(En!A271&lt;&gt;0,En!A271,"")</f>
+        <v/>
+      </c>
+      <c r="C271" t="str">
+        <f>IF(En!B271&lt;&gt;0,En!B271,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="str">
+        <f>IF(En!A272&lt;&gt;0,En!A272,"")</f>
+        <v/>
+      </c>
+      <c r="C272" t="str">
+        <f>IF(En!B272&lt;&gt;0,En!B272,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="str">
+        <f>IF(En!A273&lt;&gt;0,En!A273,"")</f>
+        <v/>
+      </c>
+      <c r="C273" t="str">
+        <f>IF(En!B273&lt;&gt;0,En!B273,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="str">
+        <f>IF(En!A274&lt;&gt;0,En!A274,"")</f>
+        <v/>
+      </c>
+      <c r="C274" t="str">
+        <f>IF(En!B274&lt;&gt;0,En!B274,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="str">
+        <f>IF(En!A275&lt;&gt;0,En!A275,"")</f>
+        <v/>
+      </c>
+      <c r="C275" t="str">
+        <f>IF(En!B275&lt;&gt;0,En!B275,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="str">
+        <f>IF(En!A276&lt;&gt;0,En!A276,"")</f>
+        <v/>
+      </c>
+      <c r="C276" t="str">
+        <f>IF(En!B276&lt;&gt;0,En!B276,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="str">
+        <f>IF(En!A277&lt;&gt;0,En!A277,"")</f>
+        <v/>
+      </c>
+      <c r="C277" t="str">
+        <f>IF(En!B277&lt;&gt;0,En!B277,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="str">
+        <f>IF(En!A278&lt;&gt;0,En!A278,"")</f>
+        <v/>
+      </c>
+      <c r="C278" t="str">
+        <f>IF(En!B278&lt;&gt;0,En!B278,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="str">
+        <f>IF(En!A279&lt;&gt;0,En!A279,"")</f>
+        <v/>
+      </c>
+      <c r="C279" t="str">
+        <f>IF(En!B279&lt;&gt;0,En!B279,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="str">
+        <f>IF(En!A280&lt;&gt;0,En!A280,"")</f>
+        <v/>
+      </c>
+      <c r="C280" t="str">
+        <f>IF(En!B280&lt;&gt;0,En!B280,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="str">
+        <f>IF(En!A281&lt;&gt;0,En!A281,"")</f>
+        <v/>
+      </c>
+      <c r="C281" t="str">
+        <f>IF(En!B281&lt;&gt;0,En!B281,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="str">
+        <f>IF(En!A282&lt;&gt;0,En!A282,"")</f>
+        <v/>
+      </c>
+      <c r="C282" t="str">
+        <f>IF(En!B282&lt;&gt;0,En!B282,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="str">
+        <f>IF(En!A283&lt;&gt;0,En!A283,"")</f>
+        <v/>
+      </c>
+      <c r="C283" t="str">
+        <f>IF(En!B283&lt;&gt;0,En!B283,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="str">
+        <f>IF(En!A284&lt;&gt;0,En!A284,"")</f>
+        <v/>
+      </c>
+      <c r="C284" t="str">
+        <f>IF(En!B284&lt;&gt;0,En!B284,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="str">
+        <f>IF(En!A285&lt;&gt;0,En!A285,"")</f>
+        <v/>
+      </c>
+      <c r="C285" t="str">
+        <f>IF(En!B285&lt;&gt;0,En!B285,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="str">
+        <f>IF(En!A286&lt;&gt;0,En!A286,"")</f>
+        <v/>
+      </c>
+      <c r="C286" t="str">
+        <f>IF(En!B286&lt;&gt;0,En!B286,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="str">
+        <f>IF(En!A287&lt;&gt;0,En!A287,"")</f>
+        <v/>
+      </c>
+      <c r="C287" t="str">
+        <f>IF(En!B287&lt;&gt;0,En!B287,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="str">
+        <f>IF(En!A288&lt;&gt;0,En!A288,"")</f>
+        <v/>
+      </c>
+      <c r="C288" t="str">
+        <f>IF(En!B288&lt;&gt;0,En!B288,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="str">
+        <f>IF(En!A289&lt;&gt;0,En!A289,"")</f>
+        <v/>
+      </c>
+      <c r="C289" t="str">
+        <f>IF(En!B289&lt;&gt;0,En!B289,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="str">
+        <f>IF(En!A290&lt;&gt;0,En!A290,"")</f>
+        <v/>
+      </c>
+      <c r="C290" t="str">
+        <f>IF(En!B290&lt;&gt;0,En!B290,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="str">
+        <f>IF(En!A291&lt;&gt;0,En!A291,"")</f>
+        <v/>
+      </c>
+      <c r="C291" t="str">
+        <f>IF(En!B291&lt;&gt;0,En!B291,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="str">
+        <f>IF(En!A292&lt;&gt;0,En!A292,"")</f>
+        <v/>
+      </c>
+      <c r="C292" t="str">
+        <f>IF(En!B292&lt;&gt;0,En!B292,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="str">
+        <f>IF(En!A293&lt;&gt;0,En!A293,"")</f>
+        <v/>
+      </c>
+      <c r="C293" t="str">
+        <f>IF(En!B293&lt;&gt;0,En!B293,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="str">
+        <f>IF(En!A294&lt;&gt;0,En!A294,"")</f>
+        <v/>
+      </c>
+      <c r="C294" t="str">
+        <f>IF(En!B294&lt;&gt;0,En!B294,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="str">
+        <f>IF(En!A295&lt;&gt;0,En!A295,"")</f>
+        <v/>
+      </c>
+      <c r="C295" t="str">
+        <f>IF(En!B295&lt;&gt;0,En!B295,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="str">
+        <f>IF(En!A296&lt;&gt;0,En!A296,"")</f>
+        <v/>
+      </c>
+      <c r="C296" t="str">
+        <f>IF(En!B296&lt;&gt;0,En!B296,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="str">
+        <f>IF(En!A297&lt;&gt;0,En!A297,"")</f>
+        <v/>
+      </c>
+      <c r="C297" t="str">
+        <f>IF(En!B297&lt;&gt;0,En!B297,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="str">
+        <f>IF(En!A298&lt;&gt;0,En!A298,"")</f>
+        <v/>
+      </c>
+      <c r="C298" t="str">
+        <f>IF(En!B298&lt;&gt;0,En!B298,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="str">
+        <f>IF(En!A299&lt;&gt;0,En!A299,"")</f>
+        <v/>
+      </c>
+      <c r="C299" t="str">
+        <f>IF(En!B299&lt;&gt;0,En!B299,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="str">
+        <f>IF(En!A300&lt;&gt;0,En!A300,"")</f>
+        <v/>
+      </c>
+      <c r="C300" t="str">
+        <f>IF(En!B300&lt;&gt;0,En!B300,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="str">
+        <f>IF(En!A301&lt;&gt;0,En!A301,"")</f>
+        <v/>
+      </c>
+      <c r="C301" t="str">
+        <f>IF(En!B301&lt;&gt;0,En!B301,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="str">
+        <f>IF(En!A302&lt;&gt;0,En!A302,"")</f>
+        <v/>
+      </c>
+      <c r="C302" t="str">
+        <f>IF(En!B302&lt;&gt;0,En!B302,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="str">
+        <f>IF(En!A303&lt;&gt;0,En!A303,"")</f>
+        <v/>
+      </c>
+      <c r="C303" t="str">
+        <f>IF(En!B303&lt;&gt;0,En!B303,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="str">
+        <f>IF(En!A304&lt;&gt;0,En!A304,"")</f>
+        <v/>
+      </c>
+      <c r="C304" t="str">
+        <f>IF(En!B304&lt;&gt;0,En!B304,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="str">
+        <f>IF(En!A305&lt;&gt;0,En!A305,"")</f>
+        <v/>
+      </c>
+      <c r="C305" t="str">
+        <f>IF(En!B305&lt;&gt;0,En!B305,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="str">
+        <f>IF(En!A306&lt;&gt;0,En!A306,"")</f>
+        <v/>
+      </c>
+      <c r="C306" t="str">
+        <f>IF(En!B306&lt;&gt;0,En!B306,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="str">
+        <f>IF(En!A307&lt;&gt;0,En!A307,"")</f>
+        <v/>
+      </c>
+      <c r="C307" t="str">
+        <f>IF(En!B307&lt;&gt;0,En!B307,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="str">
+        <f>IF(En!A308&lt;&gt;0,En!A308,"")</f>
+        <v/>
+      </c>
+      <c r="C308" t="str">
+        <f>IF(En!B308&lt;&gt;0,En!B308,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="str">
+        <f>IF(En!A309&lt;&gt;0,En!A309,"")</f>
+        <v/>
+      </c>
+      <c r="C309" t="str">
+        <f>IF(En!B309&lt;&gt;0,En!B309,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="str">
+        <f>IF(En!A310&lt;&gt;0,En!A310,"")</f>
+        <v/>
+      </c>
+      <c r="C310" t="str">
+        <f>IF(En!B310&lt;&gt;0,En!B310,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="str">
+        <f>IF(En!A311&lt;&gt;0,En!A311,"")</f>
+        <v/>
+      </c>
+      <c r="C311" t="str">
+        <f>IF(En!B311&lt;&gt;0,En!B311,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="str">
+        <f>IF(En!A312&lt;&gt;0,En!A312,"")</f>
+        <v/>
+      </c>
+      <c r="C312" t="str">
+        <f>IF(En!B312&lt;&gt;0,En!B312,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="str">
+        <f>IF(En!A313&lt;&gt;0,En!A313,"")</f>
+        <v/>
+      </c>
+      <c r="C313" t="str">
+        <f>IF(En!B313&lt;&gt;0,En!B313,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="str">
+        <f>IF(En!A314&lt;&gt;0,En!A314,"")</f>
+        <v/>
+      </c>
+      <c r="C314" t="str">
+        <f>IF(En!B314&lt;&gt;0,En!B314,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="str">
+        <f>IF(En!A315&lt;&gt;0,En!A315,"")</f>
+        <v/>
+      </c>
+      <c r="C315" t="str">
+        <f>IF(En!B315&lt;&gt;0,En!B315,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="str">
+        <f>IF(En!A316&lt;&gt;0,En!A316,"")</f>
+        <v/>
+      </c>
+      <c r="C316" t="str">
+        <f>IF(En!B316&lt;&gt;0,En!B316,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="str">
+        <f>IF(En!A317&lt;&gt;0,En!A317,"")</f>
+        <v/>
+      </c>
+      <c r="C317" t="str">
+        <f>IF(En!B317&lt;&gt;0,En!B317,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="str">
+        <f>IF(En!A318&lt;&gt;0,En!A318,"")</f>
+        <v/>
+      </c>
+      <c r="C318" t="str">
+        <f>IF(En!B318&lt;&gt;0,En!B318,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="str">
+        <f>IF(En!A319&lt;&gt;0,En!A319,"")</f>
+        <v/>
+      </c>
+      <c r="C319" t="str">
+        <f>IF(En!B319&lt;&gt;0,En!B319,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="str">
+        <f>IF(En!A320&lt;&gt;0,En!A320,"")</f>
+        <v/>
+      </c>
+      <c r="C320" t="str">
+        <f>IF(En!B320&lt;&gt;0,En!B320,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="str">
+        <f>IF(En!A321&lt;&gt;0,En!A321,"")</f>
+        <v/>
+      </c>
+      <c r="C321" t="str">
+        <f>IF(En!B321&lt;&gt;0,En!B321,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="str">
+        <f>IF(En!A322&lt;&gt;0,En!A322,"")</f>
+        <v/>
+      </c>
+      <c r="C322" t="str">
+        <f>IF(En!B322&lt;&gt;0,En!B322,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="str">
+        <f>IF(En!A323&lt;&gt;0,En!A323,"")</f>
+        <v/>
+      </c>
+      <c r="C323" t="str">
+        <f>IF(En!B323&lt;&gt;0,En!B323,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="str">
+        <f>IF(En!A324&lt;&gt;0,En!A324,"")</f>
+        <v/>
+      </c>
+      <c r="C324" t="str">
+        <f>IF(En!B324&lt;&gt;0,En!B324,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="str">
+        <f>IF(En!A325&lt;&gt;0,En!A325,"")</f>
+        <v/>
+      </c>
+      <c r="C325" t="str">
+        <f>IF(En!B325&lt;&gt;0,En!B325,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="str">
+        <f>IF(En!A326&lt;&gt;0,En!A326,"")</f>
+        <v/>
+      </c>
+      <c r="C326" t="str">
+        <f>IF(En!B326&lt;&gt;0,En!B326,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="str">
+        <f>IF(En!A327&lt;&gt;0,En!A327,"")</f>
+        <v/>
+      </c>
+      <c r="C327" t="str">
+        <f>IF(En!B327&lt;&gt;0,En!B327,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="str">
+        <f>IF(En!A328&lt;&gt;0,En!A328,"")</f>
+        <v/>
+      </c>
+      <c r="C328" t="str">
+        <f>IF(En!B328&lt;&gt;0,En!B328,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="str">
+        <f>IF(En!A329&lt;&gt;0,En!A329,"")</f>
+        <v/>
+      </c>
+      <c r="C329" t="str">
+        <f>IF(En!B329&lt;&gt;0,En!B329,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="str">
+        <f>IF(En!A330&lt;&gt;0,En!A330,"")</f>
+        <v/>
+      </c>
+      <c r="C330" t="str">
+        <f>IF(En!B330&lt;&gt;0,En!B330,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="str">
+        <f>IF(En!A331&lt;&gt;0,En!A331,"")</f>
+        <v/>
+      </c>
+      <c r="C331" t="str">
+        <f>IF(En!B331&lt;&gt;0,En!B331,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="str">
+        <f>IF(En!A332&lt;&gt;0,En!A332,"")</f>
+        <v/>
+      </c>
+      <c r="C332" t="str">
+        <f>IF(En!B332&lt;&gt;0,En!B332,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="str">
+        <f>IF(En!A333&lt;&gt;0,En!A333,"")</f>
+        <v/>
+      </c>
+      <c r="C333" t="str">
+        <f>IF(En!B333&lt;&gt;0,En!B333,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="str">
+        <f>IF(En!A334&lt;&gt;0,En!A334,"")</f>
+        <v/>
+      </c>
+      <c r="C334" t="str">
+        <f>IF(En!B334&lt;&gt;0,En!B334,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="str">
+        <f>IF(En!A335&lt;&gt;0,En!A335,"")</f>
+        <v/>
+      </c>
+      <c r="C335" t="str">
+        <f>IF(En!B335&lt;&gt;0,En!B335,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="str">
+        <f>IF(En!A336&lt;&gt;0,En!A336,"")</f>
+        <v/>
+      </c>
+      <c r="C336" t="str">
+        <f>IF(En!B336&lt;&gt;0,En!B336,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="str">
+        <f>IF(En!A337&lt;&gt;0,En!A337,"")</f>
+        <v/>
+      </c>
+      <c r="C337" t="str">
+        <f>IF(En!B337&lt;&gt;0,En!B337,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="str">
+        <f>IF(En!A338&lt;&gt;0,En!A338,"")</f>
+        <v/>
+      </c>
+      <c r="C338" t="str">
+        <f>IF(En!B338&lt;&gt;0,En!B338,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="str">
+        <f>IF(En!A339&lt;&gt;0,En!A339,"")</f>
+        <v/>
+      </c>
+      <c r="C339" t="str">
+        <f>IF(En!B339&lt;&gt;0,En!B339,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="str">
+        <f>IF(En!A340&lt;&gt;0,En!A340,"")</f>
+        <v/>
+      </c>
+      <c r="C340" t="str">
+        <f>IF(En!B340&lt;&gt;0,En!B340,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="str">
+        <f>IF(En!A341&lt;&gt;0,En!A341,"")</f>
+        <v/>
+      </c>
+      <c r="C341" t="str">
+        <f>IF(En!B341&lt;&gt;0,En!B341,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="str">
+        <f>IF(En!A342&lt;&gt;0,En!A342,"")</f>
+        <v/>
+      </c>
+      <c r="C342" t="str">
+        <f>IF(En!B342&lt;&gt;0,En!B342,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="str">
+        <f>IF(En!A343&lt;&gt;0,En!A343,"")</f>
+        <v/>
+      </c>
+      <c r="C343" t="str">
+        <f>IF(En!B343&lt;&gt;0,En!B343,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="str">
+        <f>IF(En!A344&lt;&gt;0,En!A344,"")</f>
+        <v/>
+      </c>
+      <c r="C344" t="str">
+        <f>IF(En!B344&lt;&gt;0,En!B344,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="str">
+        <f>IF(En!A345&lt;&gt;0,En!A345,"")</f>
+        <v/>
+      </c>
+      <c r="C345" t="str">
+        <f>IF(En!B345&lt;&gt;0,En!B345,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="str">
+        <f>IF(En!A346&lt;&gt;0,En!A346,"")</f>
+        <v/>
+      </c>
+      <c r="C346" t="str">
+        <f>IF(En!B346&lt;&gt;0,En!B346,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="str">
+        <f>IF(En!A347&lt;&gt;0,En!A347,"")</f>
+        <v/>
+      </c>
+      <c r="C347" t="str">
+        <f>IF(En!B347&lt;&gt;0,En!B347,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="str">
+        <f>IF(En!A348&lt;&gt;0,En!A348,"")</f>
+        <v/>
+      </c>
+      <c r="C348" t="str">
+        <f>IF(En!B348&lt;&gt;0,En!B348,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="str">
+        <f>IF(En!A349&lt;&gt;0,En!A349,"")</f>
+        <v/>
+      </c>
+      <c r="C349" t="str">
+        <f>IF(En!B349&lt;&gt;0,En!B349,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="str">
+        <f>IF(En!A350&lt;&gt;0,En!A350,"")</f>
+        <v/>
+      </c>
+      <c r="C350" t="str">
+        <f>IF(En!B350&lt;&gt;0,En!B350,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="str">
+        <f>IF(En!A351&lt;&gt;0,En!A351,"")</f>
+        <v/>
+      </c>
+      <c r="C351" t="str">
+        <f>IF(En!B351&lt;&gt;0,En!B351,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="str">
+        <f>IF(En!A352&lt;&gt;0,En!A352,"")</f>
+        <v/>
+      </c>
+      <c r="C352" t="str">
+        <f>IF(En!B352&lt;&gt;0,En!B352,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="str">
+        <f>IF(En!A353&lt;&gt;0,En!A353,"")</f>
+        <v/>
+      </c>
+      <c r="C353" t="str">
+        <f>IF(En!B353&lt;&gt;0,En!B353,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="str">
+        <f>IF(En!A354&lt;&gt;0,En!A354,"")</f>
+        <v/>
+      </c>
+      <c r="C354" t="str">
+        <f>IF(En!B354&lt;&gt;0,En!B354,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="str">
+        <f>IF(En!A355&lt;&gt;0,En!A355,"")</f>
+        <v/>
+      </c>
+      <c r="C355" t="str">
+        <f>IF(En!B355&lt;&gt;0,En!B355,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="str">
+        <f>IF(En!A356&lt;&gt;0,En!A356,"")</f>
+        <v/>
+      </c>
+      <c r="C356" t="str">
+        <f>IF(En!B356&lt;&gt;0,En!B356,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="str">
+        <f>IF(En!A357&lt;&gt;0,En!A357,"")</f>
+        <v/>
+      </c>
+      <c r="C357" t="str">
+        <f>IF(En!B357&lt;&gt;0,En!B357,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="str">
+        <f>IF(En!A358&lt;&gt;0,En!A358,"")</f>
+        <v/>
+      </c>
+      <c r="C358" t="str">
+        <f>IF(En!B358&lt;&gt;0,En!B358,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="str">
+        <f>IF(En!A359&lt;&gt;0,En!A359,"")</f>
+        <v/>
+      </c>
+      <c r="C359" t="str">
+        <f>IF(En!B359&lt;&gt;0,En!B359,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="str">
+        <f>IF(En!A360&lt;&gt;0,En!A360,"")</f>
+        <v/>
+      </c>
+      <c r="C360" t="str">
+        <f>IF(En!B360&lt;&gt;0,En!B360,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="str">
+        <f>IF(En!A361&lt;&gt;0,En!A361,"")</f>
+        <v/>
+      </c>
+      <c r="C361" t="str">
+        <f>IF(En!B361&lt;&gt;0,En!B361,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="str">
+        <f>IF(En!A362&lt;&gt;0,En!A362,"")</f>
+        <v/>
+      </c>
+      <c r="C362" t="str">
+        <f>IF(En!B362&lt;&gt;0,En!B362,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="str">
+        <f>IF(En!A363&lt;&gt;0,En!A363,"")</f>
+        <v/>
+      </c>
+      <c r="C363" t="str">
+        <f>IF(En!B363&lt;&gt;0,En!B363,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="str">
+        <f>IF(En!A364&lt;&gt;0,En!A364,"")</f>
+        <v/>
+      </c>
+      <c r="C364" t="str">
+        <f>IF(En!B364&lt;&gt;0,En!B364,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="str">
+        <f>IF(En!A365&lt;&gt;0,En!A365,"")</f>
+        <v/>
+      </c>
+      <c r="C365" t="str">
+        <f>IF(En!B365&lt;&gt;0,En!B365,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="str">
+        <f>IF(En!A366&lt;&gt;0,En!A366,"")</f>
+        <v/>
+      </c>
+      <c r="C366" t="str">
+        <f>IF(En!B366&lt;&gt;0,En!B366,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="str">
+        <f>IF(En!A367&lt;&gt;0,En!A367,"")</f>
+        <v/>
+      </c>
+      <c r="C367" t="str">
+        <f>IF(En!B367&lt;&gt;0,En!B367,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="str">
+        <f>IF(En!A368&lt;&gt;0,En!A368,"")</f>
+        <v/>
+      </c>
+      <c r="C368" t="str">
+        <f>IF(En!B368&lt;&gt;0,En!B368,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="str">
+        <f>IF(En!A369&lt;&gt;0,En!A369,"")</f>
+        <v/>
+      </c>
+      <c r="C369" t="str">
+        <f>IF(En!B369&lt;&gt;0,En!B369,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="str">
+        <f>IF(En!A370&lt;&gt;0,En!A370,"")</f>
+        <v/>
+      </c>
+      <c r="C370" t="str">
+        <f>IF(En!B370&lt;&gt;0,En!B370,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="str">
+        <f>IF(En!A371&lt;&gt;0,En!A371,"")</f>
+        <v/>
+      </c>
+      <c r="C371" t="str">
+        <f>IF(En!B371&lt;&gt;0,En!B371,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="str">
+        <f>IF(En!A372&lt;&gt;0,En!A372,"")</f>
+        <v/>
+      </c>
+      <c r="C372" t="str">
+        <f>IF(En!B372&lt;&gt;0,En!B372,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="str">
+        <f>IF(En!A373&lt;&gt;0,En!A373,"")</f>
+        <v/>
+      </c>
+      <c r="C373" t="str">
+        <f>IF(En!B373&lt;&gt;0,En!B373,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="str">
+        <f>IF(En!A374&lt;&gt;0,En!A374,"")</f>
+        <v/>
+      </c>
+      <c r="C374" t="str">
+        <f>IF(En!B374&lt;&gt;0,En!B374,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="str">
+        <f>IF(En!A375&lt;&gt;0,En!A375,"")</f>
+        <v/>
+      </c>
+      <c r="C375" t="str">
+        <f>IF(En!B375&lt;&gt;0,En!B375,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="str">
+        <f>IF(En!A376&lt;&gt;0,En!A376,"")</f>
+        <v/>
+      </c>
+      <c r="C376" t="str">
+        <f>IF(En!B376&lt;&gt;0,En!B376,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="str">
+        <f>IF(En!A377&lt;&gt;0,En!A377,"")</f>
+        <v/>
+      </c>
+      <c r="C377" t="str">
+        <f>IF(En!B377&lt;&gt;0,En!B377,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="str">
+        <f>IF(En!A378&lt;&gt;0,En!A378,"")</f>
+        <v/>
+      </c>
+      <c r="C378" t="str">
+        <f>IF(En!B378&lt;&gt;0,En!B378,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="str">
+        <f>IF(En!A379&lt;&gt;0,En!A379,"")</f>
+        <v/>
+      </c>
+      <c r="C379" t="str">
+        <f>IF(En!B379&lt;&gt;0,En!B379,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="str">
+        <f>IF(En!A380&lt;&gt;0,En!A380,"")</f>
+        <v/>
+      </c>
+      <c r="C380" t="str">
+        <f>IF(En!B380&lt;&gt;0,En!B380,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="str">
+        <f>IF(En!A381&lt;&gt;0,En!A381,"")</f>
+        <v/>
+      </c>
+      <c r="C381" t="str">
+        <f>IF(En!B381&lt;&gt;0,En!B381,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="str">
+        <f>IF(En!A382&lt;&gt;0,En!A382,"")</f>
+        <v/>
+      </c>
+      <c r="C382" t="str">
+        <f>IF(En!B382&lt;&gt;0,En!B382,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="str">
+        <f>IF(En!A383&lt;&gt;0,En!A383,"")</f>
+        <v/>
+      </c>
+      <c r="C383" t="str">
+        <f>IF(En!B383&lt;&gt;0,En!B383,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="str">
+        <f>IF(En!A384&lt;&gt;0,En!A384,"")</f>
+        <v/>
+      </c>
+      <c r="C384" t="str">
+        <f>IF(En!B384&lt;&gt;0,En!B384,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="str">
+        <f>IF(En!A385&lt;&gt;0,En!A385,"")</f>
+        <v/>
+      </c>
+      <c r="C385" t="str">
+        <f>IF(En!B385&lt;&gt;0,En!B385,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="str">
+        <f>IF(En!A386&lt;&gt;0,En!A386,"")</f>
+        <v/>
+      </c>
+      <c r="C386" t="str">
+        <f>IF(En!B386&lt;&gt;0,En!B386,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="str">
+        <f>IF(En!A387&lt;&gt;0,En!A387,"")</f>
+        <v/>
+      </c>
+      <c r="C387" t="str">
+        <f>IF(En!B387&lt;&gt;0,En!B387,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="str">
+        <f>IF(En!A388&lt;&gt;0,En!A388,"")</f>
+        <v/>
+      </c>
+      <c r="C388" t="str">
+        <f>IF(En!B388&lt;&gt;0,En!B388,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="str">
+        <f>IF(En!A389&lt;&gt;0,En!A389,"")</f>
+        <v/>
+      </c>
+      <c r="C389" t="str">
+        <f>IF(En!B389&lt;&gt;0,En!B389,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="str">
+        <f>IF(En!A390&lt;&gt;0,En!A390,"")</f>
+        <v/>
+      </c>
+      <c r="C390" t="str">
+        <f>IF(En!B390&lt;&gt;0,En!B390,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="str">
+        <f>IF(En!A391&lt;&gt;0,En!A391,"")</f>
+        <v/>
+      </c>
+      <c r="C391" t="str">
+        <f>IF(En!B391&lt;&gt;0,En!B391,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="str">
+        <f>IF(En!A392&lt;&gt;0,En!A392,"")</f>
+        <v/>
+      </c>
+      <c r="C392" t="str">
+        <f>IF(En!B392&lt;&gt;0,En!B392,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="str">
+        <f>IF(En!A393&lt;&gt;0,En!A393,"")</f>
+        <v/>
+      </c>
+      <c r="C393" t="str">
+        <f>IF(En!B393&lt;&gt;0,En!B393,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="str">
+        <f>IF(En!A394&lt;&gt;0,En!A394,"")</f>
+        <v/>
+      </c>
+      <c r="C394" t="str">
+        <f>IF(En!B394&lt;&gt;0,En!B394,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="str">
+        <f>IF(En!A395&lt;&gt;0,En!A395,"")</f>
+        <v/>
+      </c>
+      <c r="C395" t="str">
+        <f>IF(En!B395&lt;&gt;0,En!B395,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="str">
+        <f>IF(En!A396&lt;&gt;0,En!A396,"")</f>
+        <v/>
+      </c>
+      <c r="C396" t="str">
+        <f>IF(En!B396&lt;&gt;0,En!B396,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="str">
+        <f>IF(En!A397&lt;&gt;0,En!A397,"")</f>
+        <v/>
+      </c>
+      <c r="C397" t="str">
+        <f>IF(En!B397&lt;&gt;0,En!B397,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="str">
+        <f>IF(En!A398&lt;&gt;0,En!A398,"")</f>
+        <v/>
+      </c>
+      <c r="C398" t="str">
+        <f>IF(En!B398&lt;&gt;0,En!B398,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="str">
+        <f>IF(En!A399&lt;&gt;0,En!A399,"")</f>
+        <v/>
+      </c>
+      <c r="C399" t="str">
+        <f>IF(En!B399&lt;&gt;0,En!B399,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="str">
+        <f>IF(En!A400&lt;&gt;0,En!A400,"")</f>
+        <v/>
+      </c>
+      <c r="C400" t="str">
+        <f>IF(En!B400&lt;&gt;0,En!B400,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="str">
+        <f>IF(En!A401&lt;&gt;0,En!A401,"")</f>
+        <v/>
+      </c>
+      <c r="C401" t="str">
+        <f>IF(En!B401&lt;&gt;0,En!B401,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="str">
+        <f>IF(En!A402&lt;&gt;0,En!A402,"")</f>
+        <v/>
+      </c>
+      <c r="C402" t="str">
+        <f>IF(En!B402&lt;&gt;0,En!B402,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="str">
+        <f>IF(En!A403&lt;&gt;0,En!A403,"")</f>
+        <v/>
+      </c>
+      <c r="C403" t="str">
+        <f>IF(En!B403&lt;&gt;0,En!B403,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="str">
+        <f>IF(En!A404&lt;&gt;0,En!A404,"")</f>
+        <v/>
+      </c>
+      <c r="C404" t="str">
+        <f>IF(En!B404&lt;&gt;0,En!B404,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="str">
+        <f>IF(En!A405&lt;&gt;0,En!A405,"")</f>
+        <v/>
+      </c>
+      <c r="C405" t="str">
+        <f>IF(En!B405&lt;&gt;0,En!B405,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="str">
+        <f>IF(En!A406&lt;&gt;0,En!A406,"")</f>
+        <v/>
+      </c>
+      <c r="C406" t="str">
+        <f>IF(En!B406&lt;&gt;0,En!B406,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="str">
+        <f>IF(En!A407&lt;&gt;0,En!A407,"")</f>
+        <v/>
+      </c>
+      <c r="C407" t="str">
+        <f>IF(En!B407&lt;&gt;0,En!B407,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="str">
+        <f>IF(En!A408&lt;&gt;0,En!A408,"")</f>
+        <v/>
+      </c>
+      <c r="C408" t="str">
+        <f>IF(En!B408&lt;&gt;0,En!B408,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="str">
+        <f>IF(En!A409&lt;&gt;0,En!A409,"")</f>
+        <v/>
+      </c>
+      <c r="C409" t="str">
+        <f>IF(En!B409&lt;&gt;0,En!B409,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="str">
+        <f>IF(En!A410&lt;&gt;0,En!A410,"")</f>
+        <v/>
+      </c>
+      <c r="C410" t="str">
+        <f>IF(En!B410&lt;&gt;0,En!B410,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="str">
+        <f>IF(En!A411&lt;&gt;0,En!A411,"")</f>
+        <v/>
+      </c>
+      <c r="C411" t="str">
+        <f>IF(En!B411&lt;&gt;0,En!B411,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="str">
+        <f>IF(En!A412&lt;&gt;0,En!A412,"")</f>
+        <v/>
+      </c>
+      <c r="C412" t="str">
+        <f>IF(En!B412&lt;&gt;0,En!B412,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="str">
+        <f>IF(En!A413&lt;&gt;0,En!A413,"")</f>
+        <v/>
+      </c>
+      <c r="C413" t="str">
+        <f>IF(En!B413&lt;&gt;0,En!B413,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="str">
+        <f>IF(En!A414&lt;&gt;0,En!A414,"")</f>
+        <v/>
+      </c>
+      <c r="C414" t="str">
+        <f>IF(En!B414&lt;&gt;0,En!B414,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="str">
+        <f>IF(En!A415&lt;&gt;0,En!A415,"")</f>
+        <v/>
+      </c>
+      <c r="C415" t="str">
+        <f>IF(En!B415&lt;&gt;0,En!B415,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="str">
+        <f>IF(En!A416&lt;&gt;0,En!A416,"")</f>
+        <v/>
+      </c>
+      <c r="C416" t="str">
+        <f>IF(En!B416&lt;&gt;0,En!B416,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="str">
+        <f>IF(En!A417&lt;&gt;0,En!A417,"")</f>
+        <v/>
+      </c>
+      <c r="C417" t="str">
+        <f>IF(En!B417&lt;&gt;0,En!B417,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="str">
+        <f>IF(En!A418&lt;&gt;0,En!A418,"")</f>
+        <v/>
+      </c>
+      <c r="C418" t="str">
+        <f>IF(En!B418&lt;&gt;0,En!B418,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="str">
+        <f>IF(En!A419&lt;&gt;0,En!A419,"")</f>
+        <v/>
+      </c>
+      <c r="C419" t="str">
+        <f>IF(En!B419&lt;&gt;0,En!B419,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="str">
+        <f>IF(En!A420&lt;&gt;0,En!A420,"")</f>
+        <v/>
+      </c>
+      <c r="C420" t="str">
+        <f>IF(En!B420&lt;&gt;0,En!B420,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="str">
+        <f>IF(En!A421&lt;&gt;0,En!A421,"")</f>
+        <v/>
+      </c>
+      <c r="C421" t="str">
+        <f>IF(En!B421&lt;&gt;0,En!B421,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="str">
+        <f>IF(En!A422&lt;&gt;0,En!A422,"")</f>
+        <v/>
+      </c>
+      <c r="C422" t="str">
+        <f>IF(En!B422&lt;&gt;0,En!B422,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="str">
+        <f>IF(En!A423&lt;&gt;0,En!A423,"")</f>
+        <v/>
+      </c>
+      <c r="C423" t="str">
+        <f>IF(En!B423&lt;&gt;0,En!B423,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="str">
+        <f>IF(En!A424&lt;&gt;0,En!A424,"")</f>
+        <v/>
+      </c>
+      <c r="C424" t="str">
+        <f>IF(En!B424&lt;&gt;0,En!B424,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="str">
+        <f>IF(En!A425&lt;&gt;0,En!A425,"")</f>
+        <v/>
+      </c>
+      <c r="C425" t="str">
+        <f>IF(En!B425&lt;&gt;0,En!B425,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="str">
+        <f>IF(En!A426&lt;&gt;0,En!A426,"")</f>
+        <v/>
+      </c>
+      <c r="C426" t="str">
+        <f>IF(En!B426&lt;&gt;0,En!B426,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="str">
+        <f>IF(En!A427&lt;&gt;0,En!A427,"")</f>
+        <v/>
+      </c>
+      <c r="C427" t="str">
+        <f>IF(En!B427&lt;&gt;0,En!B427,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="str">
+        <f>IF(En!A428&lt;&gt;0,En!A428,"")</f>
+        <v/>
+      </c>
+      <c r="C428" t="str">
+        <f>IF(En!B428&lt;&gt;0,En!B428,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="str">
+        <f>IF(En!A429&lt;&gt;0,En!A429,"")</f>
+        <v/>
+      </c>
+      <c r="C429" t="str">
+        <f>IF(En!B429&lt;&gt;0,En!B429,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="str">
+        <f>IF(En!A430&lt;&gt;0,En!A430,"")</f>
+        <v/>
+      </c>
+      <c r="C430" t="str">
+        <f>IF(En!B430&lt;&gt;0,En!B430,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="str">
+        <f>IF(En!A431&lt;&gt;0,En!A431,"")</f>
+        <v/>
+      </c>
+      <c r="C431" t="str">
+        <f>IF(En!B431&lt;&gt;0,En!B431,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="str">
+        <f>IF(En!A432&lt;&gt;0,En!A432,"")</f>
+        <v/>
+      </c>
+      <c r="C432" t="str">
+        <f>IF(En!B432&lt;&gt;0,En!B432,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="str">
+        <f>IF(En!A433&lt;&gt;0,En!A433,"")</f>
+        <v/>
+      </c>
+      <c r="C433" t="str">
+        <f>IF(En!B433&lt;&gt;0,En!B433,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="str">
+        <f>IF(En!A434&lt;&gt;0,En!A434,"")</f>
+        <v/>
+      </c>
+      <c r="C434" t="str">
+        <f>IF(En!B434&lt;&gt;0,En!B434,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="str">
+        <f>IF(En!A435&lt;&gt;0,En!A435,"")</f>
+        <v/>
+      </c>
+      <c r="C435" t="str">
+        <f>IF(En!B435&lt;&gt;0,En!B435,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="str">
+        <f>IF(En!A436&lt;&gt;0,En!A436,"")</f>
+        <v/>
+      </c>
+      <c r="C436" t="str">
+        <f>IF(En!B436&lt;&gt;0,En!B436,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="str">
+        <f>IF(En!A437&lt;&gt;0,En!A437,"")</f>
+        <v/>
+      </c>
+      <c r="C437" t="str">
+        <f>IF(En!B437&lt;&gt;0,En!B437,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="str">
+        <f>IF(En!A438&lt;&gt;0,En!A438,"")</f>
+        <v/>
+      </c>
+      <c r="C438" t="str">
+        <f>IF(En!B438&lt;&gt;0,En!B438,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="str">
+        <f>IF(En!A439&lt;&gt;0,En!A439,"")</f>
+        <v/>
+      </c>
+      <c r="C439" t="str">
+        <f>IF(En!B439&lt;&gt;0,En!B439,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="str">
+        <f>IF(En!A440&lt;&gt;0,En!A440,"")</f>
+        <v/>
+      </c>
+      <c r="C440" t="str">
+        <f>IF(En!B440&lt;&gt;0,En!B440,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="str">
+        <f>IF(En!A441&lt;&gt;0,En!A441,"")</f>
+        <v/>
+      </c>
+      <c r="C441" t="str">
+        <f>IF(En!B441&lt;&gt;0,En!B441,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="str">
+        <f>IF(En!A442&lt;&gt;0,En!A442,"")</f>
+        <v/>
+      </c>
+      <c r="C442" t="str">
+        <f>IF(En!B442&lt;&gt;0,En!B442,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="str">
+        <f>IF(En!A443&lt;&gt;0,En!A443,"")</f>
+        <v/>
+      </c>
+      <c r="C443" t="str">
+        <f>IF(En!B443&lt;&gt;0,En!B443,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="str">
+        <f>IF(En!A444&lt;&gt;0,En!A444,"")</f>
+        <v/>
+      </c>
+      <c r="C444" t="str">
+        <f>IF(En!B444&lt;&gt;0,En!B444,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="str">
+        <f>IF(En!A445&lt;&gt;0,En!A445,"")</f>
+        <v/>
+      </c>
+      <c r="C445" t="str">
+        <f>IF(En!B445&lt;&gt;0,En!B445,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="str">
+        <f>IF(En!A446&lt;&gt;0,En!A446,"")</f>
+        <v/>
+      </c>
+      <c r="C446" t="str">
+        <f>IF(En!B446&lt;&gt;0,En!B446,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="str">
+        <f>IF(En!A447&lt;&gt;0,En!A447,"")</f>
+        <v/>
+      </c>
+      <c r="C447" t="str">
+        <f>IF(En!B447&lt;&gt;0,En!B447,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="str">
+        <f>IF(En!A448&lt;&gt;0,En!A448,"")</f>
+        <v/>
+      </c>
+      <c r="C448" t="str">
+        <f>IF(En!B448&lt;&gt;0,En!B448,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="str">
+        <f>IF(En!A449&lt;&gt;0,En!A449,"")</f>
+        <v/>
+      </c>
+      <c r="C449" t="str">
+        <f>IF(En!B449&lt;&gt;0,En!B449,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="str">
+        <f>IF(En!A450&lt;&gt;0,En!A450,"")</f>
+        <v/>
+      </c>
+      <c r="C450" t="str">
+        <f>IF(En!B450&lt;&gt;0,En!B450,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="str">
+        <f>IF(En!A451&lt;&gt;0,En!A451,"")</f>
+        <v/>
+      </c>
+      <c r="C451" t="str">
+        <f>IF(En!B451&lt;&gt;0,En!B451,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="str">
+        <f>IF(En!A452&lt;&gt;0,En!A452,"")</f>
+        <v/>
+      </c>
+      <c r="C452" t="str">
+        <f>IF(En!B452&lt;&gt;0,En!B452,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="str">
+        <f>IF(En!A453&lt;&gt;0,En!A453,"")</f>
+        <v/>
+      </c>
+      <c r="C453" t="str">
+        <f>IF(En!B453&lt;&gt;0,En!B453,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="str">
+        <f>IF(En!A454&lt;&gt;0,En!A454,"")</f>
+        <v/>
+      </c>
+      <c r="C454" t="str">
+        <f>IF(En!B454&lt;&gt;0,En!B454,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="str">
+        <f>IF(En!A455&lt;&gt;0,En!A455,"")</f>
+        <v/>
+      </c>
+      <c r="C455" t="str">
+        <f>IF(En!B455&lt;&gt;0,En!B455,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="str">
+        <f>IF(En!A456&lt;&gt;0,En!A456,"")</f>
+        <v/>
+      </c>
+      <c r="C456" t="str">
+        <f>IF(En!B456&lt;&gt;0,En!B456,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="str">
+        <f>IF(En!A457&lt;&gt;0,En!A457,"")</f>
+        <v/>
+      </c>
+      <c r="C457" t="str">
+        <f>IF(En!B457&lt;&gt;0,En!B457,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="str">
+        <f>IF(En!A458&lt;&gt;0,En!A458,"")</f>
+        <v/>
+      </c>
+      <c r="C458" t="str">
+        <f>IF(En!B458&lt;&gt;0,En!B458,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="str">
+        <f>IF(En!A459&lt;&gt;0,En!A459,"")</f>
+        <v/>
+      </c>
+      <c r="C459" t="str">
+        <f>IF(En!B459&lt;&gt;0,En!B459,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="str">
+        <f>IF(En!A460&lt;&gt;0,En!A460,"")</f>
+        <v/>
+      </c>
+      <c r="C460" t="str">
+        <f>IF(En!B460&lt;&gt;0,En!B460,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="str">
+        <f>IF(En!A461&lt;&gt;0,En!A461,"")</f>
+        <v/>
+      </c>
+      <c r="C461" t="str">
+        <f>IF(En!B461&lt;&gt;0,En!B461,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="str">
+        <f>IF(En!A462&lt;&gt;0,En!A462,"")</f>
+        <v/>
+      </c>
+      <c r="C462" t="str">
+        <f>IF(En!B462&lt;&gt;0,En!B462,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="str">
+        <f>IF(En!A463&lt;&gt;0,En!A463,"")</f>
+        <v/>
+      </c>
+      <c r="C463" t="str">
+        <f>IF(En!B463&lt;&gt;0,En!B463,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="str">
+        <f>IF(En!A464&lt;&gt;0,En!A464,"")</f>
+        <v/>
+      </c>
+      <c r="C464" t="str">
+        <f>IF(En!B464&lt;&gt;0,En!B464,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="str">
+        <f>IF(En!A465&lt;&gt;0,En!A465,"")</f>
+        <v/>
+      </c>
+      <c r="C465" t="str">
+        <f>IF(En!B465&lt;&gt;0,En!B465,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="str">
+        <f>IF(En!A466&lt;&gt;0,En!A466,"")</f>
+        <v/>
+      </c>
+      <c r="C466" t="str">
+        <f>IF(En!B466&lt;&gt;0,En!B466,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="str">
+        <f>IF(En!A467&lt;&gt;0,En!A467,"")</f>
+        <v/>
+      </c>
+      <c r="C467" t="str">
+        <f>IF(En!B467&lt;&gt;0,En!B467,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="str">
+        <f>IF(En!A468&lt;&gt;0,En!A468,"")</f>
+        <v/>
+      </c>
+      <c r="C468" t="str">
+        <f>IF(En!B468&lt;&gt;0,En!B468,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="str">
+        <f>IF(En!A469&lt;&gt;0,En!A469,"")</f>
+        <v/>
+      </c>
+      <c r="C469" t="str">
+        <f>IF(En!B469&lt;&gt;0,En!B469,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="str">
+        <f>IF(En!A470&lt;&gt;0,En!A470,"")</f>
+        <v/>
+      </c>
+      <c r="C470" t="str">
+        <f>IF(En!B470&lt;&gt;0,En!B470,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="str">
+        <f>IF(En!A471&lt;&gt;0,En!A471,"")</f>
+        <v/>
+      </c>
+      <c r="C471" t="str">
+        <f>IF(En!B471&lt;&gt;0,En!B471,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="str">
+        <f>IF(En!A472&lt;&gt;0,En!A472,"")</f>
+        <v/>
+      </c>
+      <c r="C472" t="str">
+        <f>IF(En!B472&lt;&gt;0,En!B472,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="str">
+        <f>IF(En!A473&lt;&gt;0,En!A473,"")</f>
+        <v/>
+      </c>
+      <c r="C473" t="str">
+        <f>IF(En!B473&lt;&gt;0,En!B473,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="str">
+        <f>IF(En!A474&lt;&gt;0,En!A474,"")</f>
+        <v/>
+      </c>
+      <c r="C474" t="str">
+        <f>IF(En!B474&lt;&gt;0,En!B474,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="str">
+        <f>IF(En!A475&lt;&gt;0,En!A475,"")</f>
+        <v/>
+      </c>
+      <c r="C475" t="str">
+        <f>IF(En!B475&lt;&gt;0,En!B475,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="str">
+        <f>IF(En!A476&lt;&gt;0,En!A476,"")</f>
+        <v/>
+      </c>
+      <c r="C476" t="str">
+        <f>IF(En!B476&lt;&gt;0,En!B476,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="str">
+        <f>IF(En!A477&lt;&gt;0,En!A477,"")</f>
+        <v/>
+      </c>
+      <c r="C477" t="str">
+        <f>IF(En!B477&lt;&gt;0,En!B477,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="str">
+        <f>IF(En!A478&lt;&gt;0,En!A478,"")</f>
+        <v/>
+      </c>
+      <c r="C478" t="str">
+        <f>IF(En!B478&lt;&gt;0,En!B478,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="str">
+        <f>IF(En!A479&lt;&gt;0,En!A479,"")</f>
+        <v/>
+      </c>
+      <c r="C479" t="str">
+        <f>IF(En!B479&lt;&gt;0,En!B479,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="str">
+        <f>IF(En!A480&lt;&gt;0,En!A480,"")</f>
+        <v/>
+      </c>
+      <c r="C480" t="str">
+        <f>IF(En!B480&lt;&gt;0,En!B480,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="str">
+        <f>IF(En!A481&lt;&gt;0,En!A481,"")</f>
+        <v/>
+      </c>
+      <c r="C481" t="str">
+        <f>IF(En!B481&lt;&gt;0,En!B481,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="str">
+        <f>IF(En!A482&lt;&gt;0,En!A482,"")</f>
+        <v/>
+      </c>
+      <c r="C482" t="str">
+        <f>IF(En!B482&lt;&gt;0,En!B482,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="str">
+        <f>IF(En!A483&lt;&gt;0,En!A483,"")</f>
+        <v/>
+      </c>
+      <c r="C483" t="str">
+        <f>IF(En!B483&lt;&gt;0,En!B483,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="str">
+        <f>IF(En!A484&lt;&gt;0,En!A484,"")</f>
+        <v/>
+      </c>
+      <c r="C484" t="str">
+        <f>IF(En!B484&lt;&gt;0,En!B484,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="str">
+        <f>IF(En!A485&lt;&gt;0,En!A485,"")</f>
+        <v/>
+      </c>
+      <c r="C485" t="str">
+        <f>IF(En!B485&lt;&gt;0,En!B485,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="str">
+        <f>IF(En!A486&lt;&gt;0,En!A486,"")</f>
+        <v/>
+      </c>
+      <c r="C486" t="str">
+        <f>IF(En!B486&lt;&gt;0,En!B486,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="str">
+        <f>IF(En!A487&lt;&gt;0,En!A487,"")</f>
+        <v/>
+      </c>
+      <c r="C487" t="str">
+        <f>IF(En!B487&lt;&gt;0,En!B487,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="str">
+        <f>IF(En!A488&lt;&gt;0,En!A488,"")</f>
+        <v/>
+      </c>
+      <c r="C488" t="str">
+        <f>IF(En!B488&lt;&gt;0,En!B488,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="str">
+        <f>IF(En!A489&lt;&gt;0,En!A489,"")</f>
+        <v/>
+      </c>
+      <c r="C489" t="str">
+        <f>IF(En!B489&lt;&gt;0,En!B489,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="str">
+        <f>IF(En!A490&lt;&gt;0,En!A490,"")</f>
+        <v/>
+      </c>
+      <c r="C490" t="str">
+        <f>IF(En!B490&lt;&gt;0,En!B490,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="str">
+        <f>IF(En!A491&lt;&gt;0,En!A491,"")</f>
+        <v/>
+      </c>
+      <c r="C491" t="str">
+        <f>IF(En!B491&lt;&gt;0,En!B491,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="str">
+        <f>IF(En!A492&lt;&gt;0,En!A492,"")</f>
+        <v/>
+      </c>
+      <c r="C492" t="str">
+        <f>IF(En!B492&lt;&gt;0,En!B492,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="str">
+        <f>IF(En!A493&lt;&gt;0,En!A493,"")</f>
+        <v/>
+      </c>
+      <c r="C493" t="str">
+        <f>IF(En!B493&lt;&gt;0,En!B493,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="str">
+        <f>IF(En!A494&lt;&gt;0,En!A494,"")</f>
+        <v/>
+      </c>
+      <c r="C494" t="str">
+        <f>IF(En!B494&lt;&gt;0,En!B494,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="str">
+        <f>IF(En!A495&lt;&gt;0,En!A495,"")</f>
+        <v/>
+      </c>
+      <c r="C495" t="str">
+        <f>IF(En!B495&lt;&gt;0,En!B495,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="str">
+        <f>IF(En!A496&lt;&gt;0,En!A496,"")</f>
+        <v/>
+      </c>
+      <c r="C496" t="str">
+        <f>IF(En!B496&lt;&gt;0,En!B496,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="str">
+        <f>IF(En!A497&lt;&gt;0,En!A497,"")</f>
+        <v/>
+      </c>
+      <c r="C497" t="str">
+        <f>IF(En!B497&lt;&gt;0,En!B497,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="str">
+        <f>IF(En!A498&lt;&gt;0,En!A498,"")</f>
+        <v/>
+      </c>
+      <c r="C498" t="str">
+        <f>IF(En!B498&lt;&gt;0,En!B498,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="str">
+        <f>IF(En!A499&lt;&gt;0,En!A499,"")</f>
+        <v/>
+      </c>
+      <c r="C499" t="str">
+        <f>IF(En!B499&lt;&gt;0,En!B499,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="str">
+        <f>IF(En!A500&lt;&gt;0,En!A500,"")</f>
+        <v/>
+      </c>
+      <c r="C500" t="str">
+        <f>IF(En!B500&lt;&gt;0,En!B500,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="str">
+        <f>IF(En!A501&lt;&gt;0,En!A501,"")</f>
+        <v/>
+      </c>
+      <c r="C501" t="str">
+        <f>IF(En!B501&lt;&gt;0,En!B501,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="str">
+        <f>IF(En!A502&lt;&gt;0,En!A502,"")</f>
+        <v/>
+      </c>
+      <c r="C502" t="str">
+        <f>IF(En!B502&lt;&gt;0,En!B502,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="str">
+        <f>IF(En!A503&lt;&gt;0,En!A503,"")</f>
+        <v/>
+      </c>
+      <c r="C503" t="str">
+        <f>IF(En!B503&lt;&gt;0,En!B503,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="str">
+        <f>IF(En!A504&lt;&gt;0,En!A504,"")</f>
+        <v/>
+      </c>
+      <c r="C504" t="str">
+        <f>IF(En!B504&lt;&gt;0,En!B504,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="str">
+        <f>IF(En!A505&lt;&gt;0,En!A505,"")</f>
+        <v/>
+      </c>
+      <c r="C505" t="str">
+        <f>IF(En!B505&lt;&gt;0,En!B505,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="str">
+        <f>IF(En!A506&lt;&gt;0,En!A506,"")</f>
+        <v/>
+      </c>
+      <c r="C506" t="str">
+        <f>IF(En!B506&lt;&gt;0,En!B506,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="str">
+        <f>IF(En!A507&lt;&gt;0,En!A507,"")</f>
+        <v/>
+      </c>
+      <c r="C507" t="str">
+        <f>IF(En!B507&lt;&gt;0,En!B507,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="str">
+        <f>IF(En!A508&lt;&gt;0,En!A508,"")</f>
+        <v/>
+      </c>
+      <c r="C508" t="str">
+        <f>IF(En!B508&lt;&gt;0,En!B508,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="str">
+        <f>IF(En!A509&lt;&gt;0,En!A509,"")</f>
+        <v/>
+      </c>
+      <c r="C509" t="str">
+        <f>IF(En!B509&lt;&gt;0,En!B509,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="str">
+        <f>IF(En!A510&lt;&gt;0,En!A510,"")</f>
+        <v/>
+      </c>
+      <c r="C510" t="str">
+        <f>IF(En!B510&lt;&gt;0,En!B510,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="str">
+        <f>IF(En!A511&lt;&gt;0,En!A511,"")</f>
+        <v/>
+      </c>
+      <c r="C511" t="str">
+        <f>IF(En!B511&lt;&gt;0,En!B511,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="str">
+        <f>IF(En!A512&lt;&gt;0,En!A512,"")</f>
+        <v/>
+      </c>
+      <c r="C512" t="str">
+        <f>IF(En!B512&lt;&gt;0,En!B512,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="str">
+        <f>IF(En!A513&lt;&gt;0,En!A513,"")</f>
+        <v/>
+      </c>
+      <c r="C513" t="str">
+        <f>IF(En!B513&lt;&gt;0,En!B513,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="str">
+        <f>IF(En!A514&lt;&gt;0,En!A514,"")</f>
+        <v/>
+      </c>
+      <c r="C514" t="str">
+        <f>IF(En!B514&lt;&gt;0,En!B514,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="str">
+        <f>IF(En!A515&lt;&gt;0,En!A515,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="str">
+        <f>IF(En!A516&lt;&gt;0,En!A516,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="str">
+        <f>IF(En!A517&lt;&gt;0,En!A517,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="str">
+        <f>IF(En!A518&lt;&gt;0,En!A518,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="str">
+        <f>IF(En!A519&lt;&gt;0,En!A519,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="str">
+        <f>IF(En!A520&lt;&gt;0,En!A520,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="str">
+        <f>IF(En!A521&lt;&gt;0,En!A521,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="str">
+        <f>IF(En!A522&lt;&gt;0,En!A522,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="str">
+        <f>IF(En!A523&lt;&gt;0,En!A523,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="str">
+        <f>IF(En!A524&lt;&gt;0,En!A524,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="str">
+        <f>IF(En!A525&lt;&gt;0,En!A525,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="str">
+        <f>IF(En!A526&lt;&gt;0,En!A526,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="str">
+        <f>IF(En!A527&lt;&gt;0,En!A527,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="str">
+        <f>IF(En!A528&lt;&gt;0,En!A528,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="str">
+        <f>IF(En!A529&lt;&gt;0,En!A529,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="str">
+        <f>IF(En!A530&lt;&gt;0,En!A530,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="str">
+        <f>IF(En!A531&lt;&gt;0,En!A531,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="str">
+        <f>IF(En!A532&lt;&gt;0,En!A532,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="str">
+        <f>IF(En!A533&lt;&gt;0,En!A533,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="str">
+        <f>IF(En!A534&lt;&gt;0,En!A534,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="str">
+        <f>IF(En!A535&lt;&gt;0,En!A535,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="str">
+        <f>IF(En!A536&lt;&gt;0,En!A536,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="str">
+        <f>IF(En!A537&lt;&gt;0,En!A537,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" t="str">
+        <f>IF(En!A538&lt;&gt;0,En!A538,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="str">
+        <f>IF(En!A539&lt;&gt;0,En!A539,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="str">
+        <f>IF(En!A540&lt;&gt;0,En!A540,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="str">
+        <f>IF(En!A541&lt;&gt;0,En!A541,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="str">
+        <f>IF(En!A542&lt;&gt;0,En!A542,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="str">
+        <f>IF(En!A543&lt;&gt;0,En!A543,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="str">
+        <f>IF(En!A544&lt;&gt;0,En!A544,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="str">
+        <f>IF(En!A545&lt;&gt;0,En!A545,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="str">
+        <f>IF(En!A546&lt;&gt;0,En!A546,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="str">
+        <f>IF(En!A547&lt;&gt;0,En!A547,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="str">
+        <f>IF(En!A548&lt;&gt;0,En!A548,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="str">
+        <f>IF(En!A549&lt;&gt;0,En!A549,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="str">
+        <f>IF(En!A550&lt;&gt;0,En!A550,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" t="str">
+        <f>IF(En!A551&lt;&gt;0,En!A551,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" t="str">
+        <f>IF(En!A552&lt;&gt;0,En!A552,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="str">
+        <f>IF(En!A553&lt;&gt;0,En!A553,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="str">
+        <f>IF(En!A554&lt;&gt;0,En!A554,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="str">
+        <f>IF(En!A555&lt;&gt;0,En!A555,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="str">
+        <f>IF(En!A556&lt;&gt;0,En!A556,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="str">
+        <f>IF(En!A557&lt;&gt;0,En!A557,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="str">
+        <f>IF(En!A558&lt;&gt;0,En!A558,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="str">
+        <f>IF(En!A559&lt;&gt;0,En!A559,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="str">
+        <f>IF(En!A560&lt;&gt;0,En!A560,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="str">
+        <f>IF(En!A561&lt;&gt;0,En!A561,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="str">
+        <f>IF(En!A562&lt;&gt;0,En!A562,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" t="str">
+        <f>IF(En!A563&lt;&gt;0,En!A563,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" t="str">
+        <f>IF(En!A564&lt;&gt;0,En!A564,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="str">
+        <f>IF(En!A565&lt;&gt;0,En!A565,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="str">
+        <f>IF(En!A566&lt;&gt;0,En!A566,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="str">
+        <f>IF(En!A567&lt;&gt;0,En!A567,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="str">
+        <f>IF(En!A568&lt;&gt;0,En!A568,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="str">
+        <f>IF(En!A569&lt;&gt;0,En!A569,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="str">
+        <f>IF(En!A570&lt;&gt;0,En!A570,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="str">
+        <f>IF(En!A571&lt;&gt;0,En!A571,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="str">
+        <f>IF(En!A572&lt;&gt;0,En!A572,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="str">
+        <f>IF(En!A573&lt;&gt;0,En!A573,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="str">
+        <f>IF(En!A574&lt;&gt;0,En!A574,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2150,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:E64"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3574,419 +8948,419 @@
     <row r="65" spans="1:5">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B65" t="str">
         <f>IF(En!A65&lt;&gt;0,En!A65,"")</f>
-        <v/>
+        <v>log_panel_acquiring</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D65" t="str">
         <f>IF(En!B65&lt;&gt;0,En!B65,"")</f>
-        <v/>
+        <v>Acquiring log</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="3">IF(B66&lt;&gt;"","    &lt;string name=""","")</f>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B66" t="str">
         <f>IF(En!A66&lt;&gt;0,En!A66,"")</f>
-        <v/>
+        <v>log_panel_collect</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="4">IF(B66&lt;&gt;"","""&gt;","")</f>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D66" t="str">
         <f>IF(En!B66&lt;&gt;0,En!B66,"")</f>
-        <v/>
+        <v>This will collect the GTalkSMS log and create a message for you to send. You will be presented with an editable message - you should send the message to yourself, then attach it to a GTalkSMS issue describing your problem.</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E129" si="5">IF(B66&lt;&gt;"","&lt;/string&gt;","")</f>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B67" t="str">
         <f>IF(En!A67&lt;&gt;0,En!A67,"")</f>
-        <v/>
+        <v>main_service_connected</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D67" t="str">
         <f>IF(En!B67&lt;&gt;0,En!B67,"")</f>
-        <v/>
+        <v>Connected</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B68" t="str">
         <f>IF(En!A68&lt;&gt;0,En!A68,"")</f>
-        <v/>
+        <v>main_service_connecting</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D68" t="str">
         <f>IF(En!B68&lt;&gt;0,En!B68,"")</f>
-        <v/>
+        <v>Connecting...</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B69" t="str">
         <f>IF(En!A69&lt;&gt;0,En!A69,"")</f>
-        <v/>
+        <v>main_service_disconnected</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D69" t="str">
         <f>IF(En!B69&lt;&gt;0,En!B69,"")</f>
-        <v/>
+        <v>Disconnected</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B70" t="str">
         <f>IF(En!A70&lt;&gt;0,En!A70,"")</f>
-        <v/>
+        <v>main_service_disconnecting</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D70" t="str">
         <f>IF(En!B70&lt;&gt;0,En!B70,"")</f>
-        <v/>
+        <v>Disconnecting...</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B71" t="str">
         <f>IF(En!A71&lt;&gt;0,En!A71,"")</f>
-        <v/>
+        <v>main_service_waiting</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D71" t="str">
         <f>IF(En!B71&lt;&gt;0,En!B71,"")</f>
-        <v/>
+        <v>Waiting...</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B72" t="str">
         <f>IF(En!A72&lt;&gt;0,En!A72,"")</f>
-        <v/>
+        <v>main_service_waiting_to_connect</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D72" t="str">
         <f>IF(En!B72&lt;&gt;0,En!B72,"")</f>
-        <v/>
+        <v>Waiting to connect...</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B73" t="str">
         <f>IF(En!A73&lt;&gt;0,En!A73,"")</f>
-        <v/>
+        <v>main_service_stop</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D73" t="str">
         <f>IF(En!B73&lt;&gt;0,En!B73,"")</f>
-        <v/>
+        <v>GTalkSMS stopped</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B74" t="str">
         <f>IF(En!A74&lt;&gt;0,En!A74,"")</f>
-        <v/>
+        <v>xmpp_manager_reconnecting</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D74" t="str">
         <f>IF(En!B74&lt;&gt;0,En!B74,"")</f>
-        <v/>
+        <v>Reconnecting…</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B75" t="str">
         <f>IF(En!A75&lt;&gt;0,En!A75,"")</f>
-        <v/>
+        <v>xmpp_manager_failed_max_attempts</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D75" t="str">
         <f>IF(En!B75&lt;&gt;0,En!B75,"")</f>
-        <v/>
+        <v>Failed to connect.</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B76" t="str">
         <f>IF(En!A76&lt;&gt;0,En!A76,"")</f>
-        <v/>
+        <v>xmpp_manager_waiting</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D76" t="str">
         <f>IF(En!B76&lt;&gt;0,En!B76,"")</f>
-        <v/>
+        <v>Waiting for network to become available.</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B77" t="str">
         <f>IF(En!A77&lt;&gt;0,En!A77,"")</f>
-        <v/>
+        <v>xmpp_manager_connection_failed</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D77" t="str">
         <f>IF(En!B77&lt;&gt;0,En!B77,"")</f>
-        <v/>
+        <v>Connection failed.</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B78" t="str">
         <f>IF(En!A78&lt;&gt;0,En!A78,"")</f>
-        <v/>
+        <v>xmpp_manager_login_failed</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D78" t="str">
         <f>IF(En!B78&lt;&gt;0,En!B78,"")</f>
-        <v/>
+        <v>Login failed.</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B79" t="str">
         <f>IF(En!A79&lt;&gt;0,En!A79,"")</f>
-        <v/>
+        <v>xmpp_manager_invalid_credentials</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D79" t="str">
         <f>IF(En!B79&lt;&gt;0,En!B79,"")</f>
-        <v/>
+        <v>Invalid username or password.</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="str">
+      <c r="A80" t="e">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B80" t="str">
-        <f>IF(En!A80&lt;&gt;0,En!A80,"")</f>
-        <v/>
-      </c>
-      <c r="C80" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B80" t="e">
+        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C80" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="D80" t="str">
         <f>IF(En!B80&lt;&gt;0,En!B80,"")</f>
-        <v/>
-      </c>
-      <c r="E80" t="str">
+        <v>Website</v>
+      </c>
+      <c r="E80" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" t="str">
+      <c r="A81" t="e">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B81" t="str">
-        <f>IF(En!A81&lt;&gt;0,En!A81,"")</f>
-        <v/>
-      </c>
-      <c r="C81" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B81" t="e">
+        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C81" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="D81" t="str">
         <f>IF(En!B81&lt;&gt;0,En!B81,"")</f>
-        <v/>
-      </c>
-      <c r="E81" t="str">
+        <v>Authors</v>
+      </c>
+      <c r="E81" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" t="str">
+      <c r="A82" t="e">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B82" t="str">
-        <f>IF(En!A82&lt;&gt;0,En!A82,"")</f>
-        <v/>
-      </c>
-      <c r="C82" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B82" t="e">
+        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C82" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="D82" t="str">
         <f>IF(En!B82&lt;&gt;0,En!B82,"")</f>
-        <v/>
-      </c>
-      <c r="E82" t="str">
+        <v>Donors</v>
+      </c>
+      <c r="E82" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" t="str">
+      <c r="A83" t="e">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B83" t="str">
-        <f>IF(En!A83&lt;&gt;0,En!A83,"")</f>
-        <v/>
-      </c>
-      <c r="C83" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="B83" t="e">
+        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C83" t="e">
         <f t="shared" si="4"/>
-        <v/>
+        <v>#REF!</v>
       </c>
       <c r="D83" t="str">
         <f>IF(En!B83&lt;&gt;0,En!B83,"")</f>
-        <v/>
-      </c>
-      <c r="E83" t="str">
+        <v>Change Log</v>
+      </c>
+      <c r="E83" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -13040,8 +18414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14464,419 +19838,419 @@
     <row r="65" spans="1:5">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B65" t="str">
         <f>IF(Fr!A65&lt;&gt;0,Fr!A65,"")</f>
-        <v/>
+        <v>log_panel_acquiring</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D65" t="str">
         <f>IF(Fr!B65&lt;&gt;0,Fr!B65,"")</f>
-        <v/>
+        <v>Acquisition des logs</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="str">
         <f t="shared" ref="A66:A129" si="3">IF(B66&lt;&gt;"","    &lt;string name=""","")</f>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B66" t="str">
         <f>IF(Fr!A66&lt;&gt;0,Fr!A66,"")</f>
-        <v/>
+        <v>log_panel_collect</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" ref="C66:C129" si="4">IF(B66&lt;&gt;"","""&gt;","")</f>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D66" t="str">
         <f>IF(Fr!B66&lt;&gt;0,Fr!B66,"")</f>
-        <v/>
+        <v>Récupère les logs de GTalkSMS et compose un nouveau message. Vous pouvez vous envoyer ce message et le joindre à un bug décrivant votre problème.</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E129" si="5">IF(B66&lt;&gt;"","&lt;/string&gt;","")</f>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B67" t="str">
         <f>IF(Fr!A67&lt;&gt;0,Fr!A67,"")</f>
-        <v/>
+        <v>main_service_connected</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D67" t="str">
         <f>IF(Fr!B67&lt;&gt;0,Fr!B67,"")</f>
-        <v/>
+        <v>Connecté</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B68" t="str">
         <f>IF(Fr!A68&lt;&gt;0,Fr!A68,"")</f>
-        <v/>
+        <v>main_service_connecting</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D68" t="str">
         <f>IF(Fr!B68&lt;&gt;0,Fr!B68,"")</f>
-        <v/>
+        <v>Connexion…</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B69" t="str">
         <f>IF(Fr!A69&lt;&gt;0,Fr!A69,"")</f>
-        <v/>
+        <v>main_service_disconnected</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D69" t="str">
         <f>IF(Fr!B69&lt;&gt;0,Fr!B69,"")</f>
-        <v/>
+        <v>Déconnecté</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B70" t="str">
         <f>IF(Fr!A70&lt;&gt;0,Fr!A70,"")</f>
-        <v/>
+        <v>main_service_disconnecting</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D70" t="str">
         <f>IF(Fr!B70&lt;&gt;0,Fr!B70,"")</f>
-        <v/>
+        <v>Déconnexion…</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B71" t="str">
         <f>IF(Fr!A71&lt;&gt;0,Fr!A71,"")</f>
-        <v/>
+        <v>main_service_waiting</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D71" t="str">
         <f>IF(Fr!B71&lt;&gt;0,Fr!B71,"")</f>
-        <v/>
+        <v>En attente…</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B72" t="str">
         <f>IF(Fr!A72&lt;&gt;0,Fr!A72,"")</f>
-        <v/>
+        <v>main_service_waiting_to_connect</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D72" t="str">
         <f>IF(Fr!B72&lt;&gt;0,Fr!B72,"")</f>
-        <v/>
+        <v>En attente de connexion…</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B73" t="str">
         <f>IF(Fr!A73&lt;&gt;0,Fr!A73,"")</f>
-        <v/>
+        <v>main_service_stop</v>
       </c>
       <c r="C73" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D73" t="str">
         <f>IF(Fr!B73&lt;&gt;0,Fr!B73,"")</f>
-        <v/>
+        <v>Arrêt de GTalkSMS</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B74" t="str">
         <f>IF(Fr!A74&lt;&gt;0,Fr!A74,"")</f>
-        <v/>
+        <v>xmpp_manager_reconnecting</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D74" t="str">
         <f>IF(Fr!B74&lt;&gt;0,Fr!B74,"")</f>
-        <v/>
+        <v>Reconnexion…</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B75" t="str">
         <f>IF(Fr!A75&lt;&gt;0,Fr!A75,"")</f>
-        <v/>
+        <v>xmpp_manager_failed_max_attempts</v>
       </c>
       <c r="C75" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D75" t="str">
         <f>IF(Fr!B75&lt;&gt;0,Fr!B75,"")</f>
-        <v/>
+        <v>Echec de la connexion.</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B76" t="str">
         <f>IF(Fr!A76&lt;&gt;0,Fr!A76,"")</f>
-        <v/>
+        <v>xmpp_manager_waiting</v>
       </c>
       <c r="C76" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D76" t="str">
         <f>IF(Fr!B76&lt;&gt;0,Fr!B76,"")</f>
-        <v/>
+        <v>En attente d\'un réseau disponible…</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B77" t="str">
         <f>IF(Fr!A77&lt;&gt;0,Fr!A77,"")</f>
-        <v/>
+        <v>xmpp_manager_connection_failed</v>
       </c>
       <c r="C77" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D77" t="str">
         <f>IF(Fr!B77&lt;&gt;0,Fr!B77,"")</f>
-        <v/>
+        <v>Echec de la connexion.</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B78" t="str">
         <f>IF(Fr!A78&lt;&gt;0,Fr!A78,"")</f>
-        <v/>
+        <v>xmpp_manager_login_failed</v>
       </c>
       <c r="C78" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D78" t="str">
         <f>IF(Fr!B78&lt;&gt;0,Fr!B78,"")</f>
-        <v/>
+        <v>Echec lors de l\'identification.</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B79" t="str">
         <f>IF(Fr!A79&lt;&gt;0,Fr!A79,"")</f>
-        <v/>
+        <v>xmpp_manager_invalid_credentials</v>
       </c>
       <c r="C79" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D79" t="str">
         <f>IF(Fr!B79&lt;&gt;0,Fr!B79,"")</f>
-        <v/>
+        <v>Nom d\'utilisateur ou mot de passe incorrect.</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B80" t="str">
-        <f>IF(Fr!A80&lt;&gt;0,Fr!A80,"")</f>
-        <v/>
+        <f>IF(En!A80&lt;&gt;0,En!A80,"")</f>
+        <v>about_website</v>
       </c>
       <c r="C80" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D80" t="str">
         <f>IF(Fr!B80&lt;&gt;0,Fr!B80,"")</f>
-        <v/>
+        <v>Site Web</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B81" t="str">
-        <f>IF(Fr!A81&lt;&gt;0,Fr!A81,"")</f>
-        <v/>
+        <f>IF(En!A81&lt;&gt;0,En!A81,"")</f>
+        <v>about_authors</v>
       </c>
       <c r="C81" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D81" t="str">
         <f>IF(Fr!B81&lt;&gt;0,Fr!B81,"")</f>
-        <v/>
+        <v>Auteurs</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B82" t="str">
-        <f>IF(Fr!A82&lt;&gt;0,Fr!A82,"")</f>
-        <v/>
+        <f>IF(En!A82&lt;&gt;0,En!A82,"")</f>
+        <v>about_donors</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D82" t="str">
         <f>IF(Fr!B82&lt;&gt;0,Fr!B82,"")</f>
-        <v/>
+        <v>Doneurs</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B83" t="str">
-        <f>IF(Fr!A83&lt;&gt;0,Fr!A83,"")</f>
-        <v/>
+        <f>IF(En!A83&lt;&gt;0,En!A83,"")</f>
+        <v>about_change_log</v>
       </c>
       <c r="C83" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D83" t="str">
         <f>IF(Fr!B83&lt;&gt;0,Fr!B83,"")</f>
-        <v/>
+        <v>Liste des changements</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="443">
   <si>
     <t>pref_app</t>
   </si>
@@ -737,6 +737,615 @@
   </si>
   <si>
     <t>Liste des changements</t>
+  </si>
+  <si>
+    <t>chat_sms_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMS from %s: </t>
+  </si>
+  <si>
+    <t>SMS de %s :</t>
+  </si>
+  <si>
+    <t>chat_battery_level</t>
+  </si>
+  <si>
+    <t>Battery level %d%%</t>
+  </si>
+  <si>
+    <t>Batterie à %d%%</t>
+  </si>
+  <si>
+    <t>chat_error_no_recipient</t>
+  </si>
+  <si>
+    <t>chat_error_unknown_cmd</t>
+  </si>
+  <si>
+    <t>chat_error</t>
+  </si>
+  <si>
+    <t>Error: %s</t>
+  </si>
+  <si>
+    <t>chat_error_root</t>
+  </si>
+  <si>
+    <t>Reply contact is not set.</t>
+  </si>
+  <si>
+    <t>Destinataire non défini.</t>
+  </si>
+  <si>
+    <t>Reply contact is %s</t>
+  </si>
+  <si>
+    <t>chat_reply_contact</t>
+  </si>
+  <si>
+    <t>Start locating phone</t>
+  </si>
+  <si>
+    <t>Ringing phone</t>
+  </si>
+  <si>
+    <t>Unable to ring, change the ringtone in the options</t>
+  </si>
+  <si>
+    <t>Stopping ongoing actions</t>
+  </si>
+  <si>
+    <t>Sending sms to %s</t>
+  </si>
+  <si>
+    <t>Specify more details:</t>
+  </si>
+  <si>
+    <t>Mark %s\'s sms as read</t>
+  </si>
+  <si>
+    <t>Only got %d sms</t>
+  </si>
+  <si>
+    <t>No sms found</t>
+  </si>
+  <si>
+    <t>No phone call found</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Emails</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>Text copied</t>
+  </si>
+  <si>
+    <t>Clipboard access failed</t>
+  </si>
+  <si>
+    <t>GPhone clipboard: %s</t>
+  </si>
+  <si>
+    <t>GTalkSMS: choose an activity</t>
+  </si>
+  <si>
+    <t>Dial %s</t>
+  </si>
+  <si>
+    <t>Available commands:</t>
+  </si>
+  <si>
+    <t>- %s: stop application on your phone.</t>
+  </si>
+  <si>
+    <t>- %s: shows this help.</t>
+  </si>
+  <si>
+    <t>- %s: dial the specified contact.</t>
+  </si>
+  <si>
+    <t>- %s: send a sms to your last recipient with content message.</t>
+  </si>
+  <si>
+    <t>- %s: display last sent sms from all contact.</t>
+  </si>
+  <si>
+    <t>- %s: display last sent sms from searched contacts.</t>
+  </si>
+  <si>
+    <t>- %s: sends a sms to number with content message.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: mark sms as read for last recipient or given contact.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: show battery level in percent.</t>
+  </si>
+  <si>
+    <t>- %s: display call log.</t>
+  </si>
+  <si>
+    <t>- %s: display informations of a searched contact.</t>
+  </si>
+  <si>
+    <t>- %s: Open Maps or Navigation or Street view on specific address.</t>
+  </si>
+  <si>
+    <t>- %s: copy text to clipboard or sent phone clipboard if text is empty.</t>
+  </si>
+  <si>
+    <t>- %s: execute shell instuction with root access if possible.</t>
+  </si>
+  <si>
+    <t>and you can paste links and open it with the appropriate application.</t>
+  </si>
+  <si>
+    <t>chat_start_locating</t>
+  </si>
+  <si>
+    <t>chat_start_ringing</t>
+  </si>
+  <si>
+    <t>chat_error_ringing</t>
+  </si>
+  <si>
+    <t>chat_stop_actions</t>
+  </si>
+  <si>
+    <t>chat_send_sms</t>
+  </si>
+  <si>
+    <t>chat_specify_details</t>
+  </si>
+  <si>
+    <t>chat_no_match_for</t>
+  </si>
+  <si>
+    <t>chat_mark_as_read</t>
+  </si>
+  <si>
+    <t>chat_only_got_n_sms</t>
+  </si>
+  <si>
+    <t>chat_no_sms</t>
+  </si>
+  <si>
+    <t>chat_no_call</t>
+  </si>
+  <si>
+    <t>chat_contact_found</t>
+  </si>
+  <si>
+    <t>chat_phones</t>
+  </si>
+  <si>
+    <t>chat_emails</t>
+  </si>
+  <si>
+    <t>chat_addresses</t>
+  </si>
+  <si>
+    <t>chat_text_copied</t>
+  </si>
+  <si>
+    <t>chat_clipboard</t>
+  </si>
+  <si>
+    <t>chat_choose_activity</t>
+  </si>
+  <si>
+    <t>chat_dial</t>
+  </si>
+  <si>
+    <t>chat_error_clipboard</t>
+  </si>
+  <si>
+    <t>chat_error_dial</t>
+  </si>
+  <si>
+    <t>chat_help_title</t>
+  </si>
+  <si>
+    <t>chat_help_help</t>
+  </si>
+  <si>
+    <t>chat_help_stop</t>
+  </si>
+  <si>
+    <t>chat_help_dial</t>
+  </si>
+  <si>
+    <t>chat_help_sms_show_contact</t>
+  </si>
+  <si>
+    <t>chat_help_sms_reply</t>
+  </si>
+  <si>
+    <t>chat_help_sms_show_all</t>
+  </si>
+  <si>
+    <t>chat_help_sms_send</t>
+  </si>
+  <si>
+    <t>chat_help_mark_as_read</t>
+  </si>
+  <si>
+    <t>chat_help_battery</t>
+  </si>
+  <si>
+    <t>chat_help_calls</t>
+  </si>
+  <si>
+    <t>chat_help_contact</t>
+  </si>
+  <si>
+    <t>chat_help_geo</t>
+  </si>
+  <si>
+    <t>chat_help_where</t>
+  </si>
+  <si>
+    <t>chat_help_ring</t>
+  </si>
+  <si>
+    <t>chat_help_copy</t>
+  </si>
+  <si>
+    <t>chat_help_cmd</t>
+  </si>
+  <si>
+    <t>chat_help_write</t>
+  </si>
+  <si>
+    <t>chat_help_urls</t>
+  </si>
+  <si>
+    <t>Erreur : %s</t>
+  </si>
+  <si>
+    <t>Impossible d\'avoir l\'accès super administrateur !</t>
+  </si>
+  <si>
+    <t>Le destinataire par défaut est %s</t>
+  </si>
+  <si>
+    <t>Faire sonner le téléphone</t>
+  </si>
+  <si>
+    <t>Démarrer la localisation du téléphone</t>
+  </si>
+  <si>
+    <t>Impossible de faire sonner le téléphone, vérifier les paramètres.</t>
+  </si>
+  <si>
+    <t>Stopper les actions en cours.</t>
+  </si>
+  <si>
+    <t>Spécifier plus de détails :</t>
+  </si>
+  <si>
+    <t>Marquer les messages de %s comme lus.</t>
+  </si>
+  <si>
+    <t>Aucun SMS trouvé</t>
+  </si>
+  <si>
+    <t>Seulement %d SMS</t>
+  </si>
+  <si>
+    <t>Aucun appel téléphonique trouvé</t>
+  </si>
+  <si>
+    <t>Téléphones</t>
+  </si>
+  <si>
+    <t>Adresses</t>
+  </si>
+  <si>
+    <t>Texte copié</t>
+  </si>
+  <si>
+    <t>Accès au presse-papier impossible</t>
+  </si>
+  <si>
+    <t>Presse-papier du téléphone : %s</t>
+  </si>
+  <si>
+    <t>Composer %s</t>
+  </si>
+  <si>
+    <t>Erreur, impossible de composer le numéro.</t>
+  </si>
+  <si>
+    <t>Commandes disponibles :</t>
+  </si>
+  <si>
+    <t>- %s: afficher cette aide.</t>
+  </si>
+  <si>
+    <t>- %s: composer le numéro du contact spécifié.</t>
+  </si>
+  <si>
+    <t>- %s: envoyer un SMS au dernier destinataire entrant ou sortant.</t>
+  </si>
+  <si>
+    <t>- %s: afficher les SMS de tous les contacts.</t>
+  </si>
+  <si>
+    <t>- %s: afficher les SMS des contacts spécifiés.</t>
+  </si>
+  <si>
+    <t>- %s: envoyer un SMS au contact/numéro spécifié.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: marquer comme lu les SMS du dernier destinataire ou du contact spécifié.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: afficher l\'état de la batterie.</t>
+  </si>
+  <si>
+    <t>- %s: afficher les informations des contacts spécifiés.</t>
+  </si>
+  <si>
+    <t>- %s: ouvrir Gmap, Navigtion ou Street View pour l\'adresse spécifiée.</t>
+  </si>
+  <si>
+    <t>- %s: copier le texte dans le presse-papier du téléphone ou récupérer celui du téléphone si vide.</t>
+  </si>
+  <si>
+    <t>- %s: exécuter une commande shell avec les droits super administrateur si possible.</t>
+  </si>
+  <si>
+    <t>et coller les liens http pour les ouvrir dans le navigateur du téléphone.</t>
+  </si>
+  <si>
+    <t>Error can\'t dial.</t>
+  </si>
+  <si>
+    <t>Can\'t have root acess!</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: write text as virtual keyboard (don\'t forget to activate keyboard in Android Preferences panel).</t>
+  </si>
+  <si>
+    <t>GTalkSMS : choisir l\'application</t>
+  </si>
+  <si>
+    <t>Envoi d\'un SMS à %s</t>
+  </si>
+  <si>
+    <t>- %s: stopper l\'application sur le téléphone.</t>
+  </si>
+  <si>
+    <t>- %s: afficher l\'historique d\'appels.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: écrit le texte comme un clavier virtuel dans les autres applications (Ne pas oublier d\'activer le clavier GTalkSMS dans les paramètres d\'Android).</t>
+  </si>
+  <si>
+    <t>chat_call_unknown</t>
+  </si>
+  <si>
+    <t>chat_call_incoming</t>
+  </si>
+  <si>
+    <t>chat_call_outgoing</t>
+  </si>
+  <si>
+    <t>chat_call_missed</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Incoming</t>
+  </si>
+  <si>
+    <t>Outgoing</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>chat_call_duration</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>Entrant</t>
+  </si>
+  <si>
+    <t>Sortant</t>
+  </si>
+  <si>
+    <t>Manqué</t>
+  </si>
+  <si>
+    <t>chat_welcome</t>
+  </si>
+  <si>
+    <t>GTalkSMS stopped.</t>
+  </si>
+  <si>
+    <t>chat_app_stop</t>
+  </si>
+  <si>
+    <t>Arrêt de GTalkSMS.</t>
+  </si>
+  <si>
+    <t>chat_is_calling</t>
+  </si>
+  <si>
+    <t>%s is calling…</t>
+  </si>
+  <si>
+    <t>Appel de %s…</t>
+  </si>
+  <si>
+    <t>[hidden number]</t>
+  </si>
+  <si>
+    <t>chat_call_hidden</t>
+  </si>
+  <si>
+    <t>[Appel Masqué]</t>
+  </si>
+  <si>
+    <t>Generic failure</t>
+  </si>
+  <si>
+    <t>No service</t>
+  </si>
+  <si>
+    <t>Null PDU</t>
+  </si>
+  <si>
+    <t>Radio off</t>
+  </si>
+  <si>
+    <t>SMS not delivered</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Failed to get log message</t>
+  </si>
+  <si>
+    <t>provider: %s</t>
+  </si>
+  <si>
+    <t>chat_sms_sent</t>
+  </si>
+  <si>
+    <t>chat_sms_failure</t>
+  </si>
+  <si>
+    <t>chat_sms_no_service</t>
+  </si>
+  <si>
+    <t>chat_sms_null_pdu</t>
+  </si>
+  <si>
+    <t>chat_sms_radio_off</t>
+  </si>
+  <si>
+    <t>chat_sms_delivered</t>
+  </si>
+  <si>
+    <t>chat_sms_not_delivered</t>
+  </si>
+  <si>
+    <t>chat_log_failed</t>
+  </si>
+  <si>
+    <t>chat_log_unavailable</t>
+  </si>
+  <si>
+    <t>chat_geo_accuracy</t>
+  </si>
+  <si>
+    <t>chat_geo_altitude</t>
+  </si>
+  <si>
+    <t>chat_geo_speed</t>
+  </si>
+  <si>
+    <t>chat_geo_provider</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+  <si>
+    <t>Pas de service</t>
+  </si>
+  <si>
+    <t>Radio éteinte</t>
+  </si>
+  <si>
+    <t>SMS délivré</t>
+  </si>
+  <si>
+    <t>SMS non délivré</t>
+  </si>
+  <si>
+    <t>Erreur lors de la récupération des logs.</t>
+  </si>
+  <si>
+    <t>Non disponible</t>
+  </si>
+  <si>
+    <t>Source : %s</t>
+  </si>
+  <si>
+    <t>SMS envoyé</t>
+  </si>
+  <si>
+    <t>Bienvenue dans GTalkSMS %s. Envoyer \"?\" pour afficher l\'aide.</t>
+  </si>
+  <si>
+    <t>- %s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande \"stop\".</t>
+  </si>
+  <si>
+    <t>- %s: faire sonner le téléphone jusqu\'à l\'envoie de la commande \"stop\".</t>
+  </si>
+  <si>
+    <t>%1$d contacts trouvés pour \"%2$s\"</t>
+  </si>
+  <si>
+    <t>Aucun résultat pour \"%s\"</t>
+  </si>
+  <si>
+    <t>\'%s\' : commande inconnue. Envoyer \"?\" afficher l\'aide.</t>
+  </si>
+  <si>
+    <t>Welcome to GTalkSMS %s. Send \"?\" for getting help.</t>
+  </si>
+  <si>
+    <t>- %s: sends you google map updates about the location of the phone until you send \"stop\".</t>
+  </si>
+  <si>
+    <t>- %s: rings the phone until you send \"stop\".</t>
+  </si>
+  <si>
+    <t>%1$d contacts found for \"%2$s\"</t>
+  </si>
+  <si>
+    <t>No match for \"%s\"</t>
+  </si>
+  <si>
+    <t>\'%s\': unknown command. Send \"?\" for getting help.</t>
+  </si>
+  <si>
+    <t>speed: %fm/s&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>altitude: %f&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>accuracy: %fm&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>&amp;#xA0;of&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>Vitesse : %fm/s&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>Altitude : %f&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>Précision : %fm&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>&amp;#xA0;de&amp;#xA0;</t>
   </si>
 </sst>
 </file>
@@ -772,8 +1381,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1745,6 +2355,558 @@
         <v>235</v>
       </c>
     </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>303</v>
+      </c>
+      <c r="B105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>307</v>
+      </c>
+      <c r="B110" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>319</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>321</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>322</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>327</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>328</v>
+      </c>
+      <c r="B130" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>370</v>
+      </c>
+      <c r="B131" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>371</v>
+      </c>
+      <c r="B132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>373</v>
+      </c>
+      <c r="B134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>385</v>
+      </c>
+      <c r="B137" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>405</v>
+      </c>
+      <c r="B144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>406</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>407</v>
+      </c>
+      <c r="B146" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>413</v>
+      </c>
+      <c r="B152" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1755,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2848,691 +4010,898 @@
     <row r="84" spans="1:3">
       <c r="A84" t="str">
         <f>IF(En!A84&lt;&gt;0,En!A84,"")</f>
-        <v/>
+        <v>chat_sms_from</v>
+      </c>
+      <c r="B84" t="s">
+        <v>242</v>
       </c>
       <c r="C84" t="str">
         <f>IF(En!B84&lt;&gt;0,En!B84,"")</f>
-        <v/>
+        <v xml:space="preserve">SMS from %s: </v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="str">
         <f>IF(En!A85&lt;&gt;0,En!A85,"")</f>
-        <v/>
+        <v>chat_battery_level</v>
+      </c>
+      <c r="B85" t="s">
+        <v>245</v>
       </c>
       <c r="C85" t="str">
         <f>IF(En!B85&lt;&gt;0,En!B85,"")</f>
-        <v/>
+        <v>Battery level %d%%</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="str">
         <f>IF(En!A86&lt;&gt;0,En!A86,"")</f>
-        <v/>
+        <v>chat_error_no_recipient</v>
+      </c>
+      <c r="B86" t="s">
+        <v>252</v>
       </c>
       <c r="C86" t="str">
         <f>IF(En!B86&lt;&gt;0,En!B86,"")</f>
-        <v/>
+        <v>Reply contact is not set.</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="str">
         <f>IF(En!A87&lt;&gt;0,En!A87,"")</f>
-        <v/>
+        <v>chat_error_unknown_cmd</v>
+      </c>
+      <c r="B87" t="s">
+        <v>428</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
-        <v/>
+        <v>\'%s\': unknown command. Send \"?\" for getting help.</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="str">
         <f>IF(En!A88&lt;&gt;0,En!A88,"")</f>
-        <v/>
+        <v>chat_error</v>
+      </c>
+      <c r="B88" t="s">
+        <v>329</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
-        <v/>
+        <v>Error: %s</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="str">
         <f>IF(En!A89&lt;&gt;0,En!A89,"")</f>
-        <v/>
+        <v>chat_error_root</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
-        <v/>
+        <v>Can\'t have root acess!</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="str">
         <f>IF(En!A90&lt;&gt;0,En!A90,"")</f>
-        <v/>
+        <v>chat_reply_contact</v>
+      </c>
+      <c r="B90" t="s">
+        <v>331</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
-        <v/>
+        <v>Reply contact is %s</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="str">
         <f>IF(En!A91&lt;&gt;0,En!A91,"")</f>
-        <v/>
+        <v>chat_start_locating</v>
+      </c>
+      <c r="B91" t="s">
+        <v>333</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
-        <v/>
+        <v>Start locating phone</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="str">
         <f>IF(En!A92&lt;&gt;0,En!A92,"")</f>
-        <v/>
+        <v>chat_start_ringing</v>
+      </c>
+      <c r="B92" t="s">
+        <v>332</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
-        <v/>
+        <v>Ringing phone</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="str">
         <f>IF(En!A93&lt;&gt;0,En!A93,"")</f>
-        <v/>
+        <v>chat_error_ringing</v>
+      </c>
+      <c r="B93" t="s">
+        <v>334</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
-        <v/>
+        <v>Unable to ring, change the ringtone in the options</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="str">
         <f>IF(En!A94&lt;&gt;0,En!A94,"")</f>
-        <v/>
+        <v>chat_stop_actions</v>
+      </c>
+      <c r="B94" t="s">
+        <v>335</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
-        <v/>
+        <v>Stopping ongoing actions</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="str">
         <f>IF(En!A95&lt;&gt;0,En!A95,"")</f>
-        <v/>
+        <v>chat_send_sms</v>
+      </c>
+      <c r="B95" t="s">
+        <v>366</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
-        <v/>
+        <v>Sending sms to %s</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="str">
         <f>IF(En!A96&lt;&gt;0,En!A96,"")</f>
-        <v/>
+        <v>chat_specify_details</v>
+      </c>
+      <c r="B96" t="s">
+        <v>336</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
-        <v/>
+        <v>Specify more details:</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="str">
         <f>IF(En!A97&lt;&gt;0,En!A97,"")</f>
-        <v/>
+        <v>chat_no_match_for</v>
+      </c>
+      <c r="B97" t="s">
+        <v>427</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
-        <v/>
+        <v>No match for \"%s\"</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="str">
         <f>IF(En!A98&lt;&gt;0,En!A98,"")</f>
-        <v/>
+        <v>chat_mark_as_read</v>
+      </c>
+      <c r="B98" t="s">
+        <v>337</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
-        <v/>
+        <v>Mark %s\'s sms as read</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="str">
         <f>IF(En!A99&lt;&gt;0,En!A99,"")</f>
-        <v/>
+        <v>chat_only_got_n_sms</v>
+      </c>
+      <c r="B99" t="s">
+        <v>339</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
-        <v/>
+        <v>Only got %d sms</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="str">
         <f>IF(En!A100&lt;&gt;0,En!A100,"")</f>
-        <v/>
+        <v>chat_no_sms</v>
+      </c>
+      <c r="B100" t="s">
+        <v>338</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
-        <v/>
+        <v>No sms found</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="str">
         <f>IF(En!A101&lt;&gt;0,En!A101,"")</f>
-        <v/>
+        <v>chat_no_call</v>
+      </c>
+      <c r="B101" t="s">
+        <v>340</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
-        <v/>
+        <v>No phone call found</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="str">
         <f>IF(En!A102&lt;&gt;0,En!A102,"")</f>
-        <v/>
+        <v>chat_contact_found</v>
+      </c>
+      <c r="B102" t="s">
+        <v>426</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
-        <v/>
+        <v>%1$d contacts found for \"%2$s\"</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="str">
         <f>IF(En!A103&lt;&gt;0,En!A103,"")</f>
-        <v/>
+        <v>chat_phones</v>
+      </c>
+      <c r="B103" t="s">
+        <v>341</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
-        <v/>
+        <v>Phones</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="str">
         <f>IF(En!A104&lt;&gt;0,En!A104,"")</f>
-        <v/>
+        <v>chat_emails</v>
+      </c>
+      <c r="B104" t="s">
+        <v>266</v>
       </c>
       <c r="C104" t="str">
         <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
-        <v/>
+        <v>Emails</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="str">
         <f>IF(En!A105&lt;&gt;0,En!A105,"")</f>
-        <v/>
+        <v>chat_addresses</v>
+      </c>
+      <c r="B105" t="s">
+        <v>342</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
-        <v/>
+        <v>Addresses</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="str">
         <f>IF(En!A106&lt;&gt;0,En!A106,"")</f>
-        <v/>
+        <v>chat_text_copied</v>
+      </c>
+      <c r="B106" t="s">
+        <v>343</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
-        <v/>
+        <v>Text copied</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="str">
         <f>IF(En!A107&lt;&gt;0,En!A107,"")</f>
-        <v/>
+        <v>chat_error_clipboard</v>
+      </c>
+      <c r="B107" t="s">
+        <v>344</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
-        <v/>
+        <v>Clipboard access failed</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="str">
         <f>IF(En!A108&lt;&gt;0,En!A108,"")</f>
-        <v/>
+        <v>chat_clipboard</v>
+      </c>
+      <c r="B108" t="s">
+        <v>345</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
-        <v/>
+        <v>GPhone clipboard: %s</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="str">
         <f>IF(En!A109&lt;&gt;0,En!A109,"")</f>
-        <v/>
+        <v>chat_choose_activity</v>
+      </c>
+      <c r="B109" t="s">
+        <v>365</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
-        <v/>
+        <v>GTalkSMS: choose an activity</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="str">
         <f>IF(En!A110&lt;&gt;0,En!A110,"")</f>
-        <v/>
+        <v>chat_dial</v>
+      </c>
+      <c r="B110" t="s">
+        <v>346</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
-        <v/>
+        <v>Dial %s</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="str">
         <f>IF(En!A111&lt;&gt;0,En!A111,"")</f>
-        <v/>
+        <v>chat_error_dial</v>
+      </c>
+      <c r="B111" t="s">
+        <v>347</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
-        <v/>
+        <v>Error can\'t dial.</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="str">
         <f>IF(En!A112&lt;&gt;0,En!A112,"")</f>
-        <v/>
+        <v>chat_help_title</v>
+      </c>
+      <c r="B112" t="s">
+        <v>348</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
-        <v/>
+        <v>Available commands:</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="str">
         <f>IF(En!A113&lt;&gt;0,En!A113,"")</f>
-        <v/>
+        <v>chat_help_help</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
-        <v/>
+        <v>- %s: shows this help.</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="str">
         <f>IF(En!A114&lt;&gt;0,En!A114,"")</f>
-        <v/>
+        <v>chat_help_stop</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
-        <v/>
+        <v>- %s: stop application on your phone.</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="str">
         <f>IF(En!A115&lt;&gt;0,En!A115,"")</f>
-        <v/>
+        <v>chat_help_dial</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
-        <v/>
+        <v>- %s: dial the specified contact.</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="str">
         <f>IF(En!A116&lt;&gt;0,En!A116,"")</f>
-        <v/>
+        <v>chat_help_sms_reply</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
-        <v/>
+        <v>- %s: send a sms to your last recipient with content message.</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="str">
         <f>IF(En!A117&lt;&gt;0,En!A117,"")</f>
-        <v/>
+        <v>chat_help_sms_show_all</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
-        <v/>
+        <v>- %s: display last sent sms from all contact.</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="str">
         <f>IF(En!A118&lt;&gt;0,En!A118,"")</f>
-        <v/>
+        <v>chat_help_sms_show_contact</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
-        <v/>
+        <v>- %s: display last sent sms from searched contacts.</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="str">
         <f>IF(En!A119&lt;&gt;0,En!A119,"")</f>
-        <v/>
+        <v>chat_help_sms_send</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
-        <v/>
+        <v>- %s: sends a sms to number with content message.</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="str">
         <f>IF(En!A120&lt;&gt;0,En!A120,"")</f>
-        <v/>
+        <v>chat_help_mark_as_read</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: mark sms as read for last recipient or given contact.</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="str">
         <f>IF(En!A121&lt;&gt;0,En!A121,"")</f>
-        <v/>
+        <v>chat_help_battery</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: show battery level in percent.</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="str">
         <f>IF(En!A122&lt;&gt;0,En!A122,"")</f>
-        <v/>
+        <v>chat_help_calls</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
-        <v/>
+        <v>- %s: display call log.</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="str">
         <f>IF(En!A123&lt;&gt;0,En!A123,"")</f>
-        <v/>
+        <v>chat_help_contact</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
-        <v/>
+        <v>- %s: display informations of a searched contact.</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="str">
         <f>IF(En!A124&lt;&gt;0,En!A124,"")</f>
-        <v/>
+        <v>chat_help_geo</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
-        <v/>
+        <v>- %s: Open Maps or Navigation or Street view on specific address.</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="str">
         <f>IF(En!A125&lt;&gt;0,En!A125,"")</f>
-        <v/>
+        <v>chat_help_where</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
-        <v/>
+        <v>- %s: sends you google map updates about the location of the phone until you send \"stop\".</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="str">
         <f>IF(En!A126&lt;&gt;0,En!A126,"")</f>
-        <v/>
+        <v>chat_help_ring</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
-        <v/>
+        <v>- %s: rings the phone until you send \"stop\".</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="str">
         <f>IF(En!A127&lt;&gt;0,En!A127,"")</f>
-        <v/>
+        <v>chat_help_copy</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
-        <v/>
+        <v>- %s: copy text to clipboard or sent phone clipboard if text is empty.</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="str">
         <f>IF(En!A128&lt;&gt;0,En!A128,"")</f>
-        <v/>
+        <v>chat_help_cmd</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
-        <v/>
+        <v>- %s: execute shell instuction with root access if possible.</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="str">
         <f>IF(En!A129&lt;&gt;0,En!A129,"")</f>
-        <v/>
+        <v>chat_help_write</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: write text as virtual keyboard (don\'t forget to activate keyboard in Android Preferences panel).</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="str">
         <f>IF(En!A130&lt;&gt;0,En!A130,"")</f>
-        <v/>
+        <v>chat_help_urls</v>
+      </c>
+      <c r="B130" t="s">
+        <v>361</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
-        <v/>
+        <v>and you can paste links and open it with the appropriate application.</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="str">
         <f>IF(En!A131&lt;&gt;0,En!A131,"")</f>
-        <v/>
+        <v>chat_call_unknown</v>
+      </c>
+      <c r="B131" t="s">
+        <v>379</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
-        <v/>
+        <v>Unknown</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="str">
         <f>IF(En!A132&lt;&gt;0,En!A132,"")</f>
-        <v/>
+        <v>chat_call_incoming</v>
+      </c>
+      <c r="B132" t="s">
+        <v>380</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
-        <v/>
+        <v>Incoming</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="str">
         <f>IF(En!A133&lt;&gt;0,En!A133,"")</f>
-        <v/>
+        <v>chat_call_outgoing</v>
+      </c>
+      <c r="B133" t="s">
+        <v>381</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
-        <v/>
+        <v>Outgoing</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="str">
         <f>IF(En!A134&lt;&gt;0,En!A134,"")</f>
-        <v/>
+        <v>chat_call_missed</v>
+      </c>
+      <c r="B134" t="s">
+        <v>382</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
-        <v/>
+        <v>Missed</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="str">
         <f>IF(En!A135&lt;&gt;0,En!A135,"")</f>
-        <v/>
+        <v>chat_call_duration</v>
+      </c>
+      <c r="B135" t="s">
+        <v>442</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
-        <v/>
+        <v>&amp;#xA0;of&amp;#xA0;</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="str">
         <f>IF(En!A136&lt;&gt;0,En!A136,"")</f>
-        <v/>
+        <v>chat_welcome</v>
+      </c>
+      <c r="B136" t="s">
+        <v>423</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
-        <v/>
+        <v>Welcome to GTalkSMS %s. Send \"?\" for getting help.</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="str">
         <f>IF(En!A137&lt;&gt;0,En!A137,"")</f>
-        <v/>
+        <v>chat_app_stop</v>
+      </c>
+      <c r="B137" t="s">
+        <v>386</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
-        <v/>
+        <v>GTalkSMS stopped.</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="str">
         <f>IF(En!A138&lt;&gt;0,En!A138,"")</f>
-        <v/>
+        <v>chat_is_calling</v>
+      </c>
+      <c r="B138" t="s">
+        <v>389</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
-        <v/>
+        <v>%s is calling…</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="str">
         <f>IF(En!A139&lt;&gt;0,En!A139,"")</f>
-        <v/>
+        <v>chat_call_hidden</v>
+      </c>
+      <c r="B139" t="s">
+        <v>392</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
-        <v/>
+        <v>[hidden number]</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="str">
         <f>IF(En!A140&lt;&gt;0,En!A140,"")</f>
-        <v/>
+        <v>chat_sms_sent</v>
+      </c>
+      <c r="B140" t="s">
+        <v>422</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
-        <v/>
+        <v>SMS sent</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="str">
         <f>IF(En!A141&lt;&gt;0,En!A141,"")</f>
-        <v/>
+        <v>chat_sms_failure</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
-        <v/>
+        <v>Generic failure</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="str">
         <f>IF(En!A142&lt;&gt;0,En!A142,"")</f>
-        <v/>
+        <v>chat_sms_no_service</v>
+      </c>
+      <c r="B142" t="s">
+        <v>415</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
-        <v/>
+        <v>No service</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="str">
         <f>IF(En!A143&lt;&gt;0,En!A143,"")</f>
-        <v/>
+        <v>chat_sms_null_pdu</v>
+      </c>
+      <c r="B143" t="s">
+        <v>414</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
-        <v/>
+        <v>Null PDU</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="str">
         <f>IF(En!A144&lt;&gt;0,En!A144,"")</f>
-        <v/>
+        <v>chat_sms_radio_off</v>
+      </c>
+      <c r="B144" t="s">
+        <v>416</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
-        <v/>
+        <v>Radio off</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="str">
         <f>IF(En!A145&lt;&gt;0,En!A145,"")</f>
-        <v/>
+        <v>chat_sms_delivered</v>
+      </c>
+      <c r="B145" t="s">
+        <v>417</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
-        <v/>
+        <v>SMS delivered</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="str">
         <f>IF(En!A146&lt;&gt;0,En!A146,"")</f>
-        <v/>
+        <v>chat_sms_not_delivered</v>
+      </c>
+      <c r="B146" t="s">
+        <v>418</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
-        <v/>
+        <v>SMS not delivered</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="str">
         <f>IF(En!A147&lt;&gt;0,En!A147,"")</f>
-        <v/>
+        <v>chat_log_failed</v>
+      </c>
+      <c r="B147" t="s">
+        <v>419</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
-        <v/>
+        <v>Failed to get log message</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="str">
         <f>IF(En!A148&lt;&gt;0,En!A148,"")</f>
-        <v/>
+        <v>chat_log_unavailable</v>
+      </c>
+      <c r="B148" t="s">
+        <v>420</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
-        <v/>
+        <v>Unavailable</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="str">
         <f>IF(En!A149&lt;&gt;0,En!A149,"")</f>
-        <v/>
+        <v>chat_geo_accuracy</v>
+      </c>
+      <c r="B149" t="s">
+        <v>441</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
-        <v/>
+        <v>accuracy: %fm&amp;#xA0;</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="str">
         <f>IF(En!A150&lt;&gt;0,En!A150,"")</f>
-        <v/>
+        <v>chat_geo_altitude</v>
+      </c>
+      <c r="B150" t="s">
+        <v>440</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
-        <v/>
+        <v>altitude: %f&amp;#xA0;</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="str">
         <f>IF(En!A151&lt;&gt;0,En!A151,"")</f>
-        <v/>
+        <v>chat_geo_speed</v>
+      </c>
+      <c r="B151" t="s">
+        <v>439</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
-        <v/>
+        <v>speed: %fm/s&amp;#xA0;</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="str">
         <f>IF(En!A152&lt;&gt;0,En!A152,"")</f>
-        <v/>
+        <v>chat_geo_provider</v>
+      </c>
+      <c r="B152" t="s">
+        <v>421</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
-        <v/>
+        <v>provider: %s</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -7524,8 +8893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:E79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E152" sqref="A1:E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7533,7 +8902,7 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9276,1609 +10645,1609 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="e">
+      <c r="A80" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B80" t="e">
-        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C80" t="e">
+        <v xml:space="preserve">    &lt;string name="</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IF(En!A80&lt;&gt;0,En!A80,"")</f>
+        <v>about_website</v>
+      </c>
+      <c r="C80" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>"&gt;</v>
       </c>
       <c r="D80" t="str">
         <f>IF(En!B80&lt;&gt;0,En!B80,"")</f>
         <v>Website</v>
       </c>
-      <c r="E80" t="e">
+      <c r="E80" t="str">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" t="e">
+      <c r="A81" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B81" t="e">
-        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C81" t="e">
+        <v xml:space="preserve">    &lt;string name="</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IF(En!A81&lt;&gt;0,En!A81,"")</f>
+        <v>about_authors</v>
+      </c>
+      <c r="C81" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>"&gt;</v>
       </c>
       <c r="D81" t="str">
         <f>IF(En!B81&lt;&gt;0,En!B81,"")</f>
         <v>Authors</v>
       </c>
-      <c r="E81" t="e">
+      <c r="E81" t="str">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" t="e">
+      <c r="A82" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B82" t="e">
-        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C82" t="e">
+        <v xml:space="preserve">    &lt;string name="</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IF(En!A82&lt;&gt;0,En!A82,"")</f>
+        <v>about_donors</v>
+      </c>
+      <c r="C82" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>"&gt;</v>
       </c>
       <c r="D82" t="str">
         <f>IF(En!B82&lt;&gt;0,En!B82,"")</f>
         <v>Donors</v>
       </c>
-      <c r="E82" t="e">
+      <c r="E82" t="str">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" t="e">
+      <c r="A83" t="str">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B83" t="e">
-        <f>IF(En!#REF!&lt;&gt;0,En!#REF!,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C83" t="e">
+        <v xml:space="preserve">    &lt;string name="</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IF(En!A83&lt;&gt;0,En!A83,"")</f>
+        <v>about_change_log</v>
+      </c>
+      <c r="C83" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>"&gt;</v>
       </c>
       <c r="D83" t="str">
         <f>IF(En!B83&lt;&gt;0,En!B83,"")</f>
         <v>Change Log</v>
       </c>
-      <c r="E83" t="e">
+      <c r="E83" t="str">
         <f t="shared" si="5"/>
-        <v>#REF!</v>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B84" t="str">
         <f>IF(En!A84&lt;&gt;0,En!A84,"")</f>
-        <v/>
+        <v>chat_sms_from</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D84" t="str">
         <f>IF(En!B84&lt;&gt;0,En!B84,"")</f>
-        <v/>
+        <v xml:space="preserve">SMS from %s: </v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B85" t="str">
         <f>IF(En!A85&lt;&gt;0,En!A85,"")</f>
-        <v/>
+        <v>chat_battery_level</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D85" t="str">
         <f>IF(En!B85&lt;&gt;0,En!B85,"")</f>
-        <v/>
+        <v>Battery level %d%%</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B86" t="str">
         <f>IF(En!A86&lt;&gt;0,En!A86,"")</f>
-        <v/>
+        <v>chat_error_no_recipient</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D86" t="str">
         <f>IF(En!B86&lt;&gt;0,En!B86,"")</f>
-        <v/>
+        <v>Reply contact is not set.</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B87" t="str">
         <f>IF(En!A87&lt;&gt;0,En!A87,"")</f>
-        <v/>
+        <v>chat_error_unknown_cmd</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
-        <v/>
+        <v>\'%s\': unknown command. Send \"?\" for getting help.</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B88" t="str">
         <f>IF(En!A88&lt;&gt;0,En!A88,"")</f>
-        <v/>
+        <v>chat_error</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
-        <v/>
+        <v>Error: %s</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B89" t="str">
         <f>IF(En!A89&lt;&gt;0,En!A89,"")</f>
-        <v/>
+        <v>chat_error_root</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
-        <v/>
+        <v>Can\'t have root acess!</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B90" t="str">
         <f>IF(En!A90&lt;&gt;0,En!A90,"")</f>
-        <v/>
+        <v>chat_reply_contact</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
-        <v/>
+        <v>Reply contact is %s</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B91" t="str">
         <f>IF(En!A91&lt;&gt;0,En!A91,"")</f>
-        <v/>
+        <v>chat_start_locating</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
-        <v/>
+        <v>Start locating phone</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B92" t="str">
         <f>IF(En!A92&lt;&gt;0,En!A92,"")</f>
-        <v/>
+        <v>chat_start_ringing</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
-        <v/>
+        <v>Ringing phone</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B93" t="str">
         <f>IF(En!A93&lt;&gt;0,En!A93,"")</f>
-        <v/>
+        <v>chat_error_ringing</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
-        <v/>
+        <v>Unable to ring, change the ringtone in the options</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B94" t="str">
         <f>IF(En!A94&lt;&gt;0,En!A94,"")</f>
-        <v/>
+        <v>chat_stop_actions</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
-        <v/>
+        <v>Stopping ongoing actions</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B95" t="str">
         <f>IF(En!A95&lt;&gt;0,En!A95,"")</f>
-        <v/>
+        <v>chat_send_sms</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
-        <v/>
+        <v>Sending sms to %s</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B96" t="str">
         <f>IF(En!A96&lt;&gt;0,En!A96,"")</f>
-        <v/>
+        <v>chat_specify_details</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
-        <v/>
+        <v>Specify more details:</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B97" t="str">
         <f>IF(En!A97&lt;&gt;0,En!A97,"")</f>
-        <v/>
+        <v>chat_no_match_for</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
-        <v/>
+        <v>No match for \"%s\"</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B98" t="str">
         <f>IF(En!A98&lt;&gt;0,En!A98,"")</f>
-        <v/>
+        <v>chat_mark_as_read</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
-        <v/>
+        <v>Mark %s\'s sms as read</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B99" t="str">
         <f>IF(En!A99&lt;&gt;0,En!A99,"")</f>
-        <v/>
+        <v>chat_only_got_n_sms</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
-        <v/>
+        <v>Only got %d sms</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B100" t="str">
         <f>IF(En!A100&lt;&gt;0,En!A100,"")</f>
-        <v/>
+        <v>chat_no_sms</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
-        <v/>
+        <v>No sms found</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B101" t="str">
         <f>IF(En!A101&lt;&gt;0,En!A101,"")</f>
-        <v/>
+        <v>chat_no_call</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
-        <v/>
+        <v>No phone call found</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B102" t="str">
         <f>IF(En!A102&lt;&gt;0,En!A102,"")</f>
-        <v/>
+        <v>chat_contact_found</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
-        <v/>
+        <v>%1$d contacts found for \"%2$s\"</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B103" t="str">
         <f>IF(En!A103&lt;&gt;0,En!A103,"")</f>
-        <v/>
+        <v>chat_phones</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
-        <v/>
+        <v>Phones</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B104" t="str">
         <f>IF(En!A104&lt;&gt;0,En!A104,"")</f>
-        <v/>
+        <v>chat_emails</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D104" t="str">
         <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
-        <v/>
+        <v>Emails</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B105" t="str">
         <f>IF(En!A105&lt;&gt;0,En!A105,"")</f>
-        <v/>
+        <v>chat_addresses</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
-        <v/>
+        <v>Addresses</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B106" t="str">
         <f>IF(En!A106&lt;&gt;0,En!A106,"")</f>
-        <v/>
+        <v>chat_text_copied</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
-        <v/>
+        <v>Text copied</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B107" t="str">
         <f>IF(En!A107&lt;&gt;0,En!A107,"")</f>
-        <v/>
+        <v>chat_error_clipboard</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
-        <v/>
+        <v>Clipboard access failed</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B108" t="str">
         <f>IF(En!A108&lt;&gt;0,En!A108,"")</f>
-        <v/>
+        <v>chat_clipboard</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
-        <v/>
+        <v>GPhone clipboard: %s</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B109" t="str">
         <f>IF(En!A109&lt;&gt;0,En!A109,"")</f>
-        <v/>
+        <v>chat_choose_activity</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
-        <v/>
+        <v>GTalkSMS: choose an activity</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B110" t="str">
         <f>IF(En!A110&lt;&gt;0,En!A110,"")</f>
-        <v/>
+        <v>chat_dial</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
-        <v/>
+        <v>Dial %s</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B111" t="str">
         <f>IF(En!A111&lt;&gt;0,En!A111,"")</f>
-        <v/>
+        <v>chat_error_dial</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
-        <v/>
+        <v>Error can\'t dial.</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B112" t="str">
         <f>IF(En!A112&lt;&gt;0,En!A112,"")</f>
-        <v/>
+        <v>chat_help_title</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
-        <v/>
+        <v>Available commands:</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B113" t="str">
         <f>IF(En!A113&lt;&gt;0,En!A113,"")</f>
-        <v/>
+        <v>chat_help_help</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
-        <v/>
+        <v>- %s: shows this help.</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B114" t="str">
         <f>IF(En!A114&lt;&gt;0,En!A114,"")</f>
-        <v/>
+        <v>chat_help_stop</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
-        <v/>
+        <v>- %s: stop application on your phone.</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B115" t="str">
         <f>IF(En!A115&lt;&gt;0,En!A115,"")</f>
-        <v/>
+        <v>chat_help_dial</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
-        <v/>
+        <v>- %s: dial the specified contact.</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B116" t="str">
         <f>IF(En!A116&lt;&gt;0,En!A116,"")</f>
-        <v/>
+        <v>chat_help_sms_reply</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
-        <v/>
+        <v>- %s: send a sms to your last recipient with content message.</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B117" t="str">
         <f>IF(En!A117&lt;&gt;0,En!A117,"")</f>
-        <v/>
+        <v>chat_help_sms_show_all</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
-        <v/>
+        <v>- %s: display last sent sms from all contact.</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B118" t="str">
         <f>IF(En!A118&lt;&gt;0,En!A118,"")</f>
-        <v/>
+        <v>chat_help_sms_show_contact</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
-        <v/>
+        <v>- %s: display last sent sms from searched contacts.</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B119" t="str">
         <f>IF(En!A119&lt;&gt;0,En!A119,"")</f>
-        <v/>
+        <v>chat_help_sms_send</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
-        <v/>
+        <v>- %s: sends a sms to number with content message.</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B120" t="str">
         <f>IF(En!A120&lt;&gt;0,En!A120,"")</f>
-        <v/>
+        <v>chat_help_mark_as_read</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: mark sms as read for last recipient or given contact.</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B121" t="str">
         <f>IF(En!A121&lt;&gt;0,En!A121,"")</f>
-        <v/>
+        <v>chat_help_battery</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: show battery level in percent.</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B122" t="str">
         <f>IF(En!A122&lt;&gt;0,En!A122,"")</f>
-        <v/>
+        <v>chat_help_calls</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
-        <v/>
+        <v>- %s: display call log.</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B123" t="str">
         <f>IF(En!A123&lt;&gt;0,En!A123,"")</f>
-        <v/>
+        <v>chat_help_contact</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
-        <v/>
+        <v>- %s: display informations of a searched contact.</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B124" t="str">
         <f>IF(En!A124&lt;&gt;0,En!A124,"")</f>
-        <v/>
+        <v>chat_help_geo</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
-        <v/>
+        <v>- %s: Open Maps or Navigation or Street view on specific address.</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B125" t="str">
         <f>IF(En!A125&lt;&gt;0,En!A125,"")</f>
-        <v/>
+        <v>chat_help_where</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
-        <v/>
+        <v>- %s: sends you google map updates about the location of the phone until you send \"stop\".</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B126" t="str">
         <f>IF(En!A126&lt;&gt;0,En!A126,"")</f>
-        <v/>
+        <v>chat_help_ring</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
-        <v/>
+        <v>- %s: rings the phone until you send \"stop\".</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B127" t="str">
         <f>IF(En!A127&lt;&gt;0,En!A127,"")</f>
-        <v/>
+        <v>chat_help_copy</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
-        <v/>
+        <v>- %s: copy text to clipboard or sent phone clipboard if text is empty.</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B128" t="str">
         <f>IF(En!A128&lt;&gt;0,En!A128,"")</f>
-        <v/>
+        <v>chat_help_cmd</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
-        <v/>
+        <v>- %s: execute shell instuction with root access if possible.</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B129" t="str">
         <f>IF(En!A129&lt;&gt;0,En!A129,"")</f>
-        <v/>
+        <v>chat_help_write</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: write text as virtual keyboard (don\'t forget to activate keyboard in Android Preferences panel).</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="6">IF(B130&lt;&gt;"","    &lt;string name=""","")</f>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B130" t="str">
         <f>IF(En!A130&lt;&gt;0,En!A130,"")</f>
-        <v/>
+        <v>chat_help_urls</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="7">IF(B130&lt;&gt;"","""&gt;","")</f>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
-        <v/>
+        <v>and you can paste links and open it with the appropriate application.</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ref="E130:E193" si="8">IF(B130&lt;&gt;"","&lt;/string&gt;","")</f>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B131" t="str">
         <f>IF(En!A131&lt;&gt;0,En!A131,"")</f>
-        <v/>
+        <v>chat_call_unknown</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
-        <v/>
+        <v>Unknown</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B132" t="str">
         <f>IF(En!A132&lt;&gt;0,En!A132,"")</f>
-        <v/>
+        <v>chat_call_incoming</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
-        <v/>
+        <v>Incoming</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B133" t="str">
         <f>IF(En!A133&lt;&gt;0,En!A133,"")</f>
-        <v/>
+        <v>chat_call_outgoing</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
-        <v/>
+        <v>Outgoing</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B134" t="str">
         <f>IF(En!A134&lt;&gt;0,En!A134,"")</f>
-        <v/>
+        <v>chat_call_missed</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
-        <v/>
+        <v>Missed</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B135" t="str">
         <f>IF(En!A135&lt;&gt;0,En!A135,"")</f>
-        <v/>
+        <v>chat_call_duration</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
-        <v/>
+        <v>&amp;#xA0;of&amp;#xA0;</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B136" t="str">
         <f>IF(En!A136&lt;&gt;0,En!A136,"")</f>
-        <v/>
+        <v>chat_welcome</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
-        <v/>
+        <v>Welcome to GTalkSMS %s. Send \"?\" for getting help.</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B137" t="str">
         <f>IF(En!A137&lt;&gt;0,En!A137,"")</f>
-        <v/>
+        <v>chat_app_stop</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
-        <v/>
+        <v>GTalkSMS stopped.</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B138" t="str">
         <f>IF(En!A138&lt;&gt;0,En!A138,"")</f>
-        <v/>
+        <v>chat_is_calling</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
-        <v/>
+        <v>%s is calling…</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B139" t="str">
         <f>IF(En!A139&lt;&gt;0,En!A139,"")</f>
-        <v/>
+        <v>chat_call_hidden</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
-        <v/>
+        <v>[hidden number]</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B140" t="str">
         <f>IF(En!A140&lt;&gt;0,En!A140,"")</f>
-        <v/>
+        <v>chat_sms_sent</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
-        <v/>
+        <v>SMS sent</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B141" t="str">
         <f>IF(En!A141&lt;&gt;0,En!A141,"")</f>
-        <v/>
+        <v>chat_sms_failure</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
-        <v/>
+        <v>Generic failure</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B142" t="str">
         <f>IF(En!A142&lt;&gt;0,En!A142,"")</f>
-        <v/>
+        <v>chat_sms_no_service</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
-        <v/>
+        <v>No service</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B143" t="str">
         <f>IF(En!A143&lt;&gt;0,En!A143,"")</f>
-        <v/>
+        <v>chat_sms_null_pdu</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
-        <v/>
+        <v>Null PDU</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B144" t="str">
         <f>IF(En!A144&lt;&gt;0,En!A144,"")</f>
-        <v/>
+        <v>chat_sms_radio_off</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
-        <v/>
+        <v>Radio off</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B145" t="str">
         <f>IF(En!A145&lt;&gt;0,En!A145,"")</f>
-        <v/>
+        <v>chat_sms_delivered</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
-        <v/>
+        <v>SMS delivered</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B146" t="str">
         <f>IF(En!A146&lt;&gt;0,En!A146,"")</f>
-        <v/>
+        <v>chat_sms_not_delivered</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
-        <v/>
+        <v>SMS not delivered</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B147" t="str">
         <f>IF(En!A147&lt;&gt;0,En!A147,"")</f>
-        <v/>
+        <v>chat_log_failed</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
-        <v/>
+        <v>Failed to get log message</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B148" t="str">
         <f>IF(En!A148&lt;&gt;0,En!A148,"")</f>
-        <v/>
+        <v>chat_log_unavailable</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
-        <v/>
+        <v>Unavailable</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B149" t="str">
         <f>IF(En!A149&lt;&gt;0,En!A149,"")</f>
-        <v/>
+        <v>chat_geo_accuracy</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
-        <v/>
+        <v>accuracy: %fm&amp;#xA0;</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B150" t="str">
         <f>IF(En!A150&lt;&gt;0,En!A150,"")</f>
-        <v/>
+        <v>chat_geo_altitude</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
-        <v/>
+        <v>altitude: %f&amp;#xA0;</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B151" t="str">
         <f>IF(En!A151&lt;&gt;0,En!A151,"")</f>
-        <v/>
+        <v>chat_geo_speed</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
-        <v/>
+        <v>speed: %fm/s&amp;#xA0;</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B152" t="str">
         <f>IF(En!A152&lt;&gt;0,En!A152,"")</f>
-        <v/>
+        <v>chat_geo_provider</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
-        <v/>
+        <v>provider: %s</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -18414,8 +19783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20256,1519 +21625,1519 @@
     <row r="84" spans="1:5">
       <c r="A84" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B84" t="str">
         <f>IF(Fr!A84&lt;&gt;0,Fr!A84,"")</f>
-        <v/>
+        <v>chat_sms_from</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D84" t="str">
         <f>IF(Fr!B84&lt;&gt;0,Fr!B84,"")</f>
-        <v/>
+        <v>SMS de %s :</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B85" t="str">
         <f>IF(Fr!A85&lt;&gt;0,Fr!A85,"")</f>
-        <v/>
+        <v>chat_battery_level</v>
       </c>
       <c r="C85" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D85" t="str">
         <f>IF(Fr!B85&lt;&gt;0,Fr!B85,"")</f>
-        <v/>
+        <v>Batterie à %d%%</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B86" t="str">
         <f>IF(Fr!A86&lt;&gt;0,Fr!A86,"")</f>
-        <v/>
+        <v>chat_error_no_recipient</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D86" t="str">
         <f>IF(Fr!B86&lt;&gt;0,Fr!B86,"")</f>
-        <v/>
+        <v>Destinataire non défini.</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B87" t="str">
         <f>IF(Fr!A87&lt;&gt;0,Fr!A87,"")</f>
-        <v/>
+        <v>chat_error_unknown_cmd</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D87" t="str">
         <f>IF(Fr!B87&lt;&gt;0,Fr!B87,"")</f>
-        <v/>
+        <v>\'%s\' : commande inconnue. Envoyer \"?\" afficher l\'aide.</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B88" t="str">
         <f>IF(Fr!A88&lt;&gt;0,Fr!A88,"")</f>
-        <v/>
+        <v>chat_error</v>
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D88" t="str">
         <f>IF(Fr!B88&lt;&gt;0,Fr!B88,"")</f>
-        <v/>
+        <v>Erreur : %s</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B89" t="str">
         <f>IF(Fr!A89&lt;&gt;0,Fr!A89,"")</f>
-        <v/>
+        <v>chat_error_root</v>
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D89" t="str">
         <f>IF(Fr!B89&lt;&gt;0,Fr!B89,"")</f>
-        <v/>
+        <v>Impossible d\'avoir l\'accès super administrateur !</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B90" t="str">
         <f>IF(Fr!A90&lt;&gt;0,Fr!A90,"")</f>
-        <v/>
+        <v>chat_reply_contact</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D90" t="str">
         <f>IF(Fr!B90&lt;&gt;0,Fr!B90,"")</f>
-        <v/>
+        <v>Le destinataire par défaut est %s</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B91" t="str">
         <f>IF(Fr!A91&lt;&gt;0,Fr!A91,"")</f>
-        <v/>
+        <v>chat_start_locating</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D91" t="str">
         <f>IF(Fr!B91&lt;&gt;0,Fr!B91,"")</f>
-        <v/>
+        <v>Démarrer la localisation du téléphone</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B92" t="str">
         <f>IF(Fr!A92&lt;&gt;0,Fr!A92,"")</f>
-        <v/>
+        <v>chat_start_ringing</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D92" t="str">
         <f>IF(Fr!B92&lt;&gt;0,Fr!B92,"")</f>
-        <v/>
+        <v>Faire sonner le téléphone</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B93" t="str">
         <f>IF(Fr!A93&lt;&gt;0,Fr!A93,"")</f>
-        <v/>
+        <v>chat_error_ringing</v>
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D93" t="str">
         <f>IF(Fr!B93&lt;&gt;0,Fr!B93,"")</f>
-        <v/>
+        <v>Impossible de faire sonner le téléphone, vérifier les paramètres.</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B94" t="str">
         <f>IF(Fr!A94&lt;&gt;0,Fr!A94,"")</f>
-        <v/>
+        <v>chat_stop_actions</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D94" t="str">
         <f>IF(Fr!B94&lt;&gt;0,Fr!B94,"")</f>
-        <v/>
+        <v>Stopper les actions en cours.</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B95" t="str">
         <f>IF(Fr!A95&lt;&gt;0,Fr!A95,"")</f>
-        <v/>
+        <v>chat_send_sms</v>
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D95" t="str">
         <f>IF(Fr!B95&lt;&gt;0,Fr!B95,"")</f>
-        <v/>
+        <v>Envoi d\'un SMS à %s</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B96" t="str">
         <f>IF(Fr!A96&lt;&gt;0,Fr!A96,"")</f>
-        <v/>
+        <v>chat_specify_details</v>
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D96" t="str">
         <f>IF(Fr!B96&lt;&gt;0,Fr!B96,"")</f>
-        <v/>
+        <v>Spécifier plus de détails :</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B97" t="str">
         <f>IF(Fr!A97&lt;&gt;0,Fr!A97,"")</f>
-        <v/>
+        <v>chat_no_match_for</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D97" t="str">
         <f>IF(Fr!B97&lt;&gt;0,Fr!B97,"")</f>
-        <v/>
+        <v>Aucun résultat pour \"%s\"</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B98" t="str">
         <f>IF(Fr!A98&lt;&gt;0,Fr!A98,"")</f>
-        <v/>
+        <v>chat_mark_as_read</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D98" t="str">
         <f>IF(Fr!B98&lt;&gt;0,Fr!B98,"")</f>
-        <v/>
+        <v>Marquer les messages de %s comme lus.</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B99" t="str">
         <f>IF(Fr!A99&lt;&gt;0,Fr!A99,"")</f>
-        <v/>
+        <v>chat_only_got_n_sms</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D99" t="str">
         <f>IF(Fr!B99&lt;&gt;0,Fr!B99,"")</f>
-        <v/>
+        <v>Seulement %d SMS</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B100" t="str">
         <f>IF(Fr!A100&lt;&gt;0,Fr!A100,"")</f>
-        <v/>
+        <v>chat_no_sms</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D100" t="str">
         <f>IF(Fr!B100&lt;&gt;0,Fr!B100,"")</f>
-        <v/>
+        <v>Aucun SMS trouvé</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B101" t="str">
         <f>IF(Fr!A101&lt;&gt;0,Fr!A101,"")</f>
-        <v/>
+        <v>chat_no_call</v>
       </c>
       <c r="C101" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D101" t="str">
         <f>IF(Fr!B101&lt;&gt;0,Fr!B101,"")</f>
-        <v/>
+        <v>Aucun appel téléphonique trouvé</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B102" t="str">
         <f>IF(Fr!A102&lt;&gt;0,Fr!A102,"")</f>
-        <v/>
+        <v>chat_contact_found</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D102" t="str">
         <f>IF(Fr!B102&lt;&gt;0,Fr!B102,"")</f>
-        <v/>
+        <v>%1$d contacts trouvés pour \"%2$s\"</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B103" t="str">
         <f>IF(Fr!A103&lt;&gt;0,Fr!A103,"")</f>
-        <v/>
+        <v>chat_phones</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D103" t="str">
         <f>IF(Fr!B103&lt;&gt;0,Fr!B103,"")</f>
-        <v/>
+        <v>Téléphones</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B104" t="str">
         <f>IF(Fr!A104&lt;&gt;0,Fr!A104,"")</f>
-        <v/>
+        <v>chat_emails</v>
       </c>
       <c r="C104" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D104" t="str">
         <f>IF(Fr!B104&lt;&gt;0,Fr!B104,"")</f>
-        <v/>
+        <v>Emails</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B105" t="str">
         <f>IF(Fr!A105&lt;&gt;0,Fr!A105,"")</f>
-        <v/>
+        <v>chat_addresses</v>
       </c>
       <c r="C105" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D105" t="str">
         <f>IF(Fr!B105&lt;&gt;0,Fr!B105,"")</f>
-        <v/>
+        <v>Adresses</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B106" t="str">
         <f>IF(Fr!A106&lt;&gt;0,Fr!A106,"")</f>
-        <v/>
+        <v>chat_text_copied</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D106" t="str">
         <f>IF(Fr!B106&lt;&gt;0,Fr!B106,"")</f>
-        <v/>
+        <v>Texte copié</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B107" t="str">
         <f>IF(Fr!A107&lt;&gt;0,Fr!A107,"")</f>
-        <v/>
+        <v>chat_error_clipboard</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D107" t="str">
         <f>IF(Fr!B107&lt;&gt;0,Fr!B107,"")</f>
-        <v/>
+        <v>Accès au presse-papier impossible</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B108" t="str">
         <f>IF(Fr!A108&lt;&gt;0,Fr!A108,"")</f>
-        <v/>
+        <v>chat_clipboard</v>
       </c>
       <c r="C108" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D108" t="str">
         <f>IF(Fr!B108&lt;&gt;0,Fr!B108,"")</f>
-        <v/>
+        <v>Presse-papier du téléphone : %s</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B109" t="str">
         <f>IF(Fr!A109&lt;&gt;0,Fr!A109,"")</f>
-        <v/>
+        <v>chat_choose_activity</v>
       </c>
       <c r="C109" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D109" t="str">
         <f>IF(Fr!B109&lt;&gt;0,Fr!B109,"")</f>
-        <v/>
+        <v>GTalkSMS : choisir l\'application</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B110" t="str">
         <f>IF(Fr!A110&lt;&gt;0,Fr!A110,"")</f>
-        <v/>
+        <v>chat_dial</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D110" t="str">
         <f>IF(Fr!B110&lt;&gt;0,Fr!B110,"")</f>
-        <v/>
+        <v>Composer %s</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B111" t="str">
         <f>IF(Fr!A111&lt;&gt;0,Fr!A111,"")</f>
-        <v/>
+        <v>chat_error_dial</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D111" t="str">
         <f>IF(Fr!B111&lt;&gt;0,Fr!B111,"")</f>
-        <v/>
+        <v>Erreur, impossible de composer le numéro.</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B112" t="str">
         <f>IF(Fr!A112&lt;&gt;0,Fr!A112,"")</f>
-        <v/>
+        <v>chat_help_title</v>
       </c>
       <c r="C112" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D112" t="str">
         <f>IF(Fr!B112&lt;&gt;0,Fr!B112,"")</f>
-        <v/>
+        <v>Commandes disponibles :</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B113" t="str">
         <f>IF(Fr!A113&lt;&gt;0,Fr!A113,"")</f>
-        <v/>
+        <v>chat_help_help</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D113" t="str">
         <f>IF(Fr!B113&lt;&gt;0,Fr!B113,"")</f>
-        <v/>
+        <v>- %s: afficher cette aide.</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B114" t="str">
         <f>IF(Fr!A114&lt;&gt;0,Fr!A114,"")</f>
-        <v/>
+        <v>chat_help_stop</v>
       </c>
       <c r="C114" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D114" t="str">
         <f>IF(Fr!B114&lt;&gt;0,Fr!B114,"")</f>
-        <v/>
+        <v>- %s: stopper l\'application sur le téléphone.</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B115" t="str">
         <f>IF(Fr!A115&lt;&gt;0,Fr!A115,"")</f>
-        <v/>
+        <v>chat_help_dial</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D115" t="str">
         <f>IF(Fr!B115&lt;&gt;0,Fr!B115,"")</f>
-        <v/>
+        <v>- %s: composer le numéro du contact spécifié.</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B116" t="str">
         <f>IF(Fr!A116&lt;&gt;0,Fr!A116,"")</f>
-        <v/>
+        <v>chat_help_sms_reply</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D116" t="str">
         <f>IF(Fr!B116&lt;&gt;0,Fr!B116,"")</f>
-        <v/>
+        <v>- %s: envoyer un SMS au dernier destinataire entrant ou sortant.</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B117" t="str">
         <f>IF(Fr!A117&lt;&gt;0,Fr!A117,"")</f>
-        <v/>
+        <v>chat_help_sms_show_all</v>
       </c>
       <c r="C117" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D117" t="str">
         <f>IF(Fr!B117&lt;&gt;0,Fr!B117,"")</f>
-        <v/>
+        <v>- %s: afficher les SMS de tous les contacts.</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B118" t="str">
         <f>IF(Fr!A118&lt;&gt;0,Fr!A118,"")</f>
-        <v/>
+        <v>chat_help_sms_show_contact</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D118" t="str">
         <f>IF(Fr!B118&lt;&gt;0,Fr!B118,"")</f>
-        <v/>
+        <v>- %s: afficher les SMS des contacts spécifiés.</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B119" t="str">
         <f>IF(Fr!A119&lt;&gt;0,Fr!A119,"")</f>
-        <v/>
+        <v>chat_help_sms_send</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D119" t="str">
         <f>IF(Fr!B119&lt;&gt;0,Fr!B119,"")</f>
-        <v/>
+        <v>- %s: envoyer un SMS au contact/numéro spécifié.</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B120" t="str">
         <f>IF(Fr!A120&lt;&gt;0,Fr!A120,"")</f>
-        <v/>
+        <v>chat_help_mark_as_read</v>
       </c>
       <c r="C120" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D120" t="str">
         <f>IF(Fr!B120&lt;&gt;0,Fr!B120,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: marquer comme lu les SMS du dernier destinataire ou du contact spécifié.</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B121" t="str">
         <f>IF(Fr!A121&lt;&gt;0,Fr!A121,"")</f>
-        <v/>
+        <v>chat_help_battery</v>
       </c>
       <c r="C121" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D121" t="str">
         <f>IF(Fr!B121&lt;&gt;0,Fr!B121,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: afficher l\'état de la batterie.</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B122" t="str">
         <f>IF(Fr!A122&lt;&gt;0,Fr!A122,"")</f>
-        <v/>
+        <v>chat_help_calls</v>
       </c>
       <c r="C122" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D122" t="str">
         <f>IF(Fr!B122&lt;&gt;0,Fr!B122,"")</f>
-        <v/>
+        <v>- %s: afficher l\'historique d\'appels.</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B123" t="str">
         <f>IF(Fr!A123&lt;&gt;0,Fr!A123,"")</f>
-        <v/>
+        <v>chat_help_contact</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D123" t="str">
         <f>IF(Fr!B123&lt;&gt;0,Fr!B123,"")</f>
-        <v/>
+        <v>- %s: afficher les informations des contacts spécifiés.</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B124" t="str">
         <f>IF(Fr!A124&lt;&gt;0,Fr!A124,"")</f>
-        <v/>
+        <v>chat_help_geo</v>
       </c>
       <c r="C124" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D124" t="str">
         <f>IF(Fr!B124&lt;&gt;0,Fr!B124,"")</f>
-        <v/>
+        <v>- %s: ouvrir Gmap, Navigtion ou Street View pour l\'adresse spécifiée.</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B125" t="str">
         <f>IF(Fr!A125&lt;&gt;0,Fr!A125,"")</f>
-        <v/>
+        <v>chat_help_where</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D125" t="str">
         <f>IF(Fr!B125&lt;&gt;0,Fr!B125,"")</f>
-        <v/>
+        <v>- %s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande \"stop\".</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B126" t="str">
         <f>IF(Fr!A126&lt;&gt;0,Fr!A126,"")</f>
-        <v/>
+        <v>chat_help_ring</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D126" t="str">
         <f>IF(Fr!B126&lt;&gt;0,Fr!B126,"")</f>
-        <v/>
+        <v>- %s: faire sonner le téléphone jusqu\'à l\'envoie de la commande \"stop\".</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B127" t="str">
         <f>IF(Fr!A127&lt;&gt;0,Fr!A127,"")</f>
-        <v/>
+        <v>chat_help_copy</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D127" t="str">
         <f>IF(Fr!B127&lt;&gt;0,Fr!B127,"")</f>
-        <v/>
+        <v>- %s: copier le texte dans le presse-papier du téléphone ou récupérer celui du téléphone si vide.</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B128" t="str">
         <f>IF(Fr!A128&lt;&gt;0,Fr!A128,"")</f>
-        <v/>
+        <v>chat_help_cmd</v>
       </c>
       <c r="C128" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D128" t="str">
         <f>IF(Fr!B128&lt;&gt;0,Fr!B128,"")</f>
-        <v/>
+        <v>- %s: exécuter une commande shell avec les droits super administrateur si possible.</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B129" t="str">
         <f>IF(Fr!A129&lt;&gt;0,Fr!A129,"")</f>
-        <v/>
+        <v>chat_help_write</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D129" t="str">
         <f>IF(Fr!B129&lt;&gt;0,Fr!B129,"")</f>
-        <v/>
+        <v>- %1$s or %2$s: écrit le texte comme un clavier virtuel dans les autres applications (Ne pas oublier d\'activer le clavier GTalkSMS dans les paramètres d\'Android).</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="str">
         <f t="shared" ref="A130:A193" si="6">IF(B130&lt;&gt;"","    &lt;string name=""","")</f>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B130" t="str">
         <f>IF(Fr!A130&lt;&gt;0,Fr!A130,"")</f>
-        <v/>
+        <v>chat_help_urls</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" ref="C130:C193" si="7">IF(B130&lt;&gt;"","""&gt;","")</f>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D130" t="str">
         <f>IF(Fr!B130&lt;&gt;0,Fr!B130,"")</f>
-        <v/>
+        <v>et coller les liens http pour les ouvrir dans le navigateur du téléphone.</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ref="E130:E193" si="8">IF(B130&lt;&gt;"","&lt;/string&gt;","")</f>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B131" t="str">
         <f>IF(Fr!A131&lt;&gt;0,Fr!A131,"")</f>
-        <v/>
+        <v>chat_call_unknown</v>
       </c>
       <c r="C131" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D131" t="str">
         <f>IF(Fr!B131&lt;&gt;0,Fr!B131,"")</f>
-        <v/>
+        <v>Inconnu</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B132" t="str">
         <f>IF(Fr!A132&lt;&gt;0,Fr!A132,"")</f>
-        <v/>
+        <v>chat_call_incoming</v>
       </c>
       <c r="C132" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D132" t="str">
         <f>IF(Fr!B132&lt;&gt;0,Fr!B132,"")</f>
-        <v/>
+        <v>Entrant</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B133" t="str">
         <f>IF(Fr!A133&lt;&gt;0,Fr!A133,"")</f>
-        <v/>
+        <v>chat_call_outgoing</v>
       </c>
       <c r="C133" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D133" t="str">
         <f>IF(Fr!B133&lt;&gt;0,Fr!B133,"")</f>
-        <v/>
+        <v>Sortant</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B134" t="str">
         <f>IF(Fr!A134&lt;&gt;0,Fr!A134,"")</f>
-        <v/>
+        <v>chat_call_missed</v>
       </c>
       <c r="C134" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D134" t="str">
         <f>IF(Fr!B134&lt;&gt;0,Fr!B134,"")</f>
-        <v/>
+        <v>Manqué</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B135" t="str">
         <f>IF(Fr!A135&lt;&gt;0,Fr!A135,"")</f>
-        <v/>
+        <v>chat_call_duration</v>
       </c>
       <c r="C135" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D135" t="str">
         <f>IF(Fr!B135&lt;&gt;0,Fr!B135,"")</f>
-        <v/>
+        <v>&amp;#xA0;de&amp;#xA0;</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B136" t="str">
         <f>IF(Fr!A136&lt;&gt;0,Fr!A136,"")</f>
-        <v/>
+        <v>chat_welcome</v>
       </c>
       <c r="C136" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D136" t="str">
         <f>IF(Fr!B136&lt;&gt;0,Fr!B136,"")</f>
-        <v/>
+        <v>Bienvenue dans GTalkSMS %s. Envoyer \"?\" pour afficher l\'aide.</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B137" t="str">
         <f>IF(Fr!A137&lt;&gt;0,Fr!A137,"")</f>
-        <v/>
+        <v>chat_app_stop</v>
       </c>
       <c r="C137" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D137" t="str">
         <f>IF(Fr!B137&lt;&gt;0,Fr!B137,"")</f>
-        <v/>
+        <v>Arrêt de GTalkSMS.</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B138" t="str">
         <f>IF(Fr!A138&lt;&gt;0,Fr!A138,"")</f>
-        <v/>
+        <v>chat_is_calling</v>
       </c>
       <c r="C138" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D138" t="str">
         <f>IF(Fr!B138&lt;&gt;0,Fr!B138,"")</f>
-        <v/>
+        <v>Appel de %s…</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B139" t="str">
         <f>IF(Fr!A139&lt;&gt;0,Fr!A139,"")</f>
-        <v/>
+        <v>chat_call_hidden</v>
       </c>
       <c r="C139" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D139" t="str">
         <f>IF(Fr!B139&lt;&gt;0,Fr!B139,"")</f>
-        <v/>
+        <v>[Appel Masqué]</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B140" t="str">
         <f>IF(Fr!A140&lt;&gt;0,Fr!A140,"")</f>
-        <v/>
+        <v>chat_sms_sent</v>
       </c>
       <c r="C140" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D140" t="str">
         <f>IF(Fr!B140&lt;&gt;0,Fr!B140,"")</f>
-        <v/>
+        <v>SMS envoyé</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B141" t="str">
         <f>IF(Fr!A141&lt;&gt;0,Fr!A141,"")</f>
-        <v/>
+        <v>chat_sms_failure</v>
       </c>
       <c r="C141" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D141" t="str">
         <f>IF(Fr!B141&lt;&gt;0,Fr!B141,"")</f>
-        <v/>
+        <v>Erreur</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B142" t="str">
         <f>IF(Fr!A142&lt;&gt;0,Fr!A142,"")</f>
-        <v/>
+        <v>chat_sms_no_service</v>
       </c>
       <c r="C142" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D142" t="str">
         <f>IF(Fr!B142&lt;&gt;0,Fr!B142,"")</f>
-        <v/>
+        <v>Pas de service</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B143" t="str">
         <f>IF(Fr!A143&lt;&gt;0,Fr!A143,"")</f>
-        <v/>
+        <v>chat_sms_null_pdu</v>
       </c>
       <c r="C143" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D143" t="str">
         <f>IF(Fr!B143&lt;&gt;0,Fr!B143,"")</f>
-        <v/>
+        <v>Erreur</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B144" t="str">
         <f>IF(Fr!A144&lt;&gt;0,Fr!A144,"")</f>
-        <v/>
+        <v>chat_sms_radio_off</v>
       </c>
       <c r="C144" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D144" t="str">
         <f>IF(Fr!B144&lt;&gt;0,Fr!B144,"")</f>
-        <v/>
+        <v>Radio éteinte</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B145" t="str">
         <f>IF(Fr!A145&lt;&gt;0,Fr!A145,"")</f>
-        <v/>
+        <v>chat_sms_delivered</v>
       </c>
       <c r="C145" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D145" t="str">
         <f>IF(Fr!B145&lt;&gt;0,Fr!B145,"")</f>
-        <v/>
+        <v>SMS délivré</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B146" t="str">
         <f>IF(Fr!A146&lt;&gt;0,Fr!A146,"")</f>
-        <v/>
+        <v>chat_sms_not_delivered</v>
       </c>
       <c r="C146" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D146" t="str">
         <f>IF(Fr!B146&lt;&gt;0,Fr!B146,"")</f>
-        <v/>
+        <v>SMS non délivré</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B147" t="str">
         <f>IF(Fr!A147&lt;&gt;0,Fr!A147,"")</f>
-        <v/>
+        <v>chat_log_failed</v>
       </c>
       <c r="C147" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D147" t="str">
         <f>IF(Fr!B147&lt;&gt;0,Fr!B147,"")</f>
-        <v/>
+        <v>Erreur lors de la récupération des logs.</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B148" t="str">
         <f>IF(Fr!A148&lt;&gt;0,Fr!A148,"")</f>
-        <v/>
+        <v>chat_log_unavailable</v>
       </c>
       <c r="C148" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D148" t="str">
         <f>IF(Fr!B148&lt;&gt;0,Fr!B148,"")</f>
-        <v/>
+        <v>Non disponible</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B149" t="str">
         <f>IF(Fr!A149&lt;&gt;0,Fr!A149,"")</f>
-        <v/>
+        <v>chat_geo_accuracy</v>
       </c>
       <c r="C149" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D149" t="str">
         <f>IF(Fr!B149&lt;&gt;0,Fr!B149,"")</f>
-        <v/>
+        <v>Précision : %fm&amp;#xA0;</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B150" t="str">
         <f>IF(Fr!A150&lt;&gt;0,Fr!A150,"")</f>
-        <v/>
+        <v>chat_geo_altitude</v>
       </c>
       <c r="C150" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D150" t="str">
         <f>IF(Fr!B150&lt;&gt;0,Fr!B150,"")</f>
-        <v/>
+        <v>Altitude : %f&amp;#xA0;</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B151" t="str">
         <f>IF(Fr!A151&lt;&gt;0,Fr!A151,"")</f>
-        <v/>
+        <v>chat_geo_speed</v>
       </c>
       <c r="C151" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D151" t="str">
         <f>IF(Fr!B151&lt;&gt;0,Fr!B151,"")</f>
-        <v/>
+        <v>Vitesse : %fm/s&amp;#xA0;</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B152" t="str">
         <f>IF(Fr!A152&lt;&gt;0,Fr!A152,"")</f>
-        <v/>
+        <v>chat_geo_provider</v>
       </c>
       <c r="C152" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D152" t="str">
         <f>IF(Fr!B152&lt;&gt;0,Fr!B152,"")</f>
-        <v/>
+        <v>Source : %s</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:5">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -883,9 +883,6 @@
     <t>- %s: execute shell instuction with root access if possible.</t>
   </si>
   <si>
-    <t>and you can paste links and open it with the appropriate application.</t>
-  </si>
-  <si>
     <t>chat_start_locating</t>
   </si>
   <si>
@@ -1102,9 +1099,6 @@
     <t>- %s: exécuter une commande shell avec les droits super administrateur si possible.</t>
   </si>
   <si>
-    <t>et coller les liens http pour les ouvrir dans le navigateur du téléphone.</t>
-  </si>
-  <si>
     <t>Error can\'t dial.</t>
   </si>
   <si>
@@ -1291,12 +1285,6 @@
     <t>Bienvenue dans GTalkSMS %s. Envoyer \"?\" pour afficher l\'aide.</t>
   </si>
   <si>
-    <t>- %s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande \"stop\".</t>
-  </si>
-  <si>
-    <t>- %s: faire sonner le téléphone jusqu\'à l\'envoie de la commande \"stop\".</t>
-  </si>
-  <si>
     <t>%1$d contacts trouvés pour \"%2$s\"</t>
   </si>
   <si>
@@ -1309,12 +1297,6 @@
     <t>Welcome to GTalkSMS %s. Send \"?\" for getting help.</t>
   </si>
   <si>
-    <t>- %s: sends you google map updates about the location of the phone until you send \"stop\".</t>
-  </si>
-  <si>
-    <t>- %s: rings the phone until you send \"stop\".</t>
-  </si>
-  <si>
     <t>%1$d contacts found for \"%2$s\"</t>
   </si>
   <si>
@@ -1346,6 +1328,24 @@
   </si>
   <si>
     <t>&amp;#xA0;de&amp;#xA0;</t>
+  </si>
+  <si>
+    <t>- %1$s: rings the phone until you send %2$s.</t>
+  </si>
+  <si>
+    <t>- %1$s: sends you google map updates about the location of the phone until you send %2$s.</t>
+  </si>
+  <si>
+    <t>- %1$s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande %2$s.</t>
+  </si>
+  <si>
+    <t>- %1$s: faire sonner le téléphone jusqu\'à l\'envoie de la commande %2$s.</t>
+  </si>
+  <si>
+    <t>et coller les liens %s pour les ouvrir dans le navigateur du téléphone.</t>
+  </si>
+  <si>
+    <t>and you can paste %s links and open it with the appropriate application.</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2384,7 +2384,7 @@
         <v>247</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2400,7 +2400,7 @@
         <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2413,7 +2413,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
         <v>255</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" t="s">
         <v>256</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" t="s">
         <v>257</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
         <v>258</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
         <v>259</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B96" t="s">
         <v>260</v>
@@ -2461,15 +2461,15 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B98" t="s">
         <v>261</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
         <v>262</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
         <v>263</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
         <v>264</v>
@@ -2501,15 +2501,15 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B103" t="s">
         <v>265</v>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s">
         <v>266</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
         <v>267</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B106" t="s">
         <v>268</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
         <v>269</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
         <v>270</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B109" t="s">
         <v>271</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
         <v>272</v>
@@ -2573,15 +2573,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B111" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s">
         <v>273</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>275</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>274</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>276</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>277</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>278</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>279</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>280</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>281</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>282</v>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>283</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>284</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>285</v>
@@ -2685,23 +2685,23 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>286</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>287</v>
@@ -2717,95 +2717,95 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B131" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B132" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B134" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B135" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B136" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B139" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s">
         <v>98</v>
@@ -2813,39 +2813,39 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B142" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B143" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B144" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B145" t="s">
         <v>100</v>
@@ -2853,58 +2853,58 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B146" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B147" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B148" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B150" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B151" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B152" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2917,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4052,7 +4052,7 @@
         <v>chat_error_unknown_cmd</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
@@ -4065,7 +4065,7 @@
         <v>chat_error</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
@@ -4078,7 +4078,7 @@
         <v>chat_error_root</v>
       </c>
       <c r="B89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
@@ -4091,7 +4091,7 @@
         <v>chat_reply_contact</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
@@ -4104,7 +4104,7 @@
         <v>chat_start_locating</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
@@ -4117,7 +4117,7 @@
         <v>chat_start_ringing</v>
       </c>
       <c r="B92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
@@ -4130,7 +4130,7 @@
         <v>chat_error_ringing</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
@@ -4143,7 +4143,7 @@
         <v>chat_stop_actions</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
@@ -4156,7 +4156,7 @@
         <v>chat_send_sms</v>
       </c>
       <c r="B95" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
@@ -4169,7 +4169,7 @@
         <v>chat_specify_details</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
@@ -4182,7 +4182,7 @@
         <v>chat_no_match_for</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
@@ -4195,7 +4195,7 @@
         <v>chat_mark_as_read</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
@@ -4208,7 +4208,7 @@
         <v>chat_only_got_n_sms</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
@@ -4221,7 +4221,7 @@
         <v>chat_no_sms</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
@@ -4234,7 +4234,7 @@
         <v>chat_no_call</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
@@ -4247,7 +4247,7 @@
         <v>chat_contact_found</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
@@ -4260,7 +4260,7 @@
         <v>chat_phones</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
@@ -4286,7 +4286,7 @@
         <v>chat_addresses</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
@@ -4299,7 +4299,7 @@
         <v>chat_text_copied</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
@@ -4312,7 +4312,7 @@
         <v>chat_error_clipboard</v>
       </c>
       <c r="B107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
@@ -4325,7 +4325,7 @@
         <v>chat_clipboard</v>
       </c>
       <c r="B108" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
@@ -4338,7 +4338,7 @@
         <v>chat_choose_activity</v>
       </c>
       <c r="B109" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
@@ -4351,7 +4351,7 @@
         <v>chat_dial</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
@@ -4364,7 +4364,7 @@
         <v>chat_error_dial</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
@@ -4377,7 +4377,7 @@
         <v>chat_help_title</v>
       </c>
       <c r="B112" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
@@ -4390,7 +4390,7 @@
         <v>chat_help_help</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
@@ -4403,7 +4403,7 @@
         <v>chat_help_stop</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
@@ -4416,7 +4416,7 @@
         <v>chat_help_dial</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
@@ -4429,7 +4429,7 @@
         <v>chat_help_sms_reply</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
@@ -4442,7 +4442,7 @@
         <v>chat_help_sms_show_all</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
@@ -4455,7 +4455,7 @@
         <v>chat_help_sms_show_contact</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
@@ -4468,7 +4468,7 @@
         <v>chat_help_sms_send</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
@@ -4481,7 +4481,7 @@
         <v>chat_help_mark_as_read</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
@@ -4494,7 +4494,7 @@
         <v>chat_help_battery</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
@@ -4507,7 +4507,7 @@
         <v>chat_help_calls</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
@@ -4520,7 +4520,7 @@
         <v>chat_help_contact</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
@@ -4533,7 +4533,7 @@
         <v>chat_help_geo</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
@@ -4546,11 +4546,11 @@
         <v>chat_help_where</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
-        <v>- %s: sends you google map updates about the location of the phone until you send \"stop\".</v>
+        <v>- %1$s: sends you google map updates about the location of the phone until you send %2$s.</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4559,11 +4559,11 @@
         <v>chat_help_ring</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
-        <v>- %s: rings the phone until you send \"stop\".</v>
+        <v>- %1$s: rings the phone until you send %2$s.</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4572,7 +4572,7 @@
         <v>chat_help_copy</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
@@ -4585,7 +4585,7 @@
         <v>chat_help_cmd</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
@@ -4598,7 +4598,7 @@
         <v>chat_help_write</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
@@ -4611,11 +4611,11 @@
         <v>chat_help_urls</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
-        <v>and you can paste links and open it with the appropriate application.</v>
+        <v>and you can paste %s links and open it with the appropriate application.</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4624,7 +4624,7 @@
         <v>chat_call_unknown</v>
       </c>
       <c r="B131" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
@@ -4637,7 +4637,7 @@
         <v>chat_call_incoming</v>
       </c>
       <c r="B132" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
@@ -4650,7 +4650,7 @@
         <v>chat_call_outgoing</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
@@ -4663,7 +4663,7 @@
         <v>chat_call_missed</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
@@ -4676,7 +4676,7 @@
         <v>chat_call_duration</v>
       </c>
       <c r="B135" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
@@ -4689,7 +4689,7 @@
         <v>chat_welcome</v>
       </c>
       <c r="B136" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
@@ -4702,7 +4702,7 @@
         <v>chat_app_stop</v>
       </c>
       <c r="B137" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
@@ -4715,7 +4715,7 @@
         <v>chat_is_calling</v>
       </c>
       <c r="B138" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
@@ -4728,7 +4728,7 @@
         <v>chat_call_hidden</v>
       </c>
       <c r="B139" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
@@ -4741,7 +4741,7 @@
         <v>chat_sms_sent</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
@@ -4754,7 +4754,7 @@
         <v>chat_sms_failure</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
@@ -4767,7 +4767,7 @@
         <v>chat_sms_no_service</v>
       </c>
       <c r="B142" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
@@ -4780,7 +4780,7 @@
         <v>chat_sms_null_pdu</v>
       </c>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
@@ -4793,7 +4793,7 @@
         <v>chat_sms_radio_off</v>
       </c>
       <c r="B144" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
@@ -4806,7 +4806,7 @@
         <v>chat_sms_delivered</v>
       </c>
       <c r="B145" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
@@ -4819,7 +4819,7 @@
         <v>chat_sms_not_delivered</v>
       </c>
       <c r="B146" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
@@ -4832,7 +4832,7 @@
         <v>chat_log_failed</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
@@ -4845,7 +4845,7 @@
         <v>chat_log_unavailable</v>
       </c>
       <c r="B148" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
@@ -4858,7 +4858,7 @@
         <v>chat_geo_accuracy</v>
       </c>
       <c r="B149" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
@@ -4871,7 +4871,7 @@
         <v>chat_geo_altitude</v>
       </c>
       <c r="B150" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
@@ -4884,7 +4884,7 @@
         <v>chat_geo_speed</v>
       </c>
       <c r="B151" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
@@ -4897,7 +4897,7 @@
         <v>chat_geo_provider</v>
       </c>
       <c r="B152" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="D125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
-        <v>- %s: sends you google map updates about the location of the phone until you send \"stop\".</v>
+        <v>- %1$s: sends you google map updates about the location of the phone until you send %2$s.</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="5"/>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
-        <v>- %s: rings the phone until you send \"stop\".</v>
+        <v>- %1$s: rings the phone until you send %2$s.</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="5"/>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="D130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
-        <v>and you can paste links and open it with the appropriate application.</v>
+        <v>and you can paste %s links and open it with the appropriate application.</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ref="E130:E193" si="8">IF(B130&lt;&gt;"","&lt;/string&gt;","")</f>
@@ -19783,8 +19783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22539,7 +22539,7 @@
       </c>
       <c r="D125" t="str">
         <f>IF(Fr!B125&lt;&gt;0,Fr!B125,"")</f>
-        <v>- %s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande \"stop\".</v>
+        <v>- %1$s: envoie continue de liens Gmap pour localiser le téléphone jusqu\'à l\'envoie de la commande %2$s.</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="5"/>
@@ -22561,7 +22561,7 @@
       </c>
       <c r="D126" t="str">
         <f>IF(Fr!B126&lt;&gt;0,Fr!B126,"")</f>
-        <v>- %s: faire sonner le téléphone jusqu\'à l\'envoie de la commande \"stop\".</v>
+        <v>- %1$s: faire sonner le téléphone jusqu\'à l\'envoie de la commande %2$s.</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="5"/>
@@ -22649,7 +22649,7 @@
       </c>
       <c r="D130" t="str">
         <f>IF(Fr!B130&lt;&gt;0,Fr!B130,"")</f>
-        <v>et coller les liens http pour les ouvrir dans le navigateur du téléphone.</v>
+        <v>et coller les liens %s pour les ouvrir dans le navigateur du téléphone.</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" ref="E130:E193" si="8">IF(B130&lt;&gt;"","&lt;/string&gt;","")</f>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -882,9 +882,6 @@
     <t>- %s: copy text to clipboard or sent phone clipboard if text is empty.</t>
   </si>
   <si>
-    <t>- %s: execute shell instuction with root access if possible.</t>
-  </si>
-  <si>
     <t>chat_start_locating</t>
   </si>
   <si>
@@ -1104,9 +1101,6 @@
     <t>Error can\'t dial.</t>
   </si>
   <si>
-    <t>Can\'t have root acess!</t>
-  </si>
-  <si>
     <t>- %1$s or %2$s: write text as virtual keyboard (don\'t forget to activate keyboard in Android Preferences panel).</t>
   </si>
   <si>
@@ -1777,6 +1771,12 @@
   </si>
   <si>
     <t>Quelle: %s</t>
+  </si>
+  <si>
+    <t>- %s: execute shell instruction with root access if possible.</t>
+  </si>
+  <si>
+    <t>Can\'t have root access!</t>
   </si>
 </sst>
 </file>
@@ -2111,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2815,7 +2815,7 @@
         <v>247</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>361</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2844,7 +2844,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
         <v>255</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B92" t="s">
         <v>256</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
         <v>257</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
         <v>258</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
         <v>259</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B96" t="s">
         <v>260</v>
@@ -2892,15 +2892,15 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s">
         <v>261</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B99" t="s">
         <v>262</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s">
         <v>263</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
         <v>264</v>
@@ -2932,15 +2932,15 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B103" t="s">
         <v>265</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B104" t="s">
         <v>266</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B105" t="s">
         <v>267</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s">
         <v>268</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s">
         <v>269</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s">
         <v>270</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
         <v>271</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
         <v>272</v>
@@ -3004,15 +3004,15 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s">
         <v>273</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>275</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>274</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>276</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>277</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>278</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>279</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>280</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>281</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>282</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>283</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>284</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>285</v>
@@ -3116,23 +3116,23 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>286</v>
@@ -3140,103 +3140,103 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>287</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B133" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
         <v>98</v>
@@ -3244,39 +3244,39 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B142" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B143" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B144" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B145" t="s">
         <v>100</v>
@@ -3284,58 +3284,58 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B146" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B148" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B149" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B150" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B151" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B152" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4483,7 @@
         <v>chat_error_unknown_cmd</v>
       </c>
       <c r="B87" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
@@ -4496,7 +4496,7 @@
         <v>chat_error</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
@@ -4509,11 +4509,11 @@
         <v>chat_error_root</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
-        <v>Can\'t have root acess!</v>
+        <v>Can\'t have root access!</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4522,7 +4522,7 @@
         <v>chat_reply_contact</v>
       </c>
       <c r="B90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
@@ -4535,7 +4535,7 @@
         <v>chat_start_locating</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
@@ -4548,7 +4548,7 @@
         <v>chat_start_ringing</v>
       </c>
       <c r="B92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
@@ -4561,7 +4561,7 @@
         <v>chat_error_ringing</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
@@ -4574,7 +4574,7 @@
         <v>chat_stop_actions</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
@@ -4587,7 +4587,7 @@
         <v>chat_send_sms</v>
       </c>
       <c r="B95" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
@@ -4600,7 +4600,7 @@
         <v>chat_specify_details</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
@@ -4613,7 +4613,7 @@
         <v>chat_no_match_for</v>
       </c>
       <c r="B97" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
@@ -4626,7 +4626,7 @@
         <v>chat_mark_as_read</v>
       </c>
       <c r="B98" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
@@ -4639,7 +4639,7 @@
         <v>chat_only_got_n_sms</v>
       </c>
       <c r="B99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
@@ -4652,7 +4652,7 @@
         <v>chat_no_sms</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
@@ -4665,7 +4665,7 @@
         <v>chat_no_call</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
@@ -4678,7 +4678,7 @@
         <v>chat_contact_found</v>
       </c>
       <c r="B102" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
@@ -4691,7 +4691,7 @@
         <v>chat_phones</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
@@ -4717,7 +4717,7 @@
         <v>chat_addresses</v>
       </c>
       <c r="B105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
@@ -4730,7 +4730,7 @@
         <v>chat_text_copied</v>
       </c>
       <c r="B106" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
@@ -4743,7 +4743,7 @@
         <v>chat_error_clipboard</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
@@ -4756,7 +4756,7 @@
         <v>chat_clipboard</v>
       </c>
       <c r="B108" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
@@ -4769,7 +4769,7 @@
         <v>chat_choose_activity</v>
       </c>
       <c r="B109" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
@@ -4782,7 +4782,7 @@
         <v>chat_dial</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
@@ -4795,7 +4795,7 @@
         <v>chat_error_dial</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
@@ -4808,7 +4808,7 @@
         <v>chat_help_title</v>
       </c>
       <c r="B112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
@@ -4821,7 +4821,7 @@
         <v>chat_help_help</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
@@ -4834,7 +4834,7 @@
         <v>chat_help_stop</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
@@ -4847,7 +4847,7 @@
         <v>chat_help_dial</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
@@ -4860,7 +4860,7 @@
         <v>chat_help_sms_reply</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
@@ -4873,7 +4873,7 @@
         <v>chat_help_sms_show_all</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
@@ -4886,7 +4886,7 @@
         <v>chat_help_sms_show_contact</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
@@ -4899,7 +4899,7 @@
         <v>chat_help_sms_send</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
@@ -4912,7 +4912,7 @@
         <v>chat_help_mark_as_read</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
@@ -4925,7 +4925,7 @@
         <v>chat_help_battery</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
@@ -4938,7 +4938,7 @@
         <v>chat_help_calls</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
@@ -4951,7 +4951,7 @@
         <v>chat_help_contact</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
@@ -4964,7 +4964,7 @@
         <v>chat_help_geo</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
@@ -4977,7 +4977,7 @@
         <v>chat_help_where</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
@@ -4990,7 +4990,7 @@
         <v>chat_help_ring</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
@@ -5003,7 +5003,7 @@
         <v>chat_help_copy</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
@@ -5016,11 +5016,11 @@
         <v>chat_help_cmd</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
-        <v>- %s: execute shell instuction with root access if possible.</v>
+        <v>- %s: execute shell instruction with root access if possible.</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5029,7 +5029,7 @@
         <v>chat_help_write</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
@@ -5042,7 +5042,7 @@
         <v>chat_help_urls</v>
       </c>
       <c r="B130" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
@@ -5055,7 +5055,7 @@
         <v>chat_call_unknown</v>
       </c>
       <c r="B131" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
@@ -5068,7 +5068,7 @@
         <v>chat_call_incoming</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
@@ -5081,7 +5081,7 @@
         <v>chat_call_outgoing</v>
       </c>
       <c r="B133" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
@@ -5094,7 +5094,7 @@
         <v>chat_call_missed</v>
       </c>
       <c r="B134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
@@ -5107,7 +5107,7 @@
         <v>chat_call_duration</v>
       </c>
       <c r="B135" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
@@ -5120,7 +5120,7 @@
         <v>chat_welcome</v>
       </c>
       <c r="B136" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
@@ -5133,7 +5133,7 @@
         <v>chat_app_stop</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
@@ -5146,7 +5146,7 @@
         <v>chat_is_calling</v>
       </c>
       <c r="B138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
@@ -5159,7 +5159,7 @@
         <v>chat_call_hidden</v>
       </c>
       <c r="B139" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
@@ -5172,7 +5172,7 @@
         <v>chat_sms_sent</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
@@ -5185,7 +5185,7 @@
         <v>chat_sms_failure</v>
       </c>
       <c r="B141" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
@@ -5198,7 +5198,7 @@
         <v>chat_sms_no_service</v>
       </c>
       <c r="B142" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
@@ -5211,7 +5211,7 @@
         <v>chat_sms_null_pdu</v>
       </c>
       <c r="B143" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
@@ -5224,7 +5224,7 @@
         <v>chat_sms_radio_off</v>
       </c>
       <c r="B144" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
@@ -5237,7 +5237,7 @@
         <v>chat_sms_delivered</v>
       </c>
       <c r="B145" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
@@ -5250,7 +5250,7 @@
         <v>chat_sms_not_delivered</v>
       </c>
       <c r="B146" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
@@ -5263,7 +5263,7 @@
         <v>chat_log_failed</v>
       </c>
       <c r="B147" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
@@ -5276,7 +5276,7 @@
         <v>chat_log_unavailable</v>
       </c>
       <c r="B148" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
@@ -5289,7 +5289,7 @@
         <v>chat_geo_accuracy</v>
       </c>
       <c r="B149" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
@@ -5302,7 +5302,7 @@
         <v>chat_geo_altitude</v>
       </c>
       <c r="B150" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
@@ -5315,7 +5315,7 @@
         <v>chat_geo_speed</v>
       </c>
       <c r="B151" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
@@ -5328,7 +5328,7 @@
         <v>chat_geo_provider</v>
       </c>
       <c r="B152" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
@@ -9324,7 +9324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
@@ -9341,7 +9341,7 @@
         <v>pref_app</v>
       </c>
       <c r="B1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" t="str">
         <f>IF(En!B1&lt;&gt;0,En!B1,"")</f>
@@ -9354,7 +9354,7 @@
         <v>pref_app_auto_start_options</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" t="str">
         <f>IF(En!B2&lt;&gt;0,En!B2,"")</f>
@@ -9367,7 +9367,7 @@
         <v>pref_app_auto_stop_options</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C3" t="str">
         <f>IF(En!B3&lt;&gt;0,En!B3,"")</f>
@@ -9380,7 +9380,7 @@
         <v>pref_app_start_at_boot</v>
       </c>
       <c r="B4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C4" t="str">
         <f>IF(En!B4&lt;&gt;0,En!B4,"")</f>
@@ -9393,7 +9393,7 @@
         <v>pref_app_start_at_boot_help</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C5" t="str">
         <f>IF(En!B5&lt;&gt;0,En!B5,"")</f>
@@ -9406,7 +9406,7 @@
         <v>pref_app_start_on_power_connected</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C6" t="str">
         <f>IF(En!B6&lt;&gt;0,En!B6,"")</f>
@@ -9419,7 +9419,7 @@
         <v>pref_app_start_on_power_connected_help</v>
       </c>
       <c r="B7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C7" t="str">
         <f>IF(En!B7&lt;&gt;0,En!B7,"")</f>
@@ -9432,7 +9432,7 @@
         <v>pref_app_stop_on_power_disconnected</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C8" t="str">
         <f>IF(En!B8&lt;&gt;0,En!B8,"")</f>
@@ -9445,7 +9445,7 @@
         <v>pref_app_stop_on_power_disconnected_help</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C9" t="str">
         <f>IF(En!B9&lt;&gt;0,En!B9,"")</f>
@@ -9458,7 +9458,7 @@
         <v>pref_app_show_status_icon</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C10" t="str">
         <f>IF(En!B10&lt;&gt;0,En!B10,"")</f>
@@ -9471,7 +9471,7 @@
         <v>pref_app_show_status_icon_help</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C11" t="str">
         <f>IF(En!B11&lt;&gt;0,En!B11,"")</f>
@@ -9484,7 +9484,7 @@
         <v>pref_app_format_responses</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C12" t="str">
         <f>IF(En!B12&lt;&gt;0,En!B12,"")</f>
@@ -9497,7 +9497,7 @@
         <v>pref_app_format_responses_help</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C13" t="str">
         <f>IF(En!B13&lt;&gt;0,En!B13,"")</f>
@@ -9510,7 +9510,7 @@
         <v>pref_app_sms_number</v>
       </c>
       <c r="B14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C14" t="str">
         <f>IF(En!B14&lt;&gt;0,En!B14,"")</f>
@@ -9523,7 +9523,7 @@
         <v>pref_app_sms_number_help</v>
       </c>
       <c r="B15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C15" t="str">
         <f>IF(En!B15&lt;&gt;0,En!B15,"")</f>
@@ -9536,7 +9536,7 @@
         <v>pref_app_show_sent_sms</v>
       </c>
       <c r="B16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C16" t="str">
         <f>IF(En!B16&lt;&gt;0,En!B16,"")</f>
@@ -9549,7 +9549,7 @@
         <v>pref_app_show_sent_sms_help</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C17" t="str">
         <f>IF(En!B17&lt;&gt;0,En!B17,"")</f>
@@ -9562,7 +9562,7 @@
         <v>pref_app_call_logs_number</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C18" t="str">
         <f>IF(En!B18&lt;&gt;0,En!B18,"")</f>
@@ -9575,7 +9575,7 @@
         <v>pref_app_call_logs_number_help</v>
       </c>
       <c r="B19" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C19" t="str">
         <f>IF(En!B19&lt;&gt;0,En!B19,"")</f>
@@ -9588,7 +9588,7 @@
         <v>pref_app_ringtone</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C20" t="str">
         <f>IF(En!B20&lt;&gt;0,En!B20,"")</f>
@@ -9601,7 +9601,7 @@
         <v>pref_app_ringtone_help</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C21" t="str">
         <f>IF(En!B21&lt;&gt;0,En!B21,"")</f>
@@ -9614,7 +9614,7 @@
         <v>pref_con</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C22" t="str">
         <f>IF(En!B22&lt;&gt;0,En!B22,"")</f>
@@ -9627,7 +9627,7 @@
         <v>pref_con_notified_address_cat</v>
       </c>
       <c r="B23" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C23" t="str">
         <f>IF(En!B23&lt;&gt;0,En!B23,"")</f>
@@ -9640,7 +9640,7 @@
         <v>pref_con_notified_address</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C24" t="str">
         <f>IF(En!B24&lt;&gt;0,En!B24,"")</f>
@@ -9653,7 +9653,7 @@
         <v>pref_con_notified_address_help</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C25" t="str">
         <f>IF(En!B25&lt;&gt;0,En!B25,"")</f>
@@ -9666,7 +9666,7 @@
         <v>pref_con_cat</v>
       </c>
       <c r="B26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C26" t="str">
         <f>IF(En!B26&lt;&gt;0,En!B26,"")</f>
@@ -9679,7 +9679,7 @@
         <v>pref_con_use_different_account</v>
       </c>
       <c r="B27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C27" t="str">
         <f>IF(En!B27&lt;&gt;0,En!B27,"")</f>
@@ -9692,7 +9692,7 @@
         <v>pref_con_use_different_account_help</v>
       </c>
       <c r="B28" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C28" t="str">
         <f>IF(En!B28&lt;&gt;0,En!B28,"")</f>
@@ -9718,7 +9718,7 @@
         <v>pref_con_login_help</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C30" t="str">
         <f>IF(En!B30&lt;&gt;0,En!B30,"")</f>
@@ -9731,7 +9731,7 @@
         <v>pref_con_password</v>
       </c>
       <c r="B31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C31" t="str">
         <f>IF(En!B31&lt;&gt;0,En!B31,"")</f>
@@ -9744,7 +9744,7 @@
         <v>pref_con_password_help</v>
       </c>
       <c r="B32" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C32" t="str">
         <f>IF(En!B32&lt;&gt;0,En!B32,"")</f>
@@ -9757,7 +9757,7 @@
         <v>pref_con_server_settings</v>
       </c>
       <c r="B33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" t="str">
         <f>IF(En!B33&lt;&gt;0,En!B33,"")</f>
@@ -9770,7 +9770,7 @@
         <v>pref_con_server_host</v>
       </c>
       <c r="B34" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C34" t="str">
         <f>IF(En!B34&lt;&gt;0,En!B34,"")</f>
@@ -9783,7 +9783,7 @@
         <v>pref_con_server_host_help</v>
       </c>
       <c r="B35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C35" t="str">
         <f>IF(En!B35&lt;&gt;0,En!B35,"")</f>
@@ -9796,7 +9796,7 @@
         <v>pref_con_server_port</v>
       </c>
       <c r="B36" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C36" t="str">
         <f>IF(En!B36&lt;&gt;0,En!B36,"")</f>
@@ -9809,7 +9809,7 @@
         <v>pref_con_server_port_help</v>
       </c>
       <c r="B37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C37" t="str">
         <f>IF(En!B37&lt;&gt;0,En!B37,"")</f>
@@ -9822,7 +9822,7 @@
         <v>pref_con_service_name</v>
       </c>
       <c r="B38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C38" t="str">
         <f>IF(En!B38&lt;&gt;0,En!B38,"")</f>
@@ -9835,7 +9835,7 @@
         <v>pref_con_service_name_help</v>
       </c>
       <c r="B39" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C39" t="str">
         <f>IF(En!B39&lt;&gt;0,En!B39,"")</f>
@@ -9848,7 +9848,7 @@
         <v>pref_notif</v>
       </c>
       <c r="B40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C40" t="str">
         <f>IF(En!B40&lt;&gt;0,En!B40,"")</f>
@@ -9861,7 +9861,7 @@
         <v>pref_notif_application_connection</v>
       </c>
       <c r="B41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C41" t="str">
         <f>IF(En!B41&lt;&gt;0,En!B41,"")</f>
@@ -9874,7 +9874,7 @@
         <v>pref_notif_application_connection_help</v>
       </c>
       <c r="B42" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C42" t="str">
         <f>IF(En!B42&lt;&gt;0,En!B42,"")</f>
@@ -9887,7 +9887,7 @@
         <v>pref_notif_battery_state</v>
       </c>
       <c r="B43" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C43" t="str">
         <f>IF(En!B43&lt;&gt;0,En!B43,"")</f>
@@ -9900,7 +9900,7 @@
         <v>pref_notif_battery_state_help</v>
       </c>
       <c r="B44" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C44" t="str">
         <f>IF(En!B44&lt;&gt;0,En!B44,"")</f>
@@ -9913,7 +9913,7 @@
         <v>pref_notif_battery_notif_interval</v>
       </c>
       <c r="B45" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C45" t="str">
         <f>IF(En!B45&lt;&gt;0,En!B45,"")</f>
@@ -9926,7 +9926,7 @@
         <v>pref_notif_battery_notif_interval_help</v>
       </c>
       <c r="B46" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C46" t="str">
         <f>IF(En!B46&lt;&gt;0,En!B46,"")</f>
@@ -9939,7 +9939,7 @@
         <v>pref_notif_battery_state_in_status</v>
       </c>
       <c r="B47" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C47" t="str">
         <f>IF(En!B47&lt;&gt;0,En!B47,"")</f>
@@ -9952,7 +9952,7 @@
         <v>pref_notif_battery_state_in_status_help</v>
       </c>
       <c r="B48" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C48" t="str">
         <f>IF(En!B48&lt;&gt;0,En!B48,"")</f>
@@ -9965,7 +9965,7 @@
         <v>pref_notif_incoming_sms</v>
       </c>
       <c r="B49" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C49" t="str">
         <f>IF(En!B49&lt;&gt;0,En!B49,"")</f>
@@ -9978,7 +9978,7 @@
         <v>pref_notif_incoming_sms_help</v>
       </c>
       <c r="B50" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C50" t="str">
         <f>IF(En!B50&lt;&gt;0,En!B50,"")</f>
@@ -9991,7 +9991,7 @@
         <v>pref_notif_incoming_calls</v>
       </c>
       <c r="B51" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C51" t="str">
         <f>IF(En!B51&lt;&gt;0,En!B51,"")</f>
@@ -10004,7 +10004,7 @@
         <v>pref_notif_incoming_calls_help</v>
       </c>
       <c r="B52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C52" t="str">
         <f>IF(En!B52&lt;&gt;0,En!B52,"")</f>
@@ -10017,7 +10017,7 @@
         <v>pref_notif_sms_sent</v>
       </c>
       <c r="B53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C53" t="str">
         <f>IF(En!B53&lt;&gt;0,En!B53,"")</f>
@@ -10030,7 +10030,7 @@
         <v>pref_notif_sms_sent_help</v>
       </c>
       <c r="B54" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C54" t="str">
         <f>IF(En!B54&lt;&gt;0,En!B54,"")</f>
@@ -10043,7 +10043,7 @@
         <v>pref_notif_sms_delivered</v>
       </c>
       <c r="B55" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C55" t="str">
         <f>IF(En!B55&lt;&gt;0,En!B55,"")</f>
@@ -10056,7 +10056,7 @@
         <v>pref_notif_sms_delivered_help</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C56" t="str">
         <f>IF(En!B56&lt;&gt;0,En!B56,"")</f>
@@ -10082,7 +10082,7 @@
         <v>main_but_preferences</v>
       </c>
       <c r="B58" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C58" t="str">
         <f>IF(En!B58&lt;&gt;0,En!B58,"")</f>
@@ -10095,7 +10095,7 @@
         <v>main_but_send_clipboard</v>
       </c>
       <c r="B59" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C59" t="str">
         <f>IF(En!B59&lt;&gt;0,En!B59,"")</f>
@@ -10108,7 +10108,7 @@
         <v>main_but_about</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C60" t="str">
         <f>IF(En!B60&lt;&gt;0,En!B60,"")</f>
@@ -10134,7 +10134,7 @@
         <v>about_panel</v>
       </c>
       <c r="B62" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C62" t="str">
         <f>IF(En!B62&lt;&gt;0,En!B62,"")</f>
@@ -10160,7 +10160,7 @@
         <v>preference_panel</v>
       </c>
       <c r="B64" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C64" t="str">
         <f>IF(En!B64&lt;&gt;0,En!B64,"")</f>
@@ -10173,7 +10173,7 @@
         <v>log_panel_acquiring</v>
       </c>
       <c r="B65" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C65" t="str">
         <f>IF(En!B65&lt;&gt;0,En!B65,"")</f>
@@ -10186,7 +10186,7 @@
         <v>log_panel_collect</v>
       </c>
       <c r="B66" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C66" t="str">
         <f>IF(En!B66&lt;&gt;0,En!B66,"")</f>
@@ -10199,7 +10199,7 @@
         <v>main_service_connected</v>
       </c>
       <c r="B67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C67" t="str">
         <f>IF(En!B67&lt;&gt;0,En!B67,"")</f>
@@ -10212,7 +10212,7 @@
         <v>main_service_connecting</v>
       </c>
       <c r="B68" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C68" t="str">
         <f>IF(En!B68&lt;&gt;0,En!B68,"")</f>
@@ -10225,7 +10225,7 @@
         <v>main_service_disconnected</v>
       </c>
       <c r="B69" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C69" t="str">
         <f>IF(En!B69&lt;&gt;0,En!B69,"")</f>
@@ -10238,7 +10238,7 @@
         <v>main_service_disconnecting</v>
       </c>
       <c r="B70" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C70" t="str">
         <f>IF(En!B70&lt;&gt;0,En!B70,"")</f>
@@ -10251,7 +10251,7 @@
         <v>main_service_waiting</v>
       </c>
       <c r="B71" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C71" t="str">
         <f>IF(En!B71&lt;&gt;0,En!B71,"")</f>
@@ -10264,7 +10264,7 @@
         <v>main_service_waiting_to_connect</v>
       </c>
       <c r="B72" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C72" t="str">
         <f>IF(En!B72&lt;&gt;0,En!B72,"")</f>
@@ -10277,7 +10277,7 @@
         <v>main_service_stop</v>
       </c>
       <c r="B73" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C73" t="str">
         <f>IF(En!B73&lt;&gt;0,En!B73,"")</f>
@@ -10290,7 +10290,7 @@
         <v>xmpp_manager_reconnecting</v>
       </c>
       <c r="B74" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C74" t="str">
         <f>IF(En!B74&lt;&gt;0,En!B74,"")</f>
@@ -10303,7 +10303,7 @@
         <v>xmpp_manager_failed_max_attempts</v>
       </c>
       <c r="B75" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C75" t="str">
         <f>IF(En!B75&lt;&gt;0,En!B75,"")</f>
@@ -10316,7 +10316,7 @@
         <v>xmpp_manager_waiting</v>
       </c>
       <c r="B76" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C76" t="str">
         <f>IF(En!B76&lt;&gt;0,En!B76,"")</f>
@@ -10329,7 +10329,7 @@
         <v>xmpp_manager_connection_failed</v>
       </c>
       <c r="B77" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C77" t="str">
         <f>IF(En!B77&lt;&gt;0,En!B77,"")</f>
@@ -10342,7 +10342,7 @@
         <v>xmpp_manager_login_failed</v>
       </c>
       <c r="B78" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C78" t="str">
         <f>IF(En!B78&lt;&gt;0,En!B78,"")</f>
@@ -10355,7 +10355,7 @@
         <v>xmpp_manager_invalid_credentials</v>
       </c>
       <c r="B79" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C79" t="str">
         <f>IF(En!B79&lt;&gt;0,En!B79,"")</f>
@@ -10381,7 +10381,7 @@
         <v>about_authors</v>
       </c>
       <c r="B81" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C81" t="str">
         <f>IF(En!B81&lt;&gt;0,En!B81,"")</f>
@@ -10394,7 +10394,7 @@
         <v>about_donors</v>
       </c>
       <c r="B82" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C82" t="str">
         <f>IF(En!B82&lt;&gt;0,En!B82,"")</f>
@@ -10407,7 +10407,7 @@
         <v>about_change_log</v>
       </c>
       <c r="B83" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C83" t="str">
         <f>IF(En!B83&lt;&gt;0,En!B83,"")</f>
@@ -10420,7 +10420,7 @@
         <v>chat_sms_from</v>
       </c>
       <c r="B84" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C84" t="str">
         <f>IF(En!B84&lt;&gt;0,En!B84,"")</f>
@@ -10433,7 +10433,7 @@
         <v>chat_battery_level</v>
       </c>
       <c r="B85" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C85" t="str">
         <f>IF(En!B85&lt;&gt;0,En!B85,"")</f>
@@ -10446,7 +10446,7 @@
         <v>chat_error_no_recipient</v>
       </c>
       <c r="B86" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C86" t="str">
         <f>IF(En!B86&lt;&gt;0,En!B86,"")</f>
@@ -10459,7 +10459,7 @@
         <v>chat_error_unknown_cmd</v>
       </c>
       <c r="B87" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
@@ -10472,7 +10472,7 @@
         <v>chat_error</v>
       </c>
       <c r="B88" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
@@ -10485,11 +10485,11 @@
         <v>chat_error_root</v>
       </c>
       <c r="B89" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
-        <v>Can\'t have root acess!</v>
+        <v>Can\'t have root access!</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10498,7 +10498,7 @@
         <v>chat_reply_contact</v>
       </c>
       <c r="B90" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
@@ -10511,7 +10511,7 @@
         <v>chat_start_locating</v>
       </c>
       <c r="B91" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
@@ -10524,7 +10524,7 @@
         <v>chat_start_ringing</v>
       </c>
       <c r="B92" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
@@ -10537,7 +10537,7 @@
         <v>chat_error_ringing</v>
       </c>
       <c r="B93" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
@@ -10550,7 +10550,7 @@
         <v>chat_stop_actions</v>
       </c>
       <c r="B94" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
@@ -10563,7 +10563,7 @@
         <v>chat_send_sms</v>
       </c>
       <c r="B95" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
@@ -10576,7 +10576,7 @@
         <v>chat_specify_details</v>
       </c>
       <c r="B96" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
@@ -10589,7 +10589,7 @@
         <v>chat_no_match_for</v>
       </c>
       <c r="B97" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
@@ -10602,7 +10602,7 @@
         <v>chat_mark_as_read</v>
       </c>
       <c r="B98" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
@@ -10615,7 +10615,7 @@
         <v>chat_only_got_n_sms</v>
       </c>
       <c r="B99" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
@@ -10628,7 +10628,7 @@
         <v>chat_no_sms</v>
       </c>
       <c r="B100" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
@@ -10641,7 +10641,7 @@
         <v>chat_no_call</v>
       </c>
       <c r="B101" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
@@ -10654,7 +10654,7 @@
         <v>chat_contact_found</v>
       </c>
       <c r="B102" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
@@ -10667,7 +10667,7 @@
         <v>chat_phones</v>
       </c>
       <c r="B103" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
@@ -10680,7 +10680,7 @@
         <v>chat_emails</v>
       </c>
       <c r="B104" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C104" t="str">
         <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
@@ -10693,7 +10693,7 @@
         <v>chat_addresses</v>
       </c>
       <c r="B105" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
@@ -10706,7 +10706,7 @@
         <v>chat_text_copied</v>
       </c>
       <c r="B106" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
@@ -10719,7 +10719,7 @@
         <v>chat_error_clipboard</v>
       </c>
       <c r="B107" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
@@ -10732,7 +10732,7 @@
         <v>chat_clipboard</v>
       </c>
       <c r="B108" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
@@ -10745,7 +10745,7 @@
         <v>chat_choose_activity</v>
       </c>
       <c r="B109" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
@@ -10758,7 +10758,7 @@
         <v>chat_dial</v>
       </c>
       <c r="B110" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
@@ -10771,7 +10771,7 @@
         <v>chat_error_dial</v>
       </c>
       <c r="B111" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
@@ -10784,7 +10784,7 @@
         <v>chat_help_title</v>
       </c>
       <c r="B112" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
@@ -10797,7 +10797,7 @@
         <v>chat_help_help</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
@@ -10810,7 +10810,7 @@
         <v>chat_help_stop</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
@@ -10823,7 +10823,7 @@
         <v>chat_help_dial</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
@@ -10836,7 +10836,7 @@
         <v>chat_help_sms_reply</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
@@ -10849,7 +10849,7 @@
         <v>chat_help_sms_show_all</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
@@ -10862,7 +10862,7 @@
         <v>chat_help_sms_show_contact</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
@@ -10875,7 +10875,7 @@
         <v>chat_help_sms_send</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
@@ -10888,7 +10888,7 @@
         <v>chat_help_mark_as_read</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
@@ -10901,7 +10901,7 @@
         <v>chat_help_battery</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
@@ -10914,7 +10914,7 @@
         <v>chat_help_calls</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
@@ -10927,7 +10927,7 @@
         <v>chat_help_contact</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
@@ -10940,7 +10940,7 @@
         <v>chat_help_geo</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
@@ -10953,7 +10953,7 @@
         <v>chat_help_where</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
@@ -10966,7 +10966,7 @@
         <v>chat_help_ring</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
@@ -10979,7 +10979,7 @@
         <v>chat_help_copy</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
@@ -10992,11 +10992,11 @@
         <v>chat_help_cmd</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
-        <v>- %s: execute shell instuction with root access if possible.</v>
+        <v>- %s: execute shell instruction with root access if possible.</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -11005,7 +11005,7 @@
         <v>chat_help_write</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
@@ -11018,7 +11018,7 @@
         <v>chat_help_urls</v>
       </c>
       <c r="B130" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
@@ -11031,7 +11031,7 @@
         <v>chat_call_unknown</v>
       </c>
       <c r="B131" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
@@ -11044,7 +11044,7 @@
         <v>chat_call_incoming</v>
       </c>
       <c r="B132" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
@@ -11057,7 +11057,7 @@
         <v>chat_call_outgoing</v>
       </c>
       <c r="B133" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
@@ -11070,7 +11070,7 @@
         <v>chat_call_missed</v>
       </c>
       <c r="B134" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
@@ -11083,7 +11083,7 @@
         <v>chat_call_duration</v>
       </c>
       <c r="B135" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
@@ -11096,7 +11096,7 @@
         <v>chat_welcome</v>
       </c>
       <c r="B136" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
@@ -11109,7 +11109,7 @@
         <v>chat_app_stop</v>
       </c>
       <c r="B137" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
@@ -11122,7 +11122,7 @@
         <v>chat_is_calling</v>
       </c>
       <c r="B138" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
@@ -11135,7 +11135,7 @@
         <v>chat_call_hidden</v>
       </c>
       <c r="B139" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
@@ -11148,7 +11148,7 @@
         <v>chat_sms_sent</v>
       </c>
       <c r="B140" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
@@ -11161,7 +11161,7 @@
         <v>chat_sms_failure</v>
       </c>
       <c r="B141" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
@@ -11174,7 +11174,7 @@
         <v>chat_sms_no_service</v>
       </c>
       <c r="B142" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
@@ -11187,7 +11187,7 @@
         <v>chat_sms_null_pdu</v>
       </c>
       <c r="B143" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
@@ -11200,7 +11200,7 @@
         <v>chat_sms_radio_off</v>
       </c>
       <c r="B144" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
@@ -11213,7 +11213,7 @@
         <v>chat_sms_delivered</v>
       </c>
       <c r="B145" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
@@ -11226,7 +11226,7 @@
         <v>chat_sms_not_delivered</v>
       </c>
       <c r="B146" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
@@ -11239,7 +11239,7 @@
         <v>chat_log_failed</v>
       </c>
       <c r="B147" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
@@ -11252,7 +11252,7 @@
         <v>chat_log_unavailable</v>
       </c>
       <c r="B148" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
@@ -11265,7 +11265,7 @@
         <v>chat_geo_accuracy</v>
       </c>
       <c r="B149" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
@@ -11278,7 +11278,7 @@
         <v>chat_geo_altitude</v>
       </c>
       <c r="B150" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
@@ -11291,7 +11291,7 @@
         <v>chat_geo_speed</v>
       </c>
       <c r="B151" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
@@ -11304,7 +11304,7 @@
         <v>chat_geo_provider</v>
       </c>
       <c r="B152" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="D89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
-        <v>Can\'t have root acess!</v>
+        <v>Can\'t have root access!</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="5"/>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="D128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
-        <v>- %s: execute shell instuction with root access if possible.</v>
+        <v>- %s: execute shell instruction with root access if possible.</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="5"/>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="594">
   <si>
     <t>pref_app</t>
   </si>
@@ -1777,6 +1777,30 @@
   </si>
   <si>
     <t>Can\'t have root access!</t>
+  </si>
+  <si>
+    <t>pref_app_locale</t>
+  </si>
+  <si>
+    <t>pref_app_locale_help</t>
+  </si>
+  <si>
+    <t>Choose the application localization</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>Choisir la langue</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Sprachumgebung der Anwendung festlegen</t>
   </si>
 </sst>
 </file>
@@ -2109,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3338,6 +3362,22 @@
         <v>396</v>
       </c>
     </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>586</v>
+      </c>
+      <c r="B153" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>587</v>
+      </c>
+      <c r="B154" t="s">
+        <v>589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3348,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5338,21 +5378,27 @@
     <row r="153" spans="1:3">
       <c r="A153" t="str">
         <f>IF(En!A153&lt;&gt;0,En!A153,"")</f>
-        <v/>
+        <v>pref_app_locale</v>
+      </c>
+      <c r="B153" t="s">
+        <v>590</v>
       </c>
       <c r="C153" t="str">
         <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
-        <v/>
+        <v>Choose the application localization</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="str">
         <f>IF(En!A154&lt;&gt;0,En!A154,"")</f>
-        <v/>
+        <v>pref_app_locale_help</v>
+      </c>
+      <c r="B154" t="s">
+        <v>591</v>
       </c>
       <c r="C154" t="str">
         <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
-        <v/>
+        <v>Localization</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -9324,8 +9370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11314,21 +11360,27 @@
     <row r="153" spans="1:3">
       <c r="A153" t="str">
         <f>IF(En!A153&lt;&gt;0,En!A153,"")</f>
-        <v/>
+        <v>pref_app_locale</v>
+      </c>
+      <c r="B153" t="s">
+        <v>592</v>
       </c>
       <c r="C153" t="str">
         <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
-        <v/>
+        <v>Choose the application localization</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="str">
         <f>IF(En!A154&lt;&gt;0,En!A154,"")</f>
-        <v/>
+        <v>pref_app_locale_help</v>
+      </c>
+      <c r="B154" t="s">
+        <v>593</v>
       </c>
       <c r="C154" t="str">
         <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
-        <v/>
+        <v>Localization</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -18660,45 +18712,45 @@
     <row r="153" spans="1:5">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B153" t="str">
         <f>IF(En!A153&lt;&gt;0,En!A153,"")</f>
-        <v/>
+        <v>pref_app_locale</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D153" t="str">
         <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
-        <v/>
+        <v>Choose the application localization</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B154" t="str">
         <f>IF(En!A154&lt;&gt;0,En!A154,"")</f>
-        <v/>
+        <v>pref_app_locale_help</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D154" t="str">
         <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
-        <v/>
+        <v>Localization</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -29550,45 +29602,45 @@
     <row r="153" spans="1:5">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B153" t="str">
         <f>IF(Fr!A153&lt;&gt;0,Fr!A153,"")</f>
-        <v/>
+        <v>pref_app_locale</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D153" t="str">
         <f>IF(Fr!B153&lt;&gt;0,Fr!B153,"")</f>
-        <v/>
+        <v>Choisir la langue</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B154" t="str">
         <f>IF(Fr!A154&lt;&gt;0,Fr!A154,"")</f>
-        <v/>
+        <v>pref_app_locale_help</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D154" t="str">
         <f>IF(Fr!B154&lt;&gt;0,Fr!B154,"")</f>
-        <v/>
+        <v>Langue</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -40132,45 +40184,45 @@
     <row r="153" spans="1:5">
       <c r="A153" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B153" t="str">
         <f>IF(De!A153&lt;&gt;0,De!A153,"")</f>
-        <v/>
+        <v>pref_app_locale</v>
       </c>
       <c r="C153" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D153" t="str">
         <f>IF(De!B153&lt;&gt;0,De!B153,"")</f>
-        <v/>
+        <v>Sprache</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v xml:space="preserve">    &lt;string name="</v>
       </c>
       <c r="B154" t="str">
         <f>IF(De!A154&lt;&gt;0,De!A154,"")</f>
-        <v/>
+        <v>pref_app_locale_help</v>
       </c>
       <c r="C154" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>"&gt;</v>
       </c>
       <c r="D154" t="str">
         <f>IF(De!B154&lt;&gt;0,De!B154,"")</f>
-        <v/>
+        <v>Sprachumgebung der Anwendung festlegen</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>&lt;/string&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:5">

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20055" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="En" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="596">
   <si>
     <t>pref_app</t>
   </si>
@@ -798,21 +798,9 @@
     <t>Stopping ongoing actions</t>
   </si>
   <si>
-    <t>Sending sms to %s</t>
-  </si>
-  <si>
     <t>Specify more details:</t>
   </si>
   <si>
-    <t>Mark %s\'s sms as read</t>
-  </si>
-  <si>
-    <t>Only got %d sms</t>
-  </si>
-  <si>
-    <t>No sms found</t>
-  </si>
-  <si>
     <t>No phone call found</t>
   </si>
   <si>
@@ -852,21 +840,6 @@
     <t>- %s: dial the specified contact.</t>
   </si>
   <si>
-    <t>- %s: send a sms to your last recipient with content message.</t>
-  </si>
-  <si>
-    <t>- %s: display last sent sms from all contact.</t>
-  </si>
-  <si>
-    <t>- %s: display last sent sms from searched contacts.</t>
-  </si>
-  <si>
-    <t>- %s: sends a sms to number with content message.</t>
-  </si>
-  <si>
-    <t>- %1$s or %2$s: mark sms as read for last recipient or given contact.</t>
-  </si>
-  <si>
     <t>- %1$s or %2$s: show battery level in percent.</t>
   </si>
   <si>
@@ -1386,9 +1359,6 @@
     <t>Anzahl der SMS</t>
   </si>
   <si>
-    <t xml:space="preserve">Anzahl der SMS gezeigt werden </t>
-  </si>
-  <si>
     <t>Zeige gesendete SMS</t>
   </si>
   <si>
@@ -1404,9 +1374,6 @@
     <t>Klingelton</t>
   </si>
   <si>
-    <t>Klingelton der durch den ring Befehl abgespielt wird</t>
-  </si>
-  <si>
     <t>Verbindungseinstellungen</t>
   </si>
   <si>
@@ -1452,9 +1419,6 @@
     <t>Service Name (rechte Teil der JID)</t>
   </si>
   <si>
-    <t>Benachrichtigungseinstellungen</t>
-  </si>
-  <si>
     <t>Bei erfolgreicher Verbindung</t>
   </si>
   <si>
@@ -1530,9 +1494,6 @@
     <t>Trenne...</t>
   </si>
   <si>
-    <t>Warte...</t>
-  </si>
-  <si>
     <t>Warte auf Verbindung...</t>
   </si>
   <si>
@@ -1801,6 +1762,51 @@
   </si>
   <si>
     <t>Sprachumgebung der Anwendung festlegen</t>
+  </si>
+  <si>
+    <t>Anzahl der SMS die ausgegeben werden</t>
+  </si>
+  <si>
+    <t>Klingelton der durch den \"ring\" Befehl abgespielt wird</t>
+  </si>
+  <si>
+    <t>Verbindungsoptionen</t>
+  </si>
+  <si>
+    <t>Benachrichtigungsoptionen</t>
+  </si>
+  <si>
+    <t>Anwendungsoptionen</t>
+  </si>
+  <si>
+    <t>Wartend...</t>
+  </si>
+  <si>
+    <t>Sending SMS to %s</t>
+  </si>
+  <si>
+    <t>Mark %s\'s SMS as read</t>
+  </si>
+  <si>
+    <t>Only got %d SMS</t>
+  </si>
+  <si>
+    <t>No SMS found</t>
+  </si>
+  <si>
+    <t>- %s: send a SMS to your last recipient with content message.</t>
+  </si>
+  <si>
+    <t>- %s: display last sent SMS from all contact.</t>
+  </si>
+  <si>
+    <t>- %s: display last sent SMS from searched contacts.</t>
+  </si>
+  <si>
+    <t>- %s: sends a SMS to number with content message.</t>
+  </si>
+  <si>
+    <t>- %1$s or %2$s: mark SMS as read for last recipient or given contact.</t>
   </si>
 </sst>
 </file>
@@ -2135,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2839,7 +2845,7 @@
         <v>247</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2855,7 +2861,7 @@
         <v>250</v>
       </c>
       <c r="B89" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2868,7 +2874,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
         <v>255</v>
@@ -2876,7 +2882,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s">
         <v>256</v>
@@ -2884,7 +2890,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
         <v>257</v>
@@ -2892,7 +2898,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
         <v>258</v>
@@ -2900,367 +2906,367 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>587</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>589</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>277</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>278</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>279</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>280</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>281</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B130" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B132" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B135" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B138" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B140" t="s">
         <v>98</v>
@@ -3268,39 +3274,39 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B143" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B144" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B145" t="s">
         <v>100</v>
@@ -3308,74 +3314,74 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B147" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B148" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B149" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B150" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B151" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B152" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B153" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B154" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4529,7 @@
         <v>chat_error_unknown_cmd</v>
       </c>
       <c r="B87" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
@@ -4536,7 +4542,7 @@
         <v>chat_error</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
@@ -4549,7 +4555,7 @@
         <v>chat_error_root</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
@@ -4562,7 +4568,7 @@
         <v>chat_reply_contact</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
@@ -4575,7 +4581,7 @@
         <v>chat_start_locating</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
@@ -4588,7 +4594,7 @@
         <v>chat_start_ringing</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
@@ -4601,7 +4607,7 @@
         <v>chat_error_ringing</v>
       </c>
       <c r="B93" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
@@ -4614,7 +4620,7 @@
         <v>chat_stop_actions</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
@@ -4627,11 +4633,11 @@
         <v>chat_send_sms</v>
       </c>
       <c r="B95" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
-        <v>Sending sms to %s</v>
+        <v>Sending SMS to %s</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4640,7 +4646,7 @@
         <v>chat_specify_details</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
@@ -4653,7 +4659,7 @@
         <v>chat_no_match_for</v>
       </c>
       <c r="B97" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
@@ -4666,11 +4672,11 @@
         <v>chat_mark_as_read</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
-        <v>Mark %s\'s sms as read</v>
+        <v>Mark %s\'s SMS as read</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4679,11 +4685,11 @@
         <v>chat_only_got_n_sms</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
-        <v>Only got %d sms</v>
+        <v>Only got %d SMS</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4692,11 +4698,11 @@
         <v>chat_no_sms</v>
       </c>
       <c r="B100" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
-        <v>No sms found</v>
+        <v>No SMS found</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4705,7 +4711,7 @@
         <v>chat_no_call</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
@@ -4718,7 +4724,7 @@
         <v>chat_contact_found</v>
       </c>
       <c r="B102" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
@@ -4731,7 +4737,7 @@
         <v>chat_phones</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
@@ -4744,7 +4750,7 @@
         <v>chat_emails</v>
       </c>
       <c r="B104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C104" t="str">
         <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
@@ -4757,7 +4763,7 @@
         <v>chat_addresses</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
@@ -4770,7 +4776,7 @@
         <v>chat_text_copied</v>
       </c>
       <c r="B106" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
@@ -4783,7 +4789,7 @@
         <v>chat_error_clipboard</v>
       </c>
       <c r="B107" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
@@ -4796,7 +4802,7 @@
         <v>chat_clipboard</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
@@ -4809,7 +4815,7 @@
         <v>chat_choose_activity</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
@@ -4822,7 +4828,7 @@
         <v>chat_dial</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
@@ -4835,7 +4841,7 @@
         <v>chat_error_dial</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
@@ -4848,7 +4854,7 @@
         <v>chat_help_title</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
@@ -4861,7 +4867,7 @@
         <v>chat_help_help</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
@@ -4874,7 +4880,7 @@
         <v>chat_help_stop</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
@@ -4887,7 +4893,7 @@
         <v>chat_help_dial</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
@@ -4900,11 +4906,11 @@
         <v>chat_help_sms_reply</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
-        <v>- %s: send a sms to your last recipient with content message.</v>
+        <v>- %s: send a SMS to your last recipient with content message.</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4913,11 +4919,11 @@
         <v>chat_help_sms_show_all</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
-        <v>- %s: display last sent sms from all contact.</v>
+        <v>- %s: display last sent SMS from all contact.</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4926,11 +4932,11 @@
         <v>chat_help_sms_show_contact</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
-        <v>- %s: display last sent sms from searched contacts.</v>
+        <v>- %s: display last sent SMS from searched contacts.</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4939,11 +4945,11 @@
         <v>chat_help_sms_send</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
-        <v>- %s: sends a sms to number with content message.</v>
+        <v>- %s: sends a SMS to number with content message.</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4952,11 +4958,11 @@
         <v>chat_help_mark_as_read</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
-        <v>- %1$s or %2$s: mark sms as read for last recipient or given contact.</v>
+        <v>- %1$s or %2$s: mark SMS as read for last recipient or given contact.</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4965,7 +4971,7 @@
         <v>chat_help_battery</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
@@ -4978,7 +4984,7 @@
         <v>chat_help_calls</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
@@ -4991,7 +4997,7 @@
         <v>chat_help_contact</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
@@ -5004,7 +5010,7 @@
         <v>chat_help_geo</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
@@ -5017,7 +5023,7 @@
         <v>chat_help_where</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
@@ -5030,7 +5036,7 @@
         <v>chat_help_ring</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
@@ -5043,7 +5049,7 @@
         <v>chat_help_copy</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
@@ -5056,7 +5062,7 @@
         <v>chat_help_cmd</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
@@ -5069,7 +5075,7 @@
         <v>chat_help_write</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
@@ -5082,7 +5088,7 @@
         <v>chat_help_urls</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
@@ -5095,7 +5101,7 @@
         <v>chat_call_unknown</v>
       </c>
       <c r="B131" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
@@ -5108,7 +5114,7 @@
         <v>chat_call_incoming</v>
       </c>
       <c r="B132" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
@@ -5121,7 +5127,7 @@
         <v>chat_call_outgoing</v>
       </c>
       <c r="B133" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
@@ -5134,7 +5140,7 @@
         <v>chat_call_missed</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
@@ -5147,7 +5153,7 @@
         <v>chat_call_duration</v>
       </c>
       <c r="B135" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
@@ -5160,7 +5166,7 @@
         <v>chat_welcome</v>
       </c>
       <c r="B136" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
@@ -5173,7 +5179,7 @@
         <v>chat_app_stop</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
@@ -5186,7 +5192,7 @@
         <v>chat_is_calling</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
@@ -5199,7 +5205,7 @@
         <v>chat_call_hidden</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
@@ -5212,7 +5218,7 @@
         <v>chat_sms_sent</v>
       </c>
       <c r="B140" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
@@ -5225,7 +5231,7 @@
         <v>chat_sms_failure</v>
       </c>
       <c r="B141" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
@@ -5238,7 +5244,7 @@
         <v>chat_sms_no_service</v>
       </c>
       <c r="B142" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
@@ -5251,7 +5257,7 @@
         <v>chat_sms_null_pdu</v>
       </c>
       <c r="B143" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
@@ -5264,7 +5270,7 @@
         <v>chat_sms_radio_off</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
@@ -5277,7 +5283,7 @@
         <v>chat_sms_delivered</v>
       </c>
       <c r="B145" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
@@ -5290,7 +5296,7 @@
         <v>chat_sms_not_delivered</v>
       </c>
       <c r="B146" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
@@ -5303,7 +5309,7 @@
         <v>chat_log_failed</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
@@ -5316,7 +5322,7 @@
         <v>chat_log_unavailable</v>
       </c>
       <c r="B148" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
@@ -5329,7 +5335,7 @@
         <v>chat_geo_accuracy</v>
       </c>
       <c r="B149" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
@@ -5342,7 +5348,7 @@
         <v>chat_geo_altitude</v>
       </c>
       <c r="B150" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
@@ -5355,7 +5361,7 @@
         <v>chat_geo_speed</v>
       </c>
       <c r="B151" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
@@ -5368,7 +5374,7 @@
         <v>chat_geo_provider</v>
       </c>
       <c r="B152" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
@@ -5381,7 +5387,7 @@
         <v>pref_app_locale</v>
       </c>
       <c r="B153" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C153" t="str">
         <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
@@ -5394,7 +5400,7 @@
         <v>pref_app_locale_help</v>
       </c>
       <c r="B154" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="C154" t="str">
         <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
@@ -9370,8 +9376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9387,7 +9393,7 @@
         <v>pref_app</v>
       </c>
       <c r="B1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C1" t="str">
         <f>IF(En!B1&lt;&gt;0,En!B1,"")</f>
@@ -9400,7 +9406,7 @@
         <v>pref_app_auto_start_options</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C2" t="str">
         <f>IF(En!B2&lt;&gt;0,En!B2,"")</f>
@@ -9413,7 +9419,7 @@
         <v>pref_app_auto_stop_options</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C3" t="str">
         <f>IF(En!B3&lt;&gt;0,En!B3,"")</f>
@@ -9426,7 +9432,7 @@
         <v>pref_app_start_at_boot</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C4" t="str">
         <f>IF(En!B4&lt;&gt;0,En!B4,"")</f>
@@ -9439,7 +9445,7 @@
         <v>pref_app_start_at_boot_help</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C5" t="str">
         <f>IF(En!B5&lt;&gt;0,En!B5,"")</f>
@@ -9452,7 +9458,7 @@
         <v>pref_app_start_on_power_connected</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C6" t="str">
         <f>IF(En!B6&lt;&gt;0,En!B6,"")</f>
@@ -9465,7 +9471,7 @@
         <v>pref_app_start_on_power_connected_help</v>
       </c>
       <c r="B7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C7" t="str">
         <f>IF(En!B7&lt;&gt;0,En!B7,"")</f>
@@ -9478,7 +9484,7 @@
         <v>pref_app_stop_on_power_disconnected</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C8" t="str">
         <f>IF(En!B8&lt;&gt;0,En!B8,"")</f>
@@ -9491,7 +9497,7 @@
         <v>pref_app_stop_on_power_disconnected_help</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C9" t="str">
         <f>IF(En!B9&lt;&gt;0,En!B9,"")</f>
@@ -9504,7 +9510,7 @@
         <v>pref_app_show_status_icon</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C10" t="str">
         <f>IF(En!B10&lt;&gt;0,En!B10,"")</f>
@@ -9517,7 +9523,7 @@
         <v>pref_app_show_status_icon_help</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C11" t="str">
         <f>IF(En!B11&lt;&gt;0,En!B11,"")</f>
@@ -9530,7 +9536,7 @@
         <v>pref_app_format_responses</v>
       </c>
       <c r="B12" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C12" t="str">
         <f>IF(En!B12&lt;&gt;0,En!B12,"")</f>
@@ -9543,7 +9549,7 @@
         <v>pref_app_format_responses_help</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C13" t="str">
         <f>IF(En!B13&lt;&gt;0,En!B13,"")</f>
@@ -9556,7 +9562,7 @@
         <v>pref_app_sms_number</v>
       </c>
       <c r="B14" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C14" t="str">
         <f>IF(En!B14&lt;&gt;0,En!B14,"")</f>
@@ -9569,7 +9575,7 @@
         <v>pref_app_sms_number_help</v>
       </c>
       <c r="B15" t="s">
-        <v>455</v>
+        <v>581</v>
       </c>
       <c r="C15" t="str">
         <f>IF(En!B15&lt;&gt;0,En!B15,"")</f>
@@ -9582,7 +9588,7 @@
         <v>pref_app_show_sent_sms</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C16" t="str">
         <f>IF(En!B16&lt;&gt;0,En!B16,"")</f>
@@ -9595,7 +9601,7 @@
         <v>pref_app_show_sent_sms_help</v>
       </c>
       <c r="B17" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C17" t="str">
         <f>IF(En!B17&lt;&gt;0,En!B17,"")</f>
@@ -9608,7 +9614,7 @@
         <v>pref_app_call_logs_number</v>
       </c>
       <c r="B18" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C18" t="str">
         <f>IF(En!B18&lt;&gt;0,En!B18,"")</f>
@@ -9621,7 +9627,7 @@
         <v>pref_app_call_logs_number_help</v>
       </c>
       <c r="B19" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C19" t="str">
         <f>IF(En!B19&lt;&gt;0,En!B19,"")</f>
@@ -9634,7 +9640,7 @@
         <v>pref_app_ringtone</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C20" t="str">
         <f>IF(En!B20&lt;&gt;0,En!B20,"")</f>
@@ -9647,7 +9653,7 @@
         <v>pref_app_ringtone_help</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="C21" t="str">
         <f>IF(En!B21&lt;&gt;0,En!B21,"")</f>
@@ -9660,7 +9666,7 @@
         <v>pref_con</v>
       </c>
       <c r="B22" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C22" t="str">
         <f>IF(En!B22&lt;&gt;0,En!B22,"")</f>
@@ -9673,7 +9679,7 @@
         <v>pref_con_notified_address_cat</v>
       </c>
       <c r="B23" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C23" t="str">
         <f>IF(En!B23&lt;&gt;0,En!B23,"")</f>
@@ -9686,7 +9692,7 @@
         <v>pref_con_notified_address</v>
       </c>
       <c r="B24" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C24" t="str">
         <f>IF(En!B24&lt;&gt;0,En!B24,"")</f>
@@ -9699,7 +9705,7 @@
         <v>pref_con_notified_address_help</v>
       </c>
       <c r="B25" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C25" t="str">
         <f>IF(En!B25&lt;&gt;0,En!B25,"")</f>
@@ -9712,7 +9718,7 @@
         <v>pref_con_cat</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="C26" t="str">
         <f>IF(En!B26&lt;&gt;0,En!B26,"")</f>
@@ -9725,7 +9731,7 @@
         <v>pref_con_use_different_account</v>
       </c>
       <c r="B27" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C27" t="str">
         <f>IF(En!B27&lt;&gt;0,En!B27,"")</f>
@@ -9738,7 +9744,7 @@
         <v>pref_con_use_different_account_help</v>
       </c>
       <c r="B28" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C28" t="str">
         <f>IF(En!B28&lt;&gt;0,En!B28,"")</f>
@@ -9764,7 +9770,7 @@
         <v>pref_con_login_help</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C30" t="str">
         <f>IF(En!B30&lt;&gt;0,En!B30,"")</f>
@@ -9777,7 +9783,7 @@
         <v>pref_con_password</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C31" t="str">
         <f>IF(En!B31&lt;&gt;0,En!B31,"")</f>
@@ -9790,7 +9796,7 @@
         <v>pref_con_password_help</v>
       </c>
       <c r="B32" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C32" t="str">
         <f>IF(En!B32&lt;&gt;0,En!B32,"")</f>
@@ -9803,7 +9809,7 @@
         <v>pref_con_server_settings</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C33" t="str">
         <f>IF(En!B33&lt;&gt;0,En!B33,"")</f>
@@ -9816,7 +9822,7 @@
         <v>pref_con_server_host</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C34" t="str">
         <f>IF(En!B34&lt;&gt;0,En!B34,"")</f>
@@ -9829,7 +9835,7 @@
         <v>pref_con_server_host_help</v>
       </c>
       <c r="B35" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C35" t="str">
         <f>IF(En!B35&lt;&gt;0,En!B35,"")</f>
@@ -9842,7 +9848,7 @@
         <v>pref_con_server_port</v>
       </c>
       <c r="B36" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C36" t="str">
         <f>IF(En!B36&lt;&gt;0,En!B36,"")</f>
@@ -9855,7 +9861,7 @@
         <v>pref_con_server_port_help</v>
       </c>
       <c r="B37" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C37" t="str">
         <f>IF(En!B37&lt;&gt;0,En!B37,"")</f>
@@ -9868,7 +9874,7 @@
         <v>pref_con_service_name</v>
       </c>
       <c r="B38" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C38" t="str">
         <f>IF(En!B38&lt;&gt;0,En!B38,"")</f>
@@ -9881,7 +9887,7 @@
         <v>pref_con_service_name_help</v>
       </c>
       <c r="B39" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C39" t="str">
         <f>IF(En!B39&lt;&gt;0,En!B39,"")</f>
@@ -9894,7 +9900,7 @@
         <v>pref_notif</v>
       </c>
       <c r="B40" t="s">
-        <v>477</v>
+        <v>584</v>
       </c>
       <c r="C40" t="str">
         <f>IF(En!B40&lt;&gt;0,En!B40,"")</f>
@@ -9907,7 +9913,7 @@
         <v>pref_notif_application_connection</v>
       </c>
       <c r="B41" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C41" t="str">
         <f>IF(En!B41&lt;&gt;0,En!B41,"")</f>
@@ -9920,7 +9926,7 @@
         <v>pref_notif_application_connection_help</v>
       </c>
       <c r="B42" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="C42" t="str">
         <f>IF(En!B42&lt;&gt;0,En!B42,"")</f>
@@ -9933,7 +9939,7 @@
         <v>pref_notif_battery_state</v>
       </c>
       <c r="B43" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C43" t="str">
         <f>IF(En!B43&lt;&gt;0,En!B43,"")</f>
@@ -9946,7 +9952,7 @@
         <v>pref_notif_battery_state_help</v>
       </c>
       <c r="B44" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C44" t="str">
         <f>IF(En!B44&lt;&gt;0,En!B44,"")</f>
@@ -9959,7 +9965,7 @@
         <v>pref_notif_battery_notif_interval</v>
       </c>
       <c r="B45" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C45" t="str">
         <f>IF(En!B45&lt;&gt;0,En!B45,"")</f>
@@ -9972,7 +9978,7 @@
         <v>pref_notif_battery_notif_interval_help</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C46" t="str">
         <f>IF(En!B46&lt;&gt;0,En!B46,"")</f>
@@ -9985,7 +9991,7 @@
         <v>pref_notif_battery_state_in_status</v>
       </c>
       <c r="B47" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C47" t="str">
         <f>IF(En!B47&lt;&gt;0,En!B47,"")</f>
@@ -9998,7 +10004,7 @@
         <v>pref_notif_battery_state_in_status_help</v>
       </c>
       <c r="B48" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C48" t="str">
         <f>IF(En!B48&lt;&gt;0,En!B48,"")</f>
@@ -10011,7 +10017,7 @@
         <v>pref_notif_incoming_sms</v>
       </c>
       <c r="B49" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C49" t="str">
         <f>IF(En!B49&lt;&gt;0,En!B49,"")</f>
@@ -10024,7 +10030,7 @@
         <v>pref_notif_incoming_sms_help</v>
       </c>
       <c r="B50" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C50" t="str">
         <f>IF(En!B50&lt;&gt;0,En!B50,"")</f>
@@ -10037,7 +10043,7 @@
         <v>pref_notif_incoming_calls</v>
       </c>
       <c r="B51" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C51" t="str">
         <f>IF(En!B51&lt;&gt;0,En!B51,"")</f>
@@ -10050,7 +10056,7 @@
         <v>pref_notif_incoming_calls_help</v>
       </c>
       <c r="B52" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C52" t="str">
         <f>IF(En!B52&lt;&gt;0,En!B52,"")</f>
@@ -10063,7 +10069,7 @@
         <v>pref_notif_sms_sent</v>
       </c>
       <c r="B53" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C53" t="str">
         <f>IF(En!B53&lt;&gt;0,En!B53,"")</f>
@@ -10076,7 +10082,7 @@
         <v>pref_notif_sms_sent_help</v>
       </c>
       <c r="B54" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C54" t="str">
         <f>IF(En!B54&lt;&gt;0,En!B54,"")</f>
@@ -10089,7 +10095,7 @@
         <v>pref_notif_sms_delivered</v>
       </c>
       <c r="B55" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C55" t="str">
         <f>IF(En!B55&lt;&gt;0,En!B55,"")</f>
@@ -10102,7 +10108,7 @@
         <v>pref_notif_sms_delivered_help</v>
       </c>
       <c r="B56" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C56" t="str">
         <f>IF(En!B56&lt;&gt;0,En!B56,"")</f>
@@ -10128,7 +10134,7 @@
         <v>main_but_preferences</v>
       </c>
       <c r="B58" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C58" t="str">
         <f>IF(En!B58&lt;&gt;0,En!B58,"")</f>
@@ -10141,7 +10147,7 @@
         <v>main_but_send_clipboard</v>
       </c>
       <c r="B59" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C59" t="str">
         <f>IF(En!B59&lt;&gt;0,En!B59,"")</f>
@@ -10154,7 +10160,7 @@
         <v>main_but_about</v>
       </c>
       <c r="B60" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C60" t="str">
         <f>IF(En!B60&lt;&gt;0,En!B60,"")</f>
@@ -10180,7 +10186,7 @@
         <v>about_panel</v>
       </c>
       <c r="B62" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C62" t="str">
         <f>IF(En!B62&lt;&gt;0,En!B62,"")</f>
@@ -10206,7 +10212,7 @@
         <v>preference_panel</v>
       </c>
       <c r="B64" t="s">
-        <v>441</v>
+        <v>585</v>
       </c>
       <c r="C64" t="str">
         <f>IF(En!B64&lt;&gt;0,En!B64,"")</f>
@@ -10219,7 +10225,7 @@
         <v>log_panel_acquiring</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C65" t="str">
         <f>IF(En!B65&lt;&gt;0,En!B65,"")</f>
@@ -10232,7 +10238,7 @@
         <v>log_panel_collect</v>
       </c>
       <c r="B66" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C66" t="str">
         <f>IF(En!B66&lt;&gt;0,En!B66,"")</f>
@@ -10245,7 +10251,7 @@
         <v>main_service_connected</v>
       </c>
       <c r="B67" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C67" t="str">
         <f>IF(En!B67&lt;&gt;0,En!B67,"")</f>
@@ -10258,7 +10264,7 @@
         <v>main_service_connecting</v>
       </c>
       <c r="B68" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C68" t="str">
         <f>IF(En!B68&lt;&gt;0,En!B68,"")</f>
@@ -10271,7 +10277,7 @@
         <v>main_service_disconnected</v>
       </c>
       <c r="B69" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C69" t="str">
         <f>IF(En!B69&lt;&gt;0,En!B69,"")</f>
@@ -10284,7 +10290,7 @@
         <v>main_service_disconnecting</v>
       </c>
       <c r="B70" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C70" t="str">
         <f>IF(En!B70&lt;&gt;0,En!B70,"")</f>
@@ -10297,7 +10303,7 @@
         <v>main_service_waiting</v>
       </c>
       <c r="B71" t="s">
-        <v>503</v>
+        <v>586</v>
       </c>
       <c r="C71" t="str">
         <f>IF(En!B71&lt;&gt;0,En!B71,"")</f>
@@ -10310,7 +10316,7 @@
         <v>main_service_waiting_to_connect</v>
       </c>
       <c r="B72" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C72" t="str">
         <f>IF(En!B72&lt;&gt;0,En!B72,"")</f>
@@ -10323,7 +10329,7 @@
         <v>main_service_stop</v>
       </c>
       <c r="B73" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C73" t="str">
         <f>IF(En!B73&lt;&gt;0,En!B73,"")</f>
@@ -10336,7 +10342,7 @@
         <v>xmpp_manager_reconnecting</v>
       </c>
       <c r="B74" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C74" t="str">
         <f>IF(En!B74&lt;&gt;0,En!B74,"")</f>
@@ -10349,7 +10355,7 @@
         <v>xmpp_manager_failed_max_attempts</v>
       </c>
       <c r="B75" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C75" t="str">
         <f>IF(En!B75&lt;&gt;0,En!B75,"")</f>
@@ -10362,7 +10368,7 @@
         <v>xmpp_manager_waiting</v>
       </c>
       <c r="B76" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C76" t="str">
         <f>IF(En!B76&lt;&gt;0,En!B76,"")</f>
@@ -10375,7 +10381,7 @@
         <v>xmpp_manager_connection_failed</v>
       </c>
       <c r="B77" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C77" t="str">
         <f>IF(En!B77&lt;&gt;0,En!B77,"")</f>
@@ -10388,7 +10394,7 @@
         <v>xmpp_manager_login_failed</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C78" t="str">
         <f>IF(En!B78&lt;&gt;0,En!B78,"")</f>
@@ -10401,7 +10407,7 @@
         <v>xmpp_manager_invalid_credentials</v>
       </c>
       <c r="B79" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C79" t="str">
         <f>IF(En!B79&lt;&gt;0,En!B79,"")</f>
@@ -10427,7 +10433,7 @@
         <v>about_authors</v>
       </c>
       <c r="B81" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C81" t="str">
         <f>IF(En!B81&lt;&gt;0,En!B81,"")</f>
@@ -10440,7 +10446,7 @@
         <v>about_donors</v>
       </c>
       <c r="B82" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C82" t="str">
         <f>IF(En!B82&lt;&gt;0,En!B82,"")</f>
@@ -10453,7 +10459,7 @@
         <v>about_change_log</v>
       </c>
       <c r="B83" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C83" t="str">
         <f>IF(En!B83&lt;&gt;0,En!B83,"")</f>
@@ -10466,7 +10472,7 @@
         <v>chat_sms_from</v>
       </c>
       <c r="B84" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C84" t="str">
         <f>IF(En!B84&lt;&gt;0,En!B84,"")</f>
@@ -10479,7 +10485,7 @@
         <v>chat_battery_level</v>
       </c>
       <c r="B85" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C85" t="str">
         <f>IF(En!B85&lt;&gt;0,En!B85,"")</f>
@@ -10492,7 +10498,7 @@
         <v>chat_error_no_recipient</v>
       </c>
       <c r="B86" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C86" t="str">
         <f>IF(En!B86&lt;&gt;0,En!B86,"")</f>
@@ -10505,7 +10511,7 @@
         <v>chat_error_unknown_cmd</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C87" t="str">
         <f>IF(En!B87&lt;&gt;0,En!B87,"")</f>
@@ -10518,7 +10524,7 @@
         <v>chat_error</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C88" t="str">
         <f>IF(En!B88&lt;&gt;0,En!B88,"")</f>
@@ -10531,7 +10537,7 @@
         <v>chat_error_root</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C89" t="str">
         <f>IF(En!B89&lt;&gt;0,En!B89,"")</f>
@@ -10544,7 +10550,7 @@
         <v>chat_reply_contact</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C90" t="str">
         <f>IF(En!B90&lt;&gt;0,En!B90,"")</f>
@@ -10557,7 +10563,7 @@
         <v>chat_start_locating</v>
       </c>
       <c r="B91" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C91" t="str">
         <f>IF(En!B91&lt;&gt;0,En!B91,"")</f>
@@ -10570,7 +10576,7 @@
         <v>chat_start_ringing</v>
       </c>
       <c r="B92" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C92" t="str">
         <f>IF(En!B92&lt;&gt;0,En!B92,"")</f>
@@ -10583,7 +10589,7 @@
         <v>chat_error_ringing</v>
       </c>
       <c r="B93" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C93" t="str">
         <f>IF(En!B93&lt;&gt;0,En!B93,"")</f>
@@ -10596,7 +10602,7 @@
         <v>chat_stop_actions</v>
       </c>
       <c r="B94" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C94" t="str">
         <f>IF(En!B94&lt;&gt;0,En!B94,"")</f>
@@ -10609,11 +10615,11 @@
         <v>chat_send_sms</v>
       </c>
       <c r="B95" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="C95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
-        <v>Sending sms to %s</v>
+        <v>Sending SMS to %s</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10622,7 +10628,7 @@
         <v>chat_specify_details</v>
       </c>
       <c r="B96" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C96" t="str">
         <f>IF(En!B96&lt;&gt;0,En!B96,"")</f>
@@ -10635,7 +10641,7 @@
         <v>chat_no_match_for</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C97" t="str">
         <f>IF(En!B97&lt;&gt;0,En!B97,"")</f>
@@ -10648,11 +10654,11 @@
         <v>chat_mark_as_read</v>
       </c>
       <c r="B98" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="C98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
-        <v>Mark %s\'s sms as read</v>
+        <v>Mark %s\'s SMS as read</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -10661,11 +10667,11 @@
         <v>chat_only_got_n_sms</v>
       </c>
       <c r="B99" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
-        <v>Only got %d sms</v>
+        <v>Only got %d SMS</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -10674,11 +10680,11 @@
         <v>chat_no_sms</v>
       </c>
       <c r="B100" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
-        <v>No sms found</v>
+        <v>No SMS found</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10687,7 +10693,7 @@
         <v>chat_no_call</v>
       </c>
       <c r="B101" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C101" t="str">
         <f>IF(En!B101&lt;&gt;0,En!B101,"")</f>
@@ -10700,7 +10706,7 @@
         <v>chat_contact_found</v>
       </c>
       <c r="B102" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C102" t="str">
         <f>IF(En!B102&lt;&gt;0,En!B102,"")</f>
@@ -10713,7 +10719,7 @@
         <v>chat_phones</v>
       </c>
       <c r="B103" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C103" t="str">
         <f>IF(En!B103&lt;&gt;0,En!B103,"")</f>
@@ -10726,7 +10732,7 @@
         <v>chat_emails</v>
       </c>
       <c r="B104" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C104" t="str">
         <f>IF(En!B104&lt;&gt;0,En!B104,"")</f>
@@ -10739,7 +10745,7 @@
         <v>chat_addresses</v>
       </c>
       <c r="B105" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C105" t="str">
         <f>IF(En!B105&lt;&gt;0,En!B105,"")</f>
@@ -10752,7 +10758,7 @@
         <v>chat_text_copied</v>
       </c>
       <c r="B106" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="C106" t="str">
         <f>IF(En!B106&lt;&gt;0,En!B106,"")</f>
@@ -10765,7 +10771,7 @@
         <v>chat_error_clipboard</v>
       </c>
       <c r="B107" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C107" t="str">
         <f>IF(En!B107&lt;&gt;0,En!B107,"")</f>
@@ -10778,7 +10784,7 @@
         <v>chat_clipboard</v>
       </c>
       <c r="B108" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C108" t="str">
         <f>IF(En!B108&lt;&gt;0,En!B108,"")</f>
@@ -10791,7 +10797,7 @@
         <v>chat_choose_activity</v>
       </c>
       <c r="B109" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C109" t="str">
         <f>IF(En!B109&lt;&gt;0,En!B109,"")</f>
@@ -10804,7 +10810,7 @@
         <v>chat_dial</v>
       </c>
       <c r="B110" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C110" t="str">
         <f>IF(En!B110&lt;&gt;0,En!B110,"")</f>
@@ -10817,7 +10823,7 @@
         <v>chat_error_dial</v>
       </c>
       <c r="B111" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C111" t="str">
         <f>IF(En!B111&lt;&gt;0,En!B111,"")</f>
@@ -10830,7 +10836,7 @@
         <v>chat_help_title</v>
       </c>
       <c r="B112" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C112" t="str">
         <f>IF(En!B112&lt;&gt;0,En!B112,"")</f>
@@ -10843,7 +10849,7 @@
         <v>chat_help_help</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C113" t="str">
         <f>IF(En!B113&lt;&gt;0,En!B113,"")</f>
@@ -10856,7 +10862,7 @@
         <v>chat_help_stop</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C114" t="str">
         <f>IF(En!B114&lt;&gt;0,En!B114,"")</f>
@@ -10869,7 +10875,7 @@
         <v>chat_help_dial</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C115" t="str">
         <f>IF(En!B115&lt;&gt;0,En!B115,"")</f>
@@ -10882,11 +10888,11 @@
         <v>chat_help_sms_reply</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
-        <v>- %s: send a sms to your last recipient with content message.</v>
+        <v>- %s: send a SMS to your last recipient with content message.</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10895,11 +10901,11 @@
         <v>chat_help_sms_show_all</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
-        <v>- %s: display last sent sms from all contact.</v>
+        <v>- %s: display last sent SMS from all contact.</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10908,11 +10914,11 @@
         <v>chat_help_sms_show_contact</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
-        <v>- %s: display last sent sms from searched contacts.</v>
+        <v>- %s: display last sent SMS from searched contacts.</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -10921,11 +10927,11 @@
         <v>chat_help_sms_send</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
-        <v>- %s: sends a sms to number with content message.</v>
+        <v>- %s: sends a SMS to number with content message.</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10934,11 +10940,11 @@
         <v>chat_help_mark_as_read</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
-        <v>- %1$s or %2$s: mark sms as read for last recipient or given contact.</v>
+        <v>- %1$s or %2$s: mark SMS as read for last recipient or given contact.</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10947,7 +10953,7 @@
         <v>chat_help_battery</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C121" t="str">
         <f>IF(En!B121&lt;&gt;0,En!B121,"")</f>
@@ -10960,7 +10966,7 @@
         <v>chat_help_calls</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C122" t="str">
         <f>IF(En!B122&lt;&gt;0,En!B122,"")</f>
@@ -10973,7 +10979,7 @@
         <v>chat_help_contact</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C123" t="str">
         <f>IF(En!B123&lt;&gt;0,En!B123,"")</f>
@@ -10986,7 +10992,7 @@
         <v>chat_help_geo</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C124" t="str">
         <f>IF(En!B124&lt;&gt;0,En!B124,"")</f>
@@ -10999,7 +11005,7 @@
         <v>chat_help_where</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C125" t="str">
         <f>IF(En!B125&lt;&gt;0,En!B125,"")</f>
@@ -11012,7 +11018,7 @@
         <v>chat_help_ring</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C126" t="str">
         <f>IF(En!B126&lt;&gt;0,En!B126,"")</f>
@@ -11025,7 +11031,7 @@
         <v>chat_help_copy</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C127" t="str">
         <f>IF(En!B127&lt;&gt;0,En!B127,"")</f>
@@ -11038,7 +11044,7 @@
         <v>chat_help_cmd</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C128" t="str">
         <f>IF(En!B128&lt;&gt;0,En!B128,"")</f>
@@ -11051,7 +11057,7 @@
         <v>chat_help_write</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="C129" t="str">
         <f>IF(En!B129&lt;&gt;0,En!B129,"")</f>
@@ -11064,7 +11070,7 @@
         <v>chat_help_urls</v>
       </c>
       <c r="B130" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C130" t="str">
         <f>IF(En!B130&lt;&gt;0,En!B130,"")</f>
@@ -11077,7 +11083,7 @@
         <v>chat_call_unknown</v>
       </c>
       <c r="B131" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C131" t="str">
         <f>IF(En!B131&lt;&gt;0,En!B131,"")</f>
@@ -11090,7 +11096,7 @@
         <v>chat_call_incoming</v>
       </c>
       <c r="B132" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="C132" t="str">
         <f>IF(En!B132&lt;&gt;0,En!B132,"")</f>
@@ -11103,7 +11109,7 @@
         <v>chat_call_outgoing</v>
       </c>
       <c r="B133" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C133" t="str">
         <f>IF(En!B133&lt;&gt;0,En!B133,"")</f>
@@ -11116,7 +11122,7 @@
         <v>chat_call_missed</v>
       </c>
       <c r="B134" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="C134" t="str">
         <f>IF(En!B134&lt;&gt;0,En!B134,"")</f>
@@ -11129,7 +11135,7 @@
         <v>chat_call_duration</v>
       </c>
       <c r="B135" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C135" t="str">
         <f>IF(En!B135&lt;&gt;0,En!B135,"")</f>
@@ -11142,7 +11148,7 @@
         <v>chat_welcome</v>
       </c>
       <c r="B136" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="C136" t="str">
         <f>IF(En!B136&lt;&gt;0,En!B136,"")</f>
@@ -11155,7 +11161,7 @@
         <v>chat_app_stop</v>
       </c>
       <c r="B137" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C137" t="str">
         <f>IF(En!B137&lt;&gt;0,En!B137,"")</f>
@@ -11168,7 +11174,7 @@
         <v>chat_is_calling</v>
       </c>
       <c r="B138" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C138" t="str">
         <f>IF(En!B138&lt;&gt;0,En!B138,"")</f>
@@ -11181,7 +11187,7 @@
         <v>chat_call_hidden</v>
       </c>
       <c r="B139" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C139" t="str">
         <f>IF(En!B139&lt;&gt;0,En!B139,"")</f>
@@ -11194,7 +11200,7 @@
         <v>chat_sms_sent</v>
       </c>
       <c r="B140" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C140" t="str">
         <f>IF(En!B140&lt;&gt;0,En!B140,"")</f>
@@ -11207,7 +11213,7 @@
         <v>chat_sms_failure</v>
       </c>
       <c r="B141" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C141" t="str">
         <f>IF(En!B141&lt;&gt;0,En!B141,"")</f>
@@ -11220,7 +11226,7 @@
         <v>chat_sms_no_service</v>
       </c>
       <c r="B142" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C142" t="str">
         <f>IF(En!B142&lt;&gt;0,En!B142,"")</f>
@@ -11233,7 +11239,7 @@
         <v>chat_sms_null_pdu</v>
       </c>
       <c r="B143" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C143" t="str">
         <f>IF(En!B143&lt;&gt;0,En!B143,"")</f>
@@ -11246,7 +11252,7 @@
         <v>chat_sms_radio_off</v>
       </c>
       <c r="B144" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C144" t="str">
         <f>IF(En!B144&lt;&gt;0,En!B144,"")</f>
@@ -11259,7 +11265,7 @@
         <v>chat_sms_delivered</v>
       </c>
       <c r="B145" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C145" t="str">
         <f>IF(En!B145&lt;&gt;0,En!B145,"")</f>
@@ -11272,7 +11278,7 @@
         <v>chat_sms_not_delivered</v>
       </c>
       <c r="B146" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C146" t="str">
         <f>IF(En!B146&lt;&gt;0,En!B146,"")</f>
@@ -11285,7 +11291,7 @@
         <v>chat_log_failed</v>
       </c>
       <c r="B147" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C147" t="str">
         <f>IF(En!B147&lt;&gt;0,En!B147,"")</f>
@@ -11298,7 +11304,7 @@
         <v>chat_log_unavailable</v>
       </c>
       <c r="B148" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C148" t="str">
         <f>IF(En!B148&lt;&gt;0,En!B148,"")</f>
@@ -11311,7 +11317,7 @@
         <v>chat_geo_accuracy</v>
       </c>
       <c r="B149" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="C149" t="str">
         <f>IF(En!B149&lt;&gt;0,En!B149,"")</f>
@@ -11324,7 +11330,7 @@
         <v>chat_geo_altitude</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="C150" t="str">
         <f>IF(En!B150&lt;&gt;0,En!B150,"")</f>
@@ -11337,7 +11343,7 @@
         <v>chat_geo_speed</v>
       </c>
       <c r="B151" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C151" t="str">
         <f>IF(En!B151&lt;&gt;0,En!B151,"")</f>
@@ -11350,7 +11356,7 @@
         <v>chat_geo_provider</v>
       </c>
       <c r="B152" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C152" t="str">
         <f>IF(En!B152&lt;&gt;0,En!B152,"")</f>
@@ -11363,7 +11369,7 @@
         <v>pref_app_locale</v>
       </c>
       <c r="B153" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="C153" t="str">
         <f>IF(En!B153&lt;&gt;0,En!B153,"")</f>
@@ -11376,7 +11382,7 @@
         <v>pref_app_locale_help</v>
       </c>
       <c r="B154" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C154" t="str">
         <f>IF(En!B154&lt;&gt;0,En!B154,"")</f>
@@ -15345,6 +15351,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17448,7 +17455,7 @@
       </c>
       <c r="D95" t="str">
         <f>IF(En!B95&lt;&gt;0,En!B95,"")</f>
-        <v>Sending sms to %s</v>
+        <v>Sending SMS to %s</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="5"/>
@@ -17514,7 +17521,7 @@
       </c>
       <c r="D98" t="str">
         <f>IF(En!B98&lt;&gt;0,En!B98,"")</f>
-        <v>Mark %s\'s sms as read</v>
+        <v>Mark %s\'s SMS as read</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="5"/>
@@ -17536,7 +17543,7 @@
       </c>
       <c r="D99" t="str">
         <f>IF(En!B99&lt;&gt;0,En!B99,"")</f>
-        <v>Only got %d sms</v>
+        <v>Only got %d SMS</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="5"/>
@@ -17558,7 +17565,7 @@
       </c>
       <c r="D100" t="str">
         <f>IF(En!B100&lt;&gt;0,En!B100,"")</f>
-        <v>No sms found</v>
+        <v>No SMS found</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="5"/>
@@ -17910,7 +17917,7 @@
       </c>
       <c r="D116" t="str">
         <f>IF(En!B116&lt;&gt;0,En!B116,"")</f>
-        <v>- %s: send a sms to your last recipient with content message.</v>
+        <v>- %s: send a SMS to your last recipient with content message.</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="5"/>
@@ -17932,7 +17939,7 @@
       </c>
       <c r="D117" t="str">
         <f>IF(En!B117&lt;&gt;0,En!B117,"")</f>
-        <v>- %s: display last sent sms from all contact.</v>
+        <v>- %s: display last sent SMS from all contact.</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="5"/>
@@ -17954,7 +17961,7 @@
       </c>
       <c r="D118" t="str">
         <f>IF(En!B118&lt;&gt;0,En!B118,"")</f>
-        <v>- %s: display last sent sms from searched contacts.</v>
+        <v>- %s: display last sent SMS from searched contacts.</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="5"/>
@@ -17976,7 +17983,7 @@
       </c>
       <c r="D119" t="str">
         <f>IF(En!B119&lt;&gt;0,En!B119,"")</f>
-        <v>- %s: sends a sms to number with content message.</v>
+        <v>- %s: sends a SMS to number with content message.</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="5"/>
@@ -17998,7 +18005,7 @@
       </c>
       <c r="D120" t="str">
         <f>IF(En!B120&lt;&gt;0,En!B120,"")</f>
-        <v>- %1$s or %2$s: mark sms as read for last recipient or given contact.</v>
+        <v>- %1$s or %2$s: mark SMS as read for last recipient or given contact.</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="5"/>
@@ -36824,8 +36831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E480"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E154" sqref="A1:E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -37160,7 +37167,7 @@
       </c>
       <c r="D15" t="str">
         <f>IF(De!B15&lt;&gt;0,De!B15,"")</f>
-        <v xml:space="preserve">Anzahl der SMS gezeigt werden </v>
+        <v>Anzahl der SMS die ausgegeben werden</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -37292,7 +37299,7 @@
       </c>
       <c r="D21" t="str">
         <f>IF(De!B21&lt;&gt;0,De!B21,"")</f>
-        <v>Klingelton der durch den ring Befehl abgespielt wird</v>
+        <v>Klingelton der durch den \"ring\" Befehl abgespielt wird</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
@@ -37402,7 +37409,7 @@
       </c>
       <c r="D26" t="str">
         <f>IF(De!B26&lt;&gt;0,De!B26,"")</f>
-        <v>Verbindungseinstellungen</v>
+        <v>Verbindungsoptionen</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="2"/>
@@ -37710,7 +37717,7 @@
       </c>
       <c r="D40" t="str">
         <f>IF(De!B40&lt;&gt;0,De!B40,"")</f>
-        <v>Benachrichtigungseinstellungen</v>
+        <v>Benachrichtigungsoptionen</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="2"/>
@@ -38238,7 +38245,7 @@
       </c>
       <c r="D64" t="str">
         <f>IF(De!B64&lt;&gt;0,De!B64,"")</f>
-        <v>Einstellungen</v>
+        <v>Anwendungsoptionen</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="2"/>
@@ -38392,7 +38399,7 @@
       </c>
       <c r="D71" t="str">
         <f>IF(De!B71&lt;&gt;0,De!B71,"")</f>
-        <v>Warte...</v>
+        <v>Wartend...</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="5"/>
